--- a/Att.xlsx
+++ b/Att.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\寶可夢\Pokemon_App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA381D55-3537-4846-8ADB-3399F13152B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08CB6A7A-233A-46DD-BA24-C76F9D75E70A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="117">
   <si>
     <t>草</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -312,9 +312,6 @@
     <t>毛毛角羊</t>
   </si>
   <si>
-    <t>千面避役</t>
-  </si>
-  <si>
     <t>巨鉗蟹</t>
   </si>
   <si>
@@ -343,9 +340,6 @@
   </si>
   <si>
     <t>胡地</t>
-  </si>
-  <si>
-    <t>拉普拉斯</t>
   </si>
   <si>
     <t>鋁鋼龍</t>
@@ -377,6 +371,54 @@
   </si>
   <si>
     <t>超級巨/極巨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>超極巨轟擂金剛猩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>超極巨怪力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>超極巨戰弦蠑螈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>超極巨妙蛙花</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>超極巨耿鬼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>超極巨閃焰王牌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>超極巨噴火龍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>超極巨巴大蝶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>超極巨千面避役</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>超極巨巨鉗蟹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>超極巨水箭龜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>超極巨拉普拉斯</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -829,12 +871,12 @@
   <dimension ref="B1:AB115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.75" bestFit="1" customWidth="1"/>
   </cols>
@@ -853,16 +895,16 @@
         <v>47</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>1</v>
@@ -883,7 +925,7 @@
         <v>2</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>23</v>
@@ -913,12 +955,12 @@
         <v>17</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="2:28" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>36</v>
@@ -995,7 +1037,7 @@
     </row>
     <row r="3" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>52</v>
@@ -1010,7 +1052,7 @@
         <v>50</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J3" s="2">
         <v>1</v>
@@ -1072,7 +1114,7 @@
     </row>
     <row r="4" spans="2:28" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>30</v>
@@ -1149,7 +1191,7 @@
     </row>
     <row r="5" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>36</v>
@@ -1549,7 +1591,7 @@
         <v>56</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J10" s="2">
         <v>1</v>
@@ -1765,7 +1807,7 @@
     </row>
     <row r="13" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>60</v>
+        <v>109</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>61</v>
@@ -2150,7 +2192,7 @@
     </row>
     <row r="18" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>7</v>
@@ -2304,7 +2346,7 @@
     </row>
     <row r="20" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>7</v>
@@ -2319,7 +2361,7 @@
         <v>50</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J20" s="2">
         <v>1</v>
@@ -2840,7 +2882,7 @@
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B48" s="1" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>83</v>
@@ -2908,7 +2950,7 @@
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B52" s="1" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>28</v>
@@ -2925,7 +2967,7 @@
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B53" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>12</v>
@@ -2942,7 +2984,7 @@
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B54" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>63</v>
@@ -2976,7 +3018,7 @@
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B56" s="1" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>28</v>
@@ -3095,7 +3137,7 @@
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B63" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>74</v>
@@ -3112,7 +3154,7 @@
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B64" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>63</v>
@@ -3146,7 +3188,7 @@
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B66" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>83</v>
@@ -3197,7 +3239,7 @@
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B69" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>61</v>
@@ -3214,7 +3256,7 @@
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B70" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>34</v>
@@ -3265,7 +3307,7 @@
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B73" s="1" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>28</v>
@@ -3282,7 +3324,7 @@
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B74" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>12</v>
@@ -3350,7 +3392,7 @@
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B78" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>28</v>
@@ -3384,7 +3426,7 @@
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B80" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>11</v>
@@ -3418,7 +3460,7 @@
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B82" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>38</v>
@@ -3435,7 +3477,7 @@
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B83" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>38</v>
@@ -3452,7 +3494,7 @@
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B84" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>64</v>
@@ -3469,7 +3511,7 @@
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B85" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>83</v>
@@ -3486,7 +3528,7 @@
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B86" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>11</v>
@@ -3503,7 +3545,7 @@
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B87" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>52</v>
@@ -3520,7 +3562,7 @@
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B88" s="1" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>38</v>
@@ -3537,7 +3579,7 @@
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B89" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>63</v>
@@ -3554,7 +3596,7 @@
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B90" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>69</v>
@@ -3571,7 +3613,7 @@
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B91" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>26</v>
@@ -3605,7 +3647,7 @@
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B93" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>40</v>
@@ -3622,7 +3664,7 @@
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B94" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>11</v>
@@ -3639,7 +3681,7 @@
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B95" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>36</v>
@@ -3656,7 +3698,7 @@
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B96" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>30</v>
@@ -3673,7 +3715,7 @@
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B97" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>36</v>
@@ -3690,7 +3732,7 @@
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B98" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>40</v>
@@ -3945,7 +3987,7 @@
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B113" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>81</v>

--- a/Att.xlsx
+++ b/Att.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\寶可夢\Pokemon_App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E895ED9-4E5C-4E67-8A73-DFAABC059916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63285C64-E053-45FB-B2D2-E4C4882C46B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2603,8 +2603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AB150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="G154" sqref="G154"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="B119" sqref="B119:F150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -6411,707 +6411,707 @@
       </c>
     </row>
     <row r="119" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B119" s="14">
-        <f>[1]攻守數據!AD120</f>
-        <v>0</v>
-      </c>
-      <c r="C119" s="14">
-        <f>[1]攻守數據!AE120</f>
-        <v>0</v>
-      </c>
-      <c r="D119" s="14">
-        <f>[1]攻守數據!AF120</f>
-        <v>0</v>
-      </c>
-      <c r="E119" s="14">
-        <f>[1]攻守數據!AG120</f>
-        <v>0</v>
-      </c>
-      <c r="F119" s="14">
-        <f>[1]攻守數據!AH120</f>
-        <v>0</v>
+      <c r="B119" s="14" t="str">
+        <f>IF([1]攻守數據!AD120 = "", "", [1]攻守數據!AD120)</f>
+        <v/>
+      </c>
+      <c r="C119" s="14" t="str">
+        <f>IF([1]攻守數據!AE120 = "", "", [1]攻守數據!AE120)</f>
+        <v/>
+      </c>
+      <c r="D119" s="14" t="str">
+        <f>IF([1]攻守數據!AF120 = "", "", [1]攻守數據!AF120)</f>
+        <v/>
+      </c>
+      <c r="E119" s="14" t="str">
+        <f>IF([1]攻守數據!AG120 = "", "", [1]攻守數據!AG120)</f>
+        <v/>
+      </c>
+      <c r="F119" s="14" t="str">
+        <f>IF([1]攻守數據!AH120 = "", "", [1]攻守數據!AH120)</f>
+        <v/>
       </c>
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B120" s="14">
-        <f>[1]攻守數據!AD121</f>
-        <v>0</v>
-      </c>
-      <c r="C120" s="14">
-        <f>[1]攻守數據!AE121</f>
-        <v>0</v>
-      </c>
-      <c r="D120" s="14">
-        <f>[1]攻守數據!AF121</f>
-        <v>0</v>
-      </c>
-      <c r="E120" s="14">
-        <f>[1]攻守數據!AG121</f>
-        <v>0</v>
-      </c>
-      <c r="F120" s="14">
-        <f>[1]攻守數據!AH121</f>
-        <v>0</v>
+      <c r="B120" s="14" t="str">
+        <f>IF([1]攻守數據!AD121 = "", "", [1]攻守數據!AD121)</f>
+        <v/>
+      </c>
+      <c r="C120" s="14" t="str">
+        <f>IF([1]攻守數據!AE121 = "", "", [1]攻守數據!AE121)</f>
+        <v/>
+      </c>
+      <c r="D120" s="14" t="str">
+        <f>IF([1]攻守數據!AF121 = "", "", [1]攻守數據!AF121)</f>
+        <v/>
+      </c>
+      <c r="E120" s="14" t="str">
+        <f>IF([1]攻守數據!AG121 = "", "", [1]攻守數據!AG121)</f>
+        <v/>
+      </c>
+      <c r="F120" s="14" t="str">
+        <f>IF([1]攻守數據!AH121 = "", "", [1]攻守數據!AH121)</f>
+        <v/>
       </c>
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B121" s="14">
-        <f>[1]攻守數據!AD122</f>
-        <v>0</v>
-      </c>
-      <c r="C121" s="14">
-        <f>[1]攻守數據!AE122</f>
-        <v>0</v>
-      </c>
-      <c r="D121" s="14">
-        <f>[1]攻守數據!AF122</f>
-        <v>0</v>
-      </c>
-      <c r="E121" s="14">
-        <f>[1]攻守數據!AG122</f>
-        <v>0</v>
-      </c>
-      <c r="F121" s="14">
-        <f>[1]攻守數據!AH122</f>
-        <v>0</v>
+      <c r="B121" s="14" t="str">
+        <f>IF([1]攻守數據!AD122 = "", "", [1]攻守數據!AD122)</f>
+        <v/>
+      </c>
+      <c r="C121" s="14" t="str">
+        <f>IF([1]攻守數據!AE122 = "", "", [1]攻守數據!AE122)</f>
+        <v/>
+      </c>
+      <c r="D121" s="14" t="str">
+        <f>IF([1]攻守數據!AF122 = "", "", [1]攻守數據!AF122)</f>
+        <v/>
+      </c>
+      <c r="E121" s="14" t="str">
+        <f>IF([1]攻守數據!AG122 = "", "", [1]攻守數據!AG122)</f>
+        <v/>
+      </c>
+      <c r="F121" s="14" t="str">
+        <f>IF([1]攻守數據!AH122 = "", "", [1]攻守數據!AH122)</f>
+        <v/>
       </c>
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B122" s="14">
-        <f>[1]攻守數據!AD123</f>
-        <v>0</v>
-      </c>
-      <c r="C122" s="14">
-        <f>[1]攻守數據!AE123</f>
-        <v>0</v>
-      </c>
-      <c r="D122" s="14">
-        <f>[1]攻守數據!AF123</f>
-        <v>0</v>
-      </c>
-      <c r="E122" s="14">
-        <f>[1]攻守數據!AG123</f>
-        <v>0</v>
-      </c>
-      <c r="F122" s="14">
-        <f>[1]攻守數據!AH123</f>
-        <v>0</v>
+      <c r="B122" s="14" t="str">
+        <f>IF([1]攻守數據!AD123 = "", "", [1]攻守數據!AD123)</f>
+        <v/>
+      </c>
+      <c r="C122" s="14" t="str">
+        <f>IF([1]攻守數據!AE123 = "", "", [1]攻守數據!AE123)</f>
+        <v/>
+      </c>
+      <c r="D122" s="14" t="str">
+        <f>IF([1]攻守數據!AF123 = "", "", [1]攻守數據!AF123)</f>
+        <v/>
+      </c>
+      <c r="E122" s="14" t="str">
+        <f>IF([1]攻守數據!AG123 = "", "", [1]攻守數據!AG123)</f>
+        <v/>
+      </c>
+      <c r="F122" s="14" t="str">
+        <f>IF([1]攻守數據!AH123 = "", "", [1]攻守數據!AH123)</f>
+        <v/>
       </c>
     </row>
     <row r="123" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B123" s="14">
-        <f>[1]攻守數據!AD124</f>
-        <v>0</v>
-      </c>
-      <c r="C123" s="14">
-        <f>[1]攻守數據!AE124</f>
-        <v>0</v>
-      </c>
-      <c r="D123" s="14">
-        <f>[1]攻守數據!AF124</f>
-        <v>0</v>
-      </c>
-      <c r="E123" s="14">
-        <f>[1]攻守數據!AG124</f>
-        <v>0</v>
-      </c>
-      <c r="F123" s="14">
-        <f>[1]攻守數據!AH124</f>
-        <v>0</v>
+      <c r="B123" s="14" t="str">
+        <f>IF([1]攻守數據!AD124 = "", "", [1]攻守數據!AD124)</f>
+        <v/>
+      </c>
+      <c r="C123" s="14" t="str">
+        <f>IF([1]攻守數據!AE124 = "", "", [1]攻守數據!AE124)</f>
+        <v/>
+      </c>
+      <c r="D123" s="14" t="str">
+        <f>IF([1]攻守數據!AF124 = "", "", [1]攻守數據!AF124)</f>
+        <v/>
+      </c>
+      <c r="E123" s="14" t="str">
+        <f>IF([1]攻守數據!AG124 = "", "", [1]攻守數據!AG124)</f>
+        <v/>
+      </c>
+      <c r="F123" s="14" t="str">
+        <f>IF([1]攻守數據!AH124 = "", "", [1]攻守數據!AH124)</f>
+        <v/>
       </c>
     </row>
     <row r="124" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B124" s="14">
-        <f>[1]攻守數據!AD125</f>
-        <v>0</v>
-      </c>
-      <c r="C124" s="14">
-        <f>[1]攻守數據!AE125</f>
-        <v>0</v>
-      </c>
-      <c r="D124" s="14">
-        <f>[1]攻守數據!AF125</f>
-        <v>0</v>
-      </c>
-      <c r="E124" s="14">
-        <f>[1]攻守數據!AG125</f>
-        <v>0</v>
-      </c>
-      <c r="F124" s="14">
-        <f>[1]攻守數據!AH125</f>
-        <v>0</v>
+      <c r="B124" s="14" t="str">
+        <f>IF([1]攻守數據!AD125 = "", "", [1]攻守數據!AD125)</f>
+        <v/>
+      </c>
+      <c r="C124" s="14" t="str">
+        <f>IF([1]攻守數據!AE125 = "", "", [1]攻守數據!AE125)</f>
+        <v/>
+      </c>
+      <c r="D124" s="14" t="str">
+        <f>IF([1]攻守數據!AF125 = "", "", [1]攻守數據!AF125)</f>
+        <v/>
+      </c>
+      <c r="E124" s="14" t="str">
+        <f>IF([1]攻守數據!AG125 = "", "", [1]攻守數據!AG125)</f>
+        <v/>
+      </c>
+      <c r="F124" s="14" t="str">
+        <f>IF([1]攻守數據!AH125 = "", "", [1]攻守數據!AH125)</f>
+        <v/>
       </c>
     </row>
     <row r="125" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B125" s="14">
-        <f>[1]攻守數據!AD126</f>
-        <v>0</v>
-      </c>
-      <c r="C125" s="14">
-        <f>[1]攻守數據!AE126</f>
-        <v>0</v>
-      </c>
-      <c r="D125" s="14">
-        <f>[1]攻守數據!AF126</f>
-        <v>0</v>
-      </c>
-      <c r="E125" s="14">
-        <f>[1]攻守數據!AG126</f>
-        <v>0</v>
-      </c>
-      <c r="F125" s="14">
-        <f>[1]攻守數據!AH126</f>
-        <v>0</v>
+      <c r="B125" s="14" t="str">
+        <f>IF([1]攻守數據!AD126 = "", "", [1]攻守數據!AD126)</f>
+        <v/>
+      </c>
+      <c r="C125" s="14" t="str">
+        <f>IF([1]攻守數據!AE126 = "", "", [1]攻守數據!AE126)</f>
+        <v/>
+      </c>
+      <c r="D125" s="14" t="str">
+        <f>IF([1]攻守數據!AF126 = "", "", [1]攻守數據!AF126)</f>
+        <v/>
+      </c>
+      <c r="E125" s="14" t="str">
+        <f>IF([1]攻守數據!AG126 = "", "", [1]攻守數據!AG126)</f>
+        <v/>
+      </c>
+      <c r="F125" s="14" t="str">
+        <f>IF([1]攻守數據!AH126 = "", "", [1]攻守數據!AH126)</f>
+        <v/>
       </c>
     </row>
     <row r="126" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B126" s="14">
-        <f>[1]攻守數據!AD127</f>
-        <v>0</v>
-      </c>
-      <c r="C126" s="14">
-        <f>[1]攻守數據!AE127</f>
-        <v>0</v>
-      </c>
-      <c r="D126" s="14">
-        <f>[1]攻守數據!AF127</f>
-        <v>0</v>
-      </c>
-      <c r="E126" s="14">
-        <f>[1]攻守數據!AG127</f>
-        <v>0</v>
-      </c>
-      <c r="F126" s="14">
-        <f>[1]攻守數據!AH127</f>
-        <v>0</v>
+      <c r="B126" s="14" t="str">
+        <f>IF([1]攻守數據!AD127 = "", "", [1]攻守數據!AD127)</f>
+        <v/>
+      </c>
+      <c r="C126" s="14" t="str">
+        <f>IF([1]攻守數據!AE127 = "", "", [1]攻守數據!AE127)</f>
+        <v/>
+      </c>
+      <c r="D126" s="14" t="str">
+        <f>IF([1]攻守數據!AF127 = "", "", [1]攻守數據!AF127)</f>
+        <v/>
+      </c>
+      <c r="E126" s="14" t="str">
+        <f>IF([1]攻守數據!AG127 = "", "", [1]攻守數據!AG127)</f>
+        <v/>
+      </c>
+      <c r="F126" s="14" t="str">
+        <f>IF([1]攻守數據!AH127 = "", "", [1]攻守數據!AH127)</f>
+        <v/>
       </c>
     </row>
     <row r="127" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B127" s="14">
-        <f>[1]攻守數據!AD128</f>
-        <v>0</v>
-      </c>
-      <c r="C127" s="14">
-        <f>[1]攻守數據!AE128</f>
-        <v>0</v>
-      </c>
-      <c r="D127" s="14">
-        <f>[1]攻守數據!AF128</f>
-        <v>0</v>
-      </c>
-      <c r="E127" s="14">
-        <f>[1]攻守數據!AG128</f>
-        <v>0</v>
-      </c>
-      <c r="F127" s="14">
-        <f>[1]攻守數據!AH128</f>
-        <v>0</v>
+      <c r="B127" s="14" t="str">
+        <f>IF([1]攻守數據!AD128 = "", "", [1]攻守數據!AD128)</f>
+        <v/>
+      </c>
+      <c r="C127" s="14" t="str">
+        <f>IF([1]攻守數據!AE128 = "", "", [1]攻守數據!AE128)</f>
+        <v/>
+      </c>
+      <c r="D127" s="14" t="str">
+        <f>IF([1]攻守數據!AF128 = "", "", [1]攻守數據!AF128)</f>
+        <v/>
+      </c>
+      <c r="E127" s="14" t="str">
+        <f>IF([1]攻守數據!AG128 = "", "", [1]攻守數據!AG128)</f>
+        <v/>
+      </c>
+      <c r="F127" s="14" t="str">
+        <f>IF([1]攻守數據!AH128 = "", "", [1]攻守數據!AH128)</f>
+        <v/>
       </c>
     </row>
     <row r="128" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B128" s="14">
-        <f>[1]攻守數據!AD129</f>
-        <v>0</v>
-      </c>
-      <c r="C128" s="14">
-        <f>[1]攻守數據!AE129</f>
-        <v>0</v>
-      </c>
-      <c r="D128" s="14">
-        <f>[1]攻守數據!AF129</f>
-        <v>0</v>
-      </c>
-      <c r="E128" s="14">
-        <f>[1]攻守數據!AG129</f>
-        <v>0</v>
-      </c>
-      <c r="F128" s="14">
-        <f>[1]攻守數據!AH129</f>
-        <v>0</v>
+      <c r="B128" s="14" t="str">
+        <f>IF([1]攻守數據!AD129 = "", "", [1]攻守數據!AD129)</f>
+        <v/>
+      </c>
+      <c r="C128" s="14" t="str">
+        <f>IF([1]攻守數據!AE129 = "", "", [1]攻守數據!AE129)</f>
+        <v/>
+      </c>
+      <c r="D128" s="14" t="str">
+        <f>IF([1]攻守數據!AF129 = "", "", [1]攻守數據!AF129)</f>
+        <v/>
+      </c>
+      <c r="E128" s="14" t="str">
+        <f>IF([1]攻守數據!AG129 = "", "", [1]攻守數據!AG129)</f>
+        <v/>
+      </c>
+      <c r="F128" s="14" t="str">
+        <f>IF([1]攻守數據!AH129 = "", "", [1]攻守數據!AH129)</f>
+        <v/>
       </c>
     </row>
     <row r="129" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B129" s="14">
-        <f>[1]攻守數據!AD130</f>
-        <v>0</v>
-      </c>
-      <c r="C129" s="14">
-        <f>[1]攻守數據!AE130</f>
-        <v>0</v>
-      </c>
-      <c r="D129" s="14">
-        <f>[1]攻守數據!AF130</f>
-        <v>0</v>
-      </c>
-      <c r="E129" s="14">
-        <f>[1]攻守數據!AG130</f>
-        <v>0</v>
-      </c>
-      <c r="F129" s="14">
-        <f>[1]攻守數據!AH130</f>
-        <v>0</v>
+      <c r="B129" s="14" t="str">
+        <f>IF([1]攻守數據!AD130 = "", "", [1]攻守數據!AD130)</f>
+        <v/>
+      </c>
+      <c r="C129" s="14" t="str">
+        <f>IF([1]攻守數據!AE130 = "", "", [1]攻守數據!AE130)</f>
+        <v/>
+      </c>
+      <c r="D129" s="14" t="str">
+        <f>IF([1]攻守數據!AF130 = "", "", [1]攻守數據!AF130)</f>
+        <v/>
+      </c>
+      <c r="E129" s="14" t="str">
+        <f>IF([1]攻守數據!AG130 = "", "", [1]攻守數據!AG130)</f>
+        <v/>
+      </c>
+      <c r="F129" s="14" t="str">
+        <f>IF([1]攻守數據!AH130 = "", "", [1]攻守數據!AH130)</f>
+        <v/>
       </c>
     </row>
     <row r="130" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B130" s="14">
-        <f>[1]攻守數據!AD131</f>
-        <v>0</v>
-      </c>
-      <c r="C130" s="14">
-        <f>[1]攻守數據!AE131</f>
-        <v>0</v>
-      </c>
-      <c r="D130" s="14">
-        <f>[1]攻守數據!AF131</f>
-        <v>0</v>
-      </c>
-      <c r="E130" s="14">
-        <f>[1]攻守數據!AG131</f>
-        <v>0</v>
-      </c>
-      <c r="F130" s="14">
-        <f>[1]攻守數據!AH131</f>
-        <v>0</v>
+      <c r="B130" s="14" t="str">
+        <f>IF([1]攻守數據!AD131 = "", "", [1]攻守數據!AD131)</f>
+        <v/>
+      </c>
+      <c r="C130" s="14" t="str">
+        <f>IF([1]攻守數據!AE131 = "", "", [1]攻守數據!AE131)</f>
+        <v/>
+      </c>
+      <c r="D130" s="14" t="str">
+        <f>IF([1]攻守數據!AF131 = "", "", [1]攻守數據!AF131)</f>
+        <v/>
+      </c>
+      <c r="E130" s="14" t="str">
+        <f>IF([1]攻守數據!AG131 = "", "", [1]攻守數據!AG131)</f>
+        <v/>
+      </c>
+      <c r="F130" s="14" t="str">
+        <f>IF([1]攻守數據!AH131 = "", "", [1]攻守數據!AH131)</f>
+        <v/>
       </c>
     </row>
     <row r="131" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B131" s="14">
-        <f>[1]攻守數據!AD132</f>
-        <v>0</v>
-      </c>
-      <c r="C131" s="14">
-        <f>[1]攻守數據!AE132</f>
-        <v>0</v>
-      </c>
-      <c r="D131" s="14">
-        <f>[1]攻守數據!AF132</f>
-        <v>0</v>
-      </c>
-      <c r="E131" s="14">
-        <f>[1]攻守數據!AG132</f>
-        <v>0</v>
-      </c>
-      <c r="F131" s="14">
-        <f>[1]攻守數據!AH132</f>
-        <v>0</v>
+      <c r="B131" s="14" t="str">
+        <f>IF([1]攻守數據!AD132 = "", "", [1]攻守數據!AD132)</f>
+        <v/>
+      </c>
+      <c r="C131" s="14" t="str">
+        <f>IF([1]攻守數據!AE132 = "", "", [1]攻守數據!AE132)</f>
+        <v/>
+      </c>
+      <c r="D131" s="14" t="str">
+        <f>IF([1]攻守數據!AF132 = "", "", [1]攻守數據!AF132)</f>
+        <v/>
+      </c>
+      <c r="E131" s="14" t="str">
+        <f>IF([1]攻守數據!AG132 = "", "", [1]攻守數據!AG132)</f>
+        <v/>
+      </c>
+      <c r="F131" s="14" t="str">
+        <f>IF([1]攻守數據!AH132 = "", "", [1]攻守數據!AH132)</f>
+        <v/>
       </c>
     </row>
     <row r="132" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B132" s="14">
-        <f>[1]攻守數據!AD133</f>
-        <v>0</v>
-      </c>
-      <c r="C132" s="14">
-        <f>[1]攻守數據!AE133</f>
-        <v>0</v>
-      </c>
-      <c r="D132" s="14">
-        <f>[1]攻守數據!AF133</f>
-        <v>0</v>
-      </c>
-      <c r="E132" s="14">
-        <f>[1]攻守數據!AG133</f>
-        <v>0</v>
-      </c>
-      <c r="F132" s="14">
-        <f>[1]攻守數據!AH133</f>
-        <v>0</v>
+      <c r="B132" s="14" t="str">
+        <f>IF([1]攻守數據!AD133 = "", "", [1]攻守數據!AD133)</f>
+        <v/>
+      </c>
+      <c r="C132" s="14" t="str">
+        <f>IF([1]攻守數據!AE133 = "", "", [1]攻守數據!AE133)</f>
+        <v/>
+      </c>
+      <c r="D132" s="14" t="str">
+        <f>IF([1]攻守數據!AF133 = "", "", [1]攻守數據!AF133)</f>
+        <v/>
+      </c>
+      <c r="E132" s="14" t="str">
+        <f>IF([1]攻守數據!AG133 = "", "", [1]攻守數據!AG133)</f>
+        <v/>
+      </c>
+      <c r="F132" s="14" t="str">
+        <f>IF([1]攻守數據!AH133 = "", "", [1]攻守數據!AH133)</f>
+        <v/>
       </c>
     </row>
     <row r="133" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B133" s="14">
-        <f>[1]攻守數據!AD134</f>
-        <v>0</v>
-      </c>
-      <c r="C133" s="14">
-        <f>[1]攻守數據!AE134</f>
-        <v>0</v>
-      </c>
-      <c r="D133" s="14">
-        <f>[1]攻守數據!AF134</f>
-        <v>0</v>
-      </c>
-      <c r="E133" s="14">
-        <f>[1]攻守數據!AG134</f>
-        <v>0</v>
-      </c>
-      <c r="F133" s="14">
-        <f>[1]攻守數據!AH134</f>
-        <v>0</v>
+      <c r="B133" s="14" t="str">
+        <f>IF([1]攻守數據!AD134 = "", "", [1]攻守數據!AD134)</f>
+        <v/>
+      </c>
+      <c r="C133" s="14" t="str">
+        <f>IF([1]攻守數據!AE134 = "", "", [1]攻守數據!AE134)</f>
+        <v/>
+      </c>
+      <c r="D133" s="14" t="str">
+        <f>IF([1]攻守數據!AF134 = "", "", [1]攻守數據!AF134)</f>
+        <v/>
+      </c>
+      <c r="E133" s="14" t="str">
+        <f>IF([1]攻守數據!AG134 = "", "", [1]攻守數據!AG134)</f>
+        <v/>
+      </c>
+      <c r="F133" s="14" t="str">
+        <f>IF([1]攻守數據!AH134 = "", "", [1]攻守數據!AH134)</f>
+        <v/>
       </c>
     </row>
     <row r="134" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B134" s="14">
-        <f>[1]攻守數據!AD135</f>
-        <v>0</v>
-      </c>
-      <c r="C134" s="14">
-        <f>[1]攻守數據!AE135</f>
-        <v>0</v>
-      </c>
-      <c r="D134" s="14">
-        <f>[1]攻守數據!AF135</f>
-        <v>0</v>
-      </c>
-      <c r="E134" s="14">
-        <f>[1]攻守數據!AG135</f>
-        <v>0</v>
-      </c>
-      <c r="F134" s="14">
-        <f>[1]攻守數據!AH135</f>
-        <v>0</v>
+      <c r="B134" s="14" t="str">
+        <f>IF([1]攻守數據!AD135 = "", "", [1]攻守數據!AD135)</f>
+        <v/>
+      </c>
+      <c r="C134" s="14" t="str">
+        <f>IF([1]攻守數據!AE135 = "", "", [1]攻守數據!AE135)</f>
+        <v/>
+      </c>
+      <c r="D134" s="14" t="str">
+        <f>IF([1]攻守數據!AF135 = "", "", [1]攻守數據!AF135)</f>
+        <v/>
+      </c>
+      <c r="E134" s="14" t="str">
+        <f>IF([1]攻守數據!AG135 = "", "", [1]攻守數據!AG135)</f>
+        <v/>
+      </c>
+      <c r="F134" s="14" t="str">
+        <f>IF([1]攻守數據!AH135 = "", "", [1]攻守數據!AH135)</f>
+        <v/>
       </c>
     </row>
     <row r="135" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B135" s="14">
-        <f>[1]攻守數據!AD136</f>
-        <v>0</v>
-      </c>
-      <c r="C135" s="14">
-        <f>[1]攻守數據!AE136</f>
-        <v>0</v>
-      </c>
-      <c r="D135" s="14">
-        <f>[1]攻守數據!AF136</f>
-        <v>0</v>
-      </c>
-      <c r="E135" s="14">
-        <f>[1]攻守數據!AG136</f>
-        <v>0</v>
-      </c>
-      <c r="F135" s="14">
-        <f>[1]攻守數據!AH136</f>
-        <v>0</v>
+      <c r="B135" s="14" t="str">
+        <f>IF([1]攻守數據!AD136 = "", "", [1]攻守數據!AD136)</f>
+        <v/>
+      </c>
+      <c r="C135" s="14" t="str">
+        <f>IF([1]攻守數據!AE136 = "", "", [1]攻守數據!AE136)</f>
+        <v/>
+      </c>
+      <c r="D135" s="14" t="str">
+        <f>IF([1]攻守數據!AF136 = "", "", [1]攻守數據!AF136)</f>
+        <v/>
+      </c>
+      <c r="E135" s="14" t="str">
+        <f>IF([1]攻守數據!AG136 = "", "", [1]攻守數據!AG136)</f>
+        <v/>
+      </c>
+      <c r="F135" s="14" t="str">
+        <f>IF([1]攻守數據!AH136 = "", "", [1]攻守數據!AH136)</f>
+        <v/>
       </c>
     </row>
     <row r="136" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B136" s="14">
-        <f>[1]攻守數據!AD137</f>
-        <v>0</v>
-      </c>
-      <c r="C136" s="14">
-        <f>[1]攻守數據!AE137</f>
-        <v>0</v>
-      </c>
-      <c r="D136" s="14">
-        <f>[1]攻守數據!AF137</f>
-        <v>0</v>
-      </c>
-      <c r="E136" s="14">
-        <f>[1]攻守數據!AG137</f>
-        <v>0</v>
-      </c>
-      <c r="F136" s="14">
-        <f>[1]攻守數據!AH137</f>
-        <v>0</v>
+      <c r="B136" s="14" t="str">
+        <f>IF([1]攻守數據!AD137 = "", "", [1]攻守數據!AD137)</f>
+        <v/>
+      </c>
+      <c r="C136" s="14" t="str">
+        <f>IF([1]攻守數據!AE137 = "", "", [1]攻守數據!AE137)</f>
+        <v/>
+      </c>
+      <c r="D136" s="14" t="str">
+        <f>IF([1]攻守數據!AF137 = "", "", [1]攻守數據!AF137)</f>
+        <v/>
+      </c>
+      <c r="E136" s="14" t="str">
+        <f>IF([1]攻守數據!AG137 = "", "", [1]攻守數據!AG137)</f>
+        <v/>
+      </c>
+      <c r="F136" s="14" t="str">
+        <f>IF([1]攻守數據!AH137 = "", "", [1]攻守數據!AH137)</f>
+        <v/>
       </c>
     </row>
     <row r="137" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B137" s="14">
-        <f>[1]攻守數據!AD138</f>
-        <v>0</v>
-      </c>
-      <c r="C137" s="14">
-        <f>[1]攻守數據!AE138</f>
-        <v>0</v>
-      </c>
-      <c r="D137" s="14">
-        <f>[1]攻守數據!AF138</f>
-        <v>0</v>
-      </c>
-      <c r="E137" s="14">
-        <f>[1]攻守數據!AG138</f>
-        <v>0</v>
-      </c>
-      <c r="F137" s="14">
-        <f>[1]攻守數據!AH138</f>
-        <v>0</v>
+      <c r="B137" s="14" t="str">
+        <f>IF([1]攻守數據!AD138 = "", "", [1]攻守數據!AD138)</f>
+        <v/>
+      </c>
+      <c r="C137" s="14" t="str">
+        <f>IF([1]攻守數據!AE138 = "", "", [1]攻守數據!AE138)</f>
+        <v/>
+      </c>
+      <c r="D137" s="14" t="str">
+        <f>IF([1]攻守數據!AF138 = "", "", [1]攻守數據!AF138)</f>
+        <v/>
+      </c>
+      <c r="E137" s="14" t="str">
+        <f>IF([1]攻守數據!AG138 = "", "", [1]攻守數據!AG138)</f>
+        <v/>
+      </c>
+      <c r="F137" s="14" t="str">
+        <f>IF([1]攻守數據!AH138 = "", "", [1]攻守數據!AH138)</f>
+        <v/>
       </c>
     </row>
     <row r="138" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B138" s="14">
-        <f>[1]攻守數據!AD139</f>
-        <v>0</v>
-      </c>
-      <c r="C138" s="14">
-        <f>[1]攻守數據!AE139</f>
-        <v>0</v>
-      </c>
-      <c r="D138" s="14">
-        <f>[1]攻守數據!AF139</f>
-        <v>0</v>
-      </c>
-      <c r="E138" s="14">
-        <f>[1]攻守數據!AG139</f>
-        <v>0</v>
-      </c>
-      <c r="F138" s="14">
-        <f>[1]攻守數據!AH139</f>
-        <v>0</v>
+      <c r="B138" s="14" t="str">
+        <f>IF([1]攻守數據!AD139 = "", "", [1]攻守數據!AD139)</f>
+        <v/>
+      </c>
+      <c r="C138" s="14" t="str">
+        <f>IF([1]攻守數據!AE139 = "", "", [1]攻守數據!AE139)</f>
+        <v/>
+      </c>
+      <c r="D138" s="14" t="str">
+        <f>IF([1]攻守數據!AF139 = "", "", [1]攻守數據!AF139)</f>
+        <v/>
+      </c>
+      <c r="E138" s="14" t="str">
+        <f>IF([1]攻守數據!AG139 = "", "", [1]攻守數據!AG139)</f>
+        <v/>
+      </c>
+      <c r="F138" s="14" t="str">
+        <f>IF([1]攻守數據!AH139 = "", "", [1]攻守數據!AH139)</f>
+        <v/>
       </c>
     </row>
     <row r="139" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B139" s="14">
-        <f>[1]攻守數據!AD140</f>
-        <v>0</v>
-      </c>
-      <c r="C139" s="14">
-        <f>[1]攻守數據!AE140</f>
-        <v>0</v>
-      </c>
-      <c r="D139" s="14">
-        <f>[1]攻守數據!AF140</f>
-        <v>0</v>
-      </c>
-      <c r="E139" s="14">
-        <f>[1]攻守數據!AG140</f>
-        <v>0</v>
-      </c>
-      <c r="F139" s="14">
-        <f>[1]攻守數據!AH140</f>
-        <v>0</v>
+      <c r="B139" s="14" t="str">
+        <f>IF([1]攻守數據!AD140 = "", "", [1]攻守數據!AD140)</f>
+        <v/>
+      </c>
+      <c r="C139" s="14" t="str">
+        <f>IF([1]攻守數據!AE140 = "", "", [1]攻守數據!AE140)</f>
+        <v/>
+      </c>
+      <c r="D139" s="14" t="str">
+        <f>IF([1]攻守數據!AF140 = "", "", [1]攻守數據!AF140)</f>
+        <v/>
+      </c>
+      <c r="E139" s="14" t="str">
+        <f>IF([1]攻守數據!AG140 = "", "", [1]攻守數據!AG140)</f>
+        <v/>
+      </c>
+      <c r="F139" s="14" t="str">
+        <f>IF([1]攻守數據!AH140 = "", "", [1]攻守數據!AH140)</f>
+        <v/>
       </c>
     </row>
     <row r="140" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B140" s="14">
-        <f>[1]攻守數據!AD141</f>
-        <v>0</v>
-      </c>
-      <c r="C140" s="14">
-        <f>[1]攻守數據!AE141</f>
-        <v>0</v>
-      </c>
-      <c r="D140" s="14">
-        <f>[1]攻守數據!AF141</f>
-        <v>0</v>
-      </c>
-      <c r="E140" s="14">
-        <f>[1]攻守數據!AG141</f>
-        <v>0</v>
-      </c>
-      <c r="F140" s="14">
-        <f>[1]攻守數據!AH141</f>
-        <v>0</v>
+      <c r="B140" s="14" t="str">
+        <f>IF([1]攻守數據!AD141 = "", "", [1]攻守數據!AD141)</f>
+        <v/>
+      </c>
+      <c r="C140" s="14" t="str">
+        <f>IF([1]攻守數據!AE141 = "", "", [1]攻守數據!AE141)</f>
+        <v/>
+      </c>
+      <c r="D140" s="14" t="str">
+        <f>IF([1]攻守數據!AF141 = "", "", [1]攻守數據!AF141)</f>
+        <v/>
+      </c>
+      <c r="E140" s="14" t="str">
+        <f>IF([1]攻守數據!AG141 = "", "", [1]攻守數據!AG141)</f>
+        <v/>
+      </c>
+      <c r="F140" s="14" t="str">
+        <f>IF([1]攻守數據!AH141 = "", "", [1]攻守數據!AH141)</f>
+        <v/>
       </c>
     </row>
     <row r="141" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B141" s="14">
-        <f>[1]攻守數據!AD142</f>
-        <v>0</v>
-      </c>
-      <c r="C141" s="14">
-        <f>[1]攻守數據!AE142</f>
-        <v>0</v>
-      </c>
-      <c r="D141" s="14">
-        <f>[1]攻守數據!AF142</f>
-        <v>0</v>
-      </c>
-      <c r="E141" s="14">
-        <f>[1]攻守數據!AG142</f>
-        <v>0</v>
-      </c>
-      <c r="F141" s="14">
-        <f>[1]攻守數據!AH142</f>
-        <v>0</v>
+      <c r="B141" s="14" t="str">
+        <f>IF([1]攻守數據!AD142 = "", "", [1]攻守數據!AD142)</f>
+        <v/>
+      </c>
+      <c r="C141" s="14" t="str">
+        <f>IF([1]攻守數據!AE142 = "", "", [1]攻守數據!AE142)</f>
+        <v/>
+      </c>
+      <c r="D141" s="14" t="str">
+        <f>IF([1]攻守數據!AF142 = "", "", [1]攻守數據!AF142)</f>
+        <v/>
+      </c>
+      <c r="E141" s="14" t="str">
+        <f>IF([1]攻守數據!AG142 = "", "", [1]攻守數據!AG142)</f>
+        <v/>
+      </c>
+      <c r="F141" s="14" t="str">
+        <f>IF([1]攻守數據!AH142 = "", "", [1]攻守數據!AH142)</f>
+        <v/>
       </c>
     </row>
     <row r="142" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B142" s="14">
-        <f>[1]攻守數據!AD143</f>
-        <v>0</v>
-      </c>
-      <c r="C142" s="14">
-        <f>[1]攻守數據!AE143</f>
-        <v>0</v>
-      </c>
-      <c r="D142" s="14">
-        <f>[1]攻守數據!AF143</f>
-        <v>0</v>
-      </c>
-      <c r="E142" s="14">
-        <f>[1]攻守數據!AG143</f>
-        <v>0</v>
-      </c>
-      <c r="F142" s="14">
-        <f>[1]攻守數據!AH143</f>
-        <v>0</v>
+      <c r="B142" s="14" t="str">
+        <f>IF([1]攻守數據!AD143 = "", "", [1]攻守數據!AD143)</f>
+        <v/>
+      </c>
+      <c r="C142" s="14" t="str">
+        <f>IF([1]攻守數據!AE143 = "", "", [1]攻守數據!AE143)</f>
+        <v/>
+      </c>
+      <c r="D142" s="14" t="str">
+        <f>IF([1]攻守數據!AF143 = "", "", [1]攻守數據!AF143)</f>
+        <v/>
+      </c>
+      <c r="E142" s="14" t="str">
+        <f>IF([1]攻守數據!AG143 = "", "", [1]攻守數據!AG143)</f>
+        <v/>
+      </c>
+      <c r="F142" s="14" t="str">
+        <f>IF([1]攻守數據!AH143 = "", "", [1]攻守數據!AH143)</f>
+        <v/>
       </c>
     </row>
     <row r="143" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B143" s="14">
-        <f>[1]攻守數據!AD144</f>
-        <v>0</v>
-      </c>
-      <c r="C143" s="14">
-        <f>[1]攻守數據!AE144</f>
-        <v>0</v>
-      </c>
-      <c r="D143" s="14">
-        <f>[1]攻守數據!AF144</f>
-        <v>0</v>
-      </c>
-      <c r="E143" s="14">
-        <f>[1]攻守數據!AG144</f>
-        <v>0</v>
-      </c>
-      <c r="F143" s="14">
-        <f>[1]攻守數據!AH144</f>
-        <v>0</v>
+      <c r="B143" s="14" t="str">
+        <f>IF([1]攻守數據!AD144 = "", "", [1]攻守數據!AD144)</f>
+        <v/>
+      </c>
+      <c r="C143" s="14" t="str">
+        <f>IF([1]攻守數據!AE144 = "", "", [1]攻守數據!AE144)</f>
+        <v/>
+      </c>
+      <c r="D143" s="14" t="str">
+        <f>IF([1]攻守數據!AF144 = "", "", [1]攻守數據!AF144)</f>
+        <v/>
+      </c>
+      <c r="E143" s="14" t="str">
+        <f>IF([1]攻守數據!AG144 = "", "", [1]攻守數據!AG144)</f>
+        <v/>
+      </c>
+      <c r="F143" s="14" t="str">
+        <f>IF([1]攻守數據!AH144 = "", "", [1]攻守數據!AH144)</f>
+        <v/>
       </c>
     </row>
     <row r="144" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B144" s="14">
-        <f>[1]攻守數據!AD145</f>
-        <v>0</v>
-      </c>
-      <c r="C144" s="14">
-        <f>[1]攻守數據!AE145</f>
-        <v>0</v>
-      </c>
-      <c r="D144" s="14">
-        <f>[1]攻守數據!AF145</f>
-        <v>0</v>
-      </c>
-      <c r="E144" s="14">
-        <f>[1]攻守數據!AG145</f>
-        <v>0</v>
-      </c>
-      <c r="F144" s="14">
-        <f>[1]攻守數據!AH145</f>
-        <v>0</v>
+      <c r="B144" s="14" t="str">
+        <f>IF([1]攻守數據!AD145 = "", "", [1]攻守數據!AD145)</f>
+        <v/>
+      </c>
+      <c r="C144" s="14" t="str">
+        <f>IF([1]攻守數據!AE145 = "", "", [1]攻守數據!AE145)</f>
+        <v/>
+      </c>
+      <c r="D144" s="14" t="str">
+        <f>IF([1]攻守數據!AF145 = "", "", [1]攻守數據!AF145)</f>
+        <v/>
+      </c>
+      <c r="E144" s="14" t="str">
+        <f>IF([1]攻守數據!AG145 = "", "", [1]攻守數據!AG145)</f>
+        <v/>
+      </c>
+      <c r="F144" s="14" t="str">
+        <f>IF([1]攻守數據!AH145 = "", "", [1]攻守數據!AH145)</f>
+        <v/>
       </c>
     </row>
     <row r="145" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B145" s="14">
-        <f>[1]攻守數據!AD146</f>
-        <v>0</v>
-      </c>
-      <c r="C145" s="14">
-        <f>[1]攻守數據!AE146</f>
-        <v>0</v>
-      </c>
-      <c r="D145" s="14">
-        <f>[1]攻守數據!AF146</f>
-        <v>0</v>
-      </c>
-      <c r="E145" s="14">
-        <f>[1]攻守數據!AG146</f>
-        <v>0</v>
-      </c>
-      <c r="F145" s="14">
-        <f>[1]攻守數據!AH146</f>
-        <v>0</v>
+      <c r="B145" s="14" t="str">
+        <f>IF([1]攻守數據!AD146 = "", "", [1]攻守數據!AD146)</f>
+        <v/>
+      </c>
+      <c r="C145" s="14" t="str">
+        <f>IF([1]攻守數據!AE146 = "", "", [1]攻守數據!AE146)</f>
+        <v/>
+      </c>
+      <c r="D145" s="14" t="str">
+        <f>IF([1]攻守數據!AF146 = "", "", [1]攻守數據!AF146)</f>
+        <v/>
+      </c>
+      <c r="E145" s="14" t="str">
+        <f>IF([1]攻守數據!AG146 = "", "", [1]攻守數據!AG146)</f>
+        <v/>
+      </c>
+      <c r="F145" s="14" t="str">
+        <f>IF([1]攻守數據!AH146 = "", "", [1]攻守數據!AH146)</f>
+        <v/>
       </c>
     </row>
     <row r="146" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B146" s="14">
-        <f>[1]攻守數據!AD147</f>
-        <v>0</v>
-      </c>
-      <c r="C146" s="14">
-        <f>[1]攻守數據!AE147</f>
-        <v>0</v>
-      </c>
-      <c r="D146" s="14">
-        <f>[1]攻守數據!AF147</f>
-        <v>0</v>
-      </c>
-      <c r="E146" s="14">
-        <f>[1]攻守數據!AG147</f>
-        <v>0</v>
-      </c>
-      <c r="F146" s="14">
-        <f>[1]攻守數據!AH147</f>
-        <v>0</v>
+      <c r="B146" s="14" t="str">
+        <f>IF([1]攻守數據!AD147 = "", "", [1]攻守數據!AD147)</f>
+        <v/>
+      </c>
+      <c r="C146" s="14" t="str">
+        <f>IF([1]攻守數據!AE147 = "", "", [1]攻守數據!AE147)</f>
+        <v/>
+      </c>
+      <c r="D146" s="14" t="str">
+        <f>IF([1]攻守數據!AF147 = "", "", [1]攻守數據!AF147)</f>
+        <v/>
+      </c>
+      <c r="E146" s="14" t="str">
+        <f>IF([1]攻守數據!AG147 = "", "", [1]攻守數據!AG147)</f>
+        <v/>
+      </c>
+      <c r="F146" s="14" t="str">
+        <f>IF([1]攻守數據!AH147 = "", "", [1]攻守數據!AH147)</f>
+        <v/>
       </c>
     </row>
     <row r="147" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B147" s="14">
-        <f>[1]攻守數據!AD148</f>
-        <v>0</v>
-      </c>
-      <c r="C147" s="14">
-        <f>[1]攻守數據!AE148</f>
-        <v>0</v>
-      </c>
-      <c r="D147" s="14">
-        <f>[1]攻守數據!AF148</f>
-        <v>0</v>
-      </c>
-      <c r="E147" s="14">
-        <f>[1]攻守數據!AG148</f>
-        <v>0</v>
-      </c>
-      <c r="F147" s="14">
-        <f>[1]攻守數據!AH148</f>
-        <v>0</v>
+      <c r="B147" s="14" t="str">
+        <f>IF([1]攻守數據!AD148 = "", "", [1]攻守數據!AD148)</f>
+        <v/>
+      </c>
+      <c r="C147" s="14" t="str">
+        <f>IF([1]攻守數據!AE148 = "", "", [1]攻守數據!AE148)</f>
+        <v/>
+      </c>
+      <c r="D147" s="14" t="str">
+        <f>IF([1]攻守數據!AF148 = "", "", [1]攻守數據!AF148)</f>
+        <v/>
+      </c>
+      <c r="E147" s="14" t="str">
+        <f>IF([1]攻守數據!AG148 = "", "", [1]攻守數據!AG148)</f>
+        <v/>
+      </c>
+      <c r="F147" s="14" t="str">
+        <f>IF([1]攻守數據!AH148 = "", "", [1]攻守數據!AH148)</f>
+        <v/>
       </c>
     </row>
     <row r="148" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B148" s="14">
-        <f>[1]攻守數據!AD149</f>
-        <v>0</v>
-      </c>
-      <c r="C148" s="14">
-        <f>[1]攻守數據!AE149</f>
-        <v>0</v>
-      </c>
-      <c r="D148" s="14">
-        <f>[1]攻守數據!AF149</f>
-        <v>0</v>
-      </c>
-      <c r="E148" s="14">
-        <f>[1]攻守數據!AG149</f>
-        <v>0</v>
-      </c>
-      <c r="F148" s="14">
-        <f>[1]攻守數據!AH149</f>
-        <v>0</v>
+      <c r="B148" s="14" t="str">
+        <f>IF([1]攻守數據!AD149 = "", "", [1]攻守數據!AD149)</f>
+        <v/>
+      </c>
+      <c r="C148" s="14" t="str">
+        <f>IF([1]攻守數據!AE149 = "", "", [1]攻守數據!AE149)</f>
+        <v/>
+      </c>
+      <c r="D148" s="14" t="str">
+        <f>IF([1]攻守數據!AF149 = "", "", [1]攻守數據!AF149)</f>
+        <v/>
+      </c>
+      <c r="E148" s="14" t="str">
+        <f>IF([1]攻守數據!AG149 = "", "", [1]攻守數據!AG149)</f>
+        <v/>
+      </c>
+      <c r="F148" s="14" t="str">
+        <f>IF([1]攻守數據!AH149 = "", "", [1]攻守數據!AH149)</f>
+        <v/>
       </c>
     </row>
     <row r="149" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B149" s="14">
-        <f>[1]攻守數據!AD150</f>
-        <v>0</v>
-      </c>
-      <c r="C149" s="14">
-        <f>[1]攻守數據!AE150</f>
-        <v>0</v>
-      </c>
-      <c r="D149" s="14">
-        <f>[1]攻守數據!AF150</f>
-        <v>0</v>
-      </c>
-      <c r="E149" s="14">
-        <f>[1]攻守數據!AG150</f>
-        <v>0</v>
-      </c>
-      <c r="F149" s="14">
-        <f>[1]攻守數據!AH150</f>
-        <v>0</v>
+      <c r="B149" s="14" t="str">
+        <f>IF([1]攻守數據!AD150 = "", "", [1]攻守數據!AD150)</f>
+        <v/>
+      </c>
+      <c r="C149" s="14" t="str">
+        <f>IF([1]攻守數據!AE150 = "", "", [1]攻守數據!AE150)</f>
+        <v/>
+      </c>
+      <c r="D149" s="14" t="str">
+        <f>IF([1]攻守數據!AF150 = "", "", [1]攻守數據!AF150)</f>
+        <v/>
+      </c>
+      <c r="E149" s="14" t="str">
+        <f>IF([1]攻守數據!AG150 = "", "", [1]攻守數據!AG150)</f>
+        <v/>
+      </c>
+      <c r="F149" s="14" t="str">
+        <f>IF([1]攻守數據!AH150 = "", "", [1]攻守數據!AH150)</f>
+        <v/>
       </c>
     </row>
     <row r="150" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B150" s="14">
-        <f>[1]攻守數據!AD151</f>
-        <v>0</v>
-      </c>
-      <c r="C150" s="14">
-        <f>[1]攻守數據!AE151</f>
-        <v>0</v>
-      </c>
-      <c r="D150" s="14">
-        <f>[1]攻守數據!AF151</f>
-        <v>0</v>
-      </c>
-      <c r="E150" s="14">
-        <f>[1]攻守數據!AG151</f>
-        <v>0</v>
-      </c>
-      <c r="F150" s="14">
-        <f>[1]攻守數據!AH151</f>
-        <v>0</v>
+      <c r="B150" s="14" t="str">
+        <f>IF([1]攻守數據!AD151 = "", "", [1]攻守數據!AD151)</f>
+        <v/>
+      </c>
+      <c r="C150" s="14" t="str">
+        <f>IF([1]攻守數據!AE151 = "", "", [1]攻守數據!AE151)</f>
+        <v/>
+      </c>
+      <c r="D150" s="14" t="str">
+        <f>IF([1]攻守數據!AF151 = "", "", [1]攻守數據!AF151)</f>
+        <v/>
+      </c>
+      <c r="E150" s="14" t="str">
+        <f>IF([1]攻守數據!AG151 = "", "", [1]攻守數據!AG151)</f>
+        <v/>
+      </c>
+      <c r="F150" s="14" t="str">
+        <f>IF([1]攻守數據!AH151 = "", "", [1]攻守數據!AH151)</f>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/Att.xlsx
+++ b/Att.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\寶可夢\Pokemon_App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63285C64-E053-45FB-B2D2-E4C4882C46B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24D191E-0DD9-496B-8CC8-262CD43A37B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -676,7 +676,7 @@
             <v>229</v>
           </cell>
           <cell r="AH22" t="str">
-            <v>D</v>
+            <v>G</v>
           </cell>
         </row>
         <row r="23">
@@ -2603,8 +2603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AB150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="B119" sqref="B119:F150"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C120" sqref="C120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -4273,7 +4273,7 @@
       </c>
       <c r="F21" s="1" t="str">
         <f>[1]攻守數據!AH22</f>
-        <v>D</v>
+        <v>G</v>
       </c>
     </row>
     <row r="22" spans="2:28" x14ac:dyDescent="0.3">

--- a/Att.xlsx
+++ b/Att.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\寶可夢\Pokemon_App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24D191E-0DD9-496B-8CC8-262CD43A37B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837F6605-CE5D-4443-9F4B-D24FC7A4ACDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2603,8 +2603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AB150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C120" sqref="C120"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>

--- a/Att.xlsx
+++ b/Att.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\寶可夢\Pokemon_App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837F6605-CE5D-4443-9F4B-D24FC7A4ACDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95912DA-5280-4A1F-AABF-28EA1124D2C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2603,8 +2603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AB150"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>

--- a/Att.xlsx
+++ b/Att.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\寶可夢\Pokemon_App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95912DA-5280-4A1F-AABF-28EA1124D2C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E66BD72-CC32-4D62-8EF4-F0299031102D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -246,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -290,6 +290,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -671,9 +674,6 @@
           </cell>
           <cell r="AF22" t="str">
             <v>Y</v>
-          </cell>
-          <cell r="AG22">
-            <v>229</v>
           </cell>
           <cell r="AH22" t="str">
             <v>G</v>
@@ -2603,8 +2603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AB150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -4267,9 +4267,9 @@
         <f>[1]攻守數據!AF22</f>
         <v>Y</v>
       </c>
-      <c r="E21" s="1">
-        <f>[1]攻守數據!AG22</f>
-        <v>229</v>
+      <c r="E21" s="15">
+        <f>229*450/350</f>
+        <v>294.42857142857144</v>
       </c>
       <c r="F21" s="1" t="str">
         <f>[1]攻守數據!AH22</f>

--- a/Att.xlsx
+++ b/Att.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\寶可夢\Pokemon_App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E66BD72-CC32-4D62-8EF4-F0299031102D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A0AB9F3-532D-4AE2-82E5-A66C0FE1595A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -246,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -290,9 +290,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -674,6 +671,9 @@
           </cell>
           <cell r="AF22" t="str">
             <v>Y</v>
+          </cell>
+          <cell r="AG22">
+            <v>229</v>
           </cell>
           <cell r="AH22" t="str">
             <v>G</v>
@@ -2604,7 +2604,7 @@
   <dimension ref="B1:AB150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -4267,9 +4267,9 @@
         <f>[1]攻守數據!AF22</f>
         <v>Y</v>
       </c>
-      <c r="E21" s="15">
-        <f>229*450/350</f>
-        <v>294.42857142857144</v>
+      <c r="E21" s="1">
+        <f>[1]攻守數據!AG22</f>
+        <v>229</v>
       </c>
       <c r="F21" s="1" t="str">
         <f>[1]攻守數據!AH22</f>

--- a/Att.xlsx
+++ b/Att.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\寶可夢\Pokemon_App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A0AB9F3-532D-4AE2-82E5-A66C0FE1595A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AFC442A-CD3F-4CA8-ADBE-A60FCD5BFF78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2328,6 +2328,40 @@
             <v>D</v>
           </cell>
         </row>
+        <row r="120">
+          <cell r="AD120" t="str">
+            <v>帝牙海獅</v>
+          </cell>
+          <cell r="AE120" t="str">
+            <v>水</v>
+          </cell>
+          <cell r="AF120" t="str">
+            <v>Y</v>
+          </cell>
+          <cell r="AG120">
+            <v>156</v>
+          </cell>
+          <cell r="AH120" t="str">
+            <v>D</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="AD121" t="str">
+            <v>帝牙海獅</v>
+          </cell>
+          <cell r="AE121" t="str">
+            <v>冰</v>
+          </cell>
+          <cell r="AF121" t="str">
+            <v>Y</v>
+          </cell>
+          <cell r="AG121">
+            <v>156</v>
+          </cell>
+          <cell r="AH121" t="str">
+            <v>D</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
@@ -2603,7 +2637,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AB150"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
@@ -6413,45 +6447,45 @@
     <row r="119" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B119" s="14" t="str">
         <f>IF([1]攻守數據!AD120 = "", "", [1]攻守數據!AD120)</f>
-        <v/>
+        <v>帝牙海獅</v>
       </c>
       <c r="C119" s="14" t="str">
         <f>IF([1]攻守數據!AE120 = "", "", [1]攻守數據!AE120)</f>
-        <v/>
+        <v>水</v>
       </c>
       <c r="D119" s="14" t="str">
         <f>IF([1]攻守數據!AF120 = "", "", [1]攻守數據!AF120)</f>
-        <v/>
-      </c>
-      <c r="E119" s="14" t="str">
+        <v>Y</v>
+      </c>
+      <c r="E119" s="14">
         <f>IF([1]攻守數據!AG120 = "", "", [1]攻守數據!AG120)</f>
-        <v/>
+        <v>156</v>
       </c>
       <c r="F119" s="14" t="str">
         <f>IF([1]攻守數據!AH120 = "", "", [1]攻守數據!AH120)</f>
-        <v/>
+        <v>D</v>
       </c>
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B120" s="14" t="str">
         <f>IF([1]攻守數據!AD121 = "", "", [1]攻守數據!AD121)</f>
-        <v/>
+        <v>帝牙海獅</v>
       </c>
       <c r="C120" s="14" t="str">
         <f>IF([1]攻守數據!AE121 = "", "", [1]攻守數據!AE121)</f>
-        <v/>
+        <v>冰</v>
       </c>
       <c r="D120" s="14" t="str">
         <f>IF([1]攻守數據!AF121 = "", "", [1]攻守數據!AF121)</f>
-        <v/>
-      </c>
-      <c r="E120" s="14" t="str">
+        <v>Y</v>
+      </c>
+      <c r="E120" s="14">
         <f>IF([1]攻守數據!AG121 = "", "", [1]攻守數據!AG121)</f>
-        <v/>
+        <v>156</v>
       </c>
       <c r="F120" s="14" t="str">
         <f>IF([1]攻守數據!AH121 = "", "", [1]攻守數據!AH121)</f>
-        <v/>
+        <v>D</v>
       </c>
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.3">

--- a/Att.xlsx
+++ b/Att.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\寶可夢\Pokemon_App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AFC442A-CD3F-4CA8-ADBE-A60FCD5BFF78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590DA6D1-6715-4643-BA4B-E8FF3CCF25CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2362,6 +2362,74 @@
             <v>D</v>
           </cell>
         </row>
+        <row r="122">
+          <cell r="AD122" t="str">
+            <v>龐岩怪</v>
+          </cell>
+          <cell r="AE122" t="str">
+            <v>岩石</v>
+          </cell>
+          <cell r="AF122" t="str">
+            <v>Y</v>
+          </cell>
+          <cell r="AG122">
+            <v>190</v>
+          </cell>
+          <cell r="AH122" t="str">
+            <v>D</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="AD123" t="str">
+            <v>龐岩怪</v>
+          </cell>
+          <cell r="AE123" t="str">
+            <v>地面</v>
+          </cell>
+          <cell r="AF123" t="str">
+            <v>N</v>
+          </cell>
+          <cell r="AG123">
+            <v>190</v>
+          </cell>
+          <cell r="AH123" t="str">
+            <v>D</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="AD124" t="str">
+            <v>老翁龍</v>
+          </cell>
+          <cell r="AE124" t="str">
+            <v>龍</v>
+          </cell>
+          <cell r="AF124" t="str">
+            <v>Y</v>
+          </cell>
+          <cell r="AG124">
+            <v>194</v>
+          </cell>
+          <cell r="AH124" t="str">
+            <v>D</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="AD125" t="str">
+            <v>老翁龍</v>
+          </cell>
+          <cell r="AE125" t="str">
+            <v>一般</v>
+          </cell>
+          <cell r="AF125" t="str">
+            <v>N</v>
+          </cell>
+          <cell r="AG125">
+            <v>194</v>
+          </cell>
+          <cell r="AH125" t="str">
+            <v>D</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
@@ -6491,89 +6559,89 @@
     <row r="121" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B121" s="14" t="str">
         <f>IF([1]攻守數據!AD122 = "", "", [1]攻守數據!AD122)</f>
-        <v/>
+        <v>龐岩怪</v>
       </c>
       <c r="C121" s="14" t="str">
         <f>IF([1]攻守數據!AE122 = "", "", [1]攻守數據!AE122)</f>
-        <v/>
+        <v>岩石</v>
       </c>
       <c r="D121" s="14" t="str">
         <f>IF([1]攻守數據!AF122 = "", "", [1]攻守數據!AF122)</f>
-        <v/>
-      </c>
-      <c r="E121" s="14" t="str">
+        <v>Y</v>
+      </c>
+      <c r="E121" s="14">
         <f>IF([1]攻守數據!AG122 = "", "", [1]攻守數據!AG122)</f>
-        <v/>
+        <v>190</v>
       </c>
       <c r="F121" s="14" t="str">
         <f>IF([1]攻守數據!AH122 = "", "", [1]攻守數據!AH122)</f>
-        <v/>
+        <v>D</v>
       </c>
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B122" s="14" t="str">
         <f>IF([1]攻守數據!AD123 = "", "", [1]攻守數據!AD123)</f>
-        <v/>
+        <v>龐岩怪</v>
       </c>
       <c r="C122" s="14" t="str">
         <f>IF([1]攻守數據!AE123 = "", "", [1]攻守數據!AE123)</f>
-        <v/>
+        <v>地面</v>
       </c>
       <c r="D122" s="14" t="str">
         <f>IF([1]攻守數據!AF123 = "", "", [1]攻守數據!AF123)</f>
-        <v/>
-      </c>
-      <c r="E122" s="14" t="str">
+        <v>N</v>
+      </c>
+      <c r="E122" s="14">
         <f>IF([1]攻守數據!AG123 = "", "", [1]攻守數據!AG123)</f>
-        <v/>
+        <v>190</v>
       </c>
       <c r="F122" s="14" t="str">
         <f>IF([1]攻守數據!AH123 = "", "", [1]攻守數據!AH123)</f>
-        <v/>
+        <v>D</v>
       </c>
     </row>
     <row r="123" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B123" s="14" t="str">
         <f>IF([1]攻守數據!AD124 = "", "", [1]攻守數據!AD124)</f>
-        <v/>
+        <v>老翁龍</v>
       </c>
       <c r="C123" s="14" t="str">
         <f>IF([1]攻守數據!AE124 = "", "", [1]攻守數據!AE124)</f>
-        <v/>
+        <v>龍</v>
       </c>
       <c r="D123" s="14" t="str">
         <f>IF([1]攻守數據!AF124 = "", "", [1]攻守數據!AF124)</f>
-        <v/>
-      </c>
-      <c r="E123" s="14" t="str">
+        <v>Y</v>
+      </c>
+      <c r="E123" s="14">
         <f>IF([1]攻守數據!AG124 = "", "", [1]攻守數據!AG124)</f>
-        <v/>
+        <v>194</v>
       </c>
       <c r="F123" s="14" t="str">
         <f>IF([1]攻守數據!AH124 = "", "", [1]攻守數據!AH124)</f>
-        <v/>
+        <v>D</v>
       </c>
     </row>
     <row r="124" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B124" s="14" t="str">
         <f>IF([1]攻守數據!AD125 = "", "", [1]攻守數據!AD125)</f>
-        <v/>
+        <v>老翁龍</v>
       </c>
       <c r="C124" s="14" t="str">
         <f>IF([1]攻守數據!AE125 = "", "", [1]攻守數據!AE125)</f>
-        <v/>
+        <v>一般</v>
       </c>
       <c r="D124" s="14" t="str">
         <f>IF([1]攻守數據!AF125 = "", "", [1]攻守數據!AF125)</f>
-        <v/>
-      </c>
-      <c r="E124" s="14" t="str">
+        <v>N</v>
+      </c>
+      <c r="E124" s="14">
         <f>IF([1]攻守數據!AG125 = "", "", [1]攻守數據!AG125)</f>
-        <v/>
+        <v>194</v>
       </c>
       <c r="F124" s="14" t="str">
         <f>IF([1]攻守數據!AH125 = "", "", [1]攻守數據!AH125)</f>
-        <v/>
+        <v>D</v>
       </c>
     </row>
     <row r="125" spans="2:6" x14ac:dyDescent="0.3">

--- a/Att.xlsx
+++ b/Att.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\寶可夢\Pokemon_App\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\寶可夢\Pokemon_App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590DA6D1-6715-4643-BA4B-E8FF3CCF25CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15804A04-7EF3-4E5C-8379-D19AAA847F66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12800" yWindow="0" windowWidth="12800" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -319,6 +319,7 @@
       <sheetName val="屬性克制表"/>
       <sheetName val="極巨傷害"/>
       <sheetName val="能量點"/>
+      <sheetName val="寶可夢圖鑑"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -341,7 +342,7 @@
         </row>
         <row r="3">
           <cell r="AD3" t="str">
-            <v>轟擂金剛猩</v>
+            <v>超極巨轟擂金剛猩</v>
           </cell>
           <cell r="AE3" t="str">
             <v>草</v>
@@ -358,33 +359,33 @@
         </row>
         <row r="4">
           <cell r="AD4" t="str">
-            <v>怪力</v>
+            <v>轟擂金剛猩</v>
           </cell>
           <cell r="AE4" t="str">
-            <v>格鬥</v>
+            <v>草</v>
           </cell>
           <cell r="AF4" t="str">
             <v>Y</v>
           </cell>
           <cell r="AG4">
-            <v>201</v>
+            <v>200</v>
           </cell>
           <cell r="AH4" t="str">
-            <v>G</v>
+            <v>D</v>
           </cell>
         </row>
         <row r="5">
           <cell r="AD5" t="str">
-            <v>戰弦蠑螈</v>
+            <v>超極巨怪力</v>
           </cell>
           <cell r="AE5" t="str">
-            <v>電</v>
+            <v>格鬥</v>
           </cell>
           <cell r="AF5" t="str">
             <v>Y</v>
           </cell>
           <cell r="AG5">
-            <v>188</v>
+            <v>201</v>
           </cell>
           <cell r="AH5" t="str">
             <v>G</v>
@@ -392,24 +393,24 @@
         </row>
         <row r="6">
           <cell r="AD6" t="str">
-            <v>妙蛙花</v>
+            <v>怪力</v>
           </cell>
           <cell r="AE6" t="str">
-            <v>草</v>
+            <v>鋼</v>
           </cell>
           <cell r="AF6" t="str">
-            <v>Y</v>
+            <v>N</v>
           </cell>
           <cell r="AG6">
-            <v>159</v>
+            <v>201</v>
           </cell>
           <cell r="AH6" t="str">
-            <v>G</v>
+            <v>D</v>
           </cell>
         </row>
         <row r="7">
           <cell r="AD7" t="str">
-            <v>武道熊師(連)</v>
+            <v>怪力</v>
           </cell>
           <cell r="AE7" t="str">
             <v>格鬥</v>
@@ -418,7 +419,7 @@
             <v>Y</v>
           </cell>
           <cell r="AG7">
-            <v>210</v>
+            <v>201</v>
           </cell>
           <cell r="AH7" t="str">
             <v>D</v>
@@ -426,7 +427,7 @@
         </row>
         <row r="8">
           <cell r="AD8" t="str">
-            <v>閃電鳥</v>
+            <v>超極巨顫弦蠑螈</v>
           </cell>
           <cell r="AE8" t="str">
             <v>電</v>
@@ -435,15 +436,15 @@
             <v>Y</v>
           </cell>
           <cell r="AG8">
-            <v>203</v>
+            <v>188</v>
           </cell>
           <cell r="AH8" t="str">
-            <v>D</v>
+            <v>G</v>
           </cell>
         </row>
         <row r="9">
           <cell r="AD9" t="str">
-            <v>雷公</v>
+            <v>顫弦蠑螈</v>
           </cell>
           <cell r="AE9" t="str">
             <v>電</v>
@@ -452,7 +453,7 @@
             <v>Y</v>
           </cell>
           <cell r="AG9">
-            <v>194</v>
+            <v>188</v>
           </cell>
           <cell r="AH9" t="str">
             <v>D</v>
@@ -460,16 +461,16 @@
         </row>
         <row r="10">
           <cell r="AD10" t="str">
-            <v>轟擂金剛猩</v>
+            <v>顫弦蠑螈</v>
           </cell>
           <cell r="AE10" t="str">
-            <v>草</v>
+            <v>毒</v>
           </cell>
           <cell r="AF10" t="str">
             <v>Y</v>
           </cell>
           <cell r="AG10">
-            <v>200</v>
+            <v>188</v>
           </cell>
           <cell r="AH10" t="str">
             <v>D</v>
@@ -477,33 +478,33 @@
         </row>
         <row r="11">
           <cell r="AD11" t="str">
-            <v>怪力</v>
+            <v>超極巨妙蛙花</v>
           </cell>
           <cell r="AE11" t="str">
-            <v>格鬥</v>
+            <v>草</v>
           </cell>
           <cell r="AF11" t="str">
             <v>Y</v>
           </cell>
           <cell r="AG11">
-            <v>201</v>
+            <v>159</v>
           </cell>
           <cell r="AH11" t="str">
-            <v>D</v>
+            <v>G</v>
           </cell>
         </row>
         <row r="12">
           <cell r="AD12" t="str">
-            <v>戰弦蠑螈</v>
+            <v>妙蛙花</v>
           </cell>
           <cell r="AE12" t="str">
-            <v>電</v>
+            <v>草</v>
           </cell>
           <cell r="AF12" t="str">
             <v>Y</v>
           </cell>
           <cell r="AG12">
-            <v>188</v>
+            <v>159</v>
           </cell>
           <cell r="AH12" t="str">
             <v>D</v>
@@ -511,7 +512,7 @@
         </row>
         <row r="13">
           <cell r="AD13" t="str">
-            <v>投擲猴</v>
+            <v>武道熊師(一)</v>
           </cell>
           <cell r="AE13" t="str">
             <v>格鬥</v>
@@ -520,7 +521,7 @@
             <v>Y</v>
           </cell>
           <cell r="AG13">
-            <v>181</v>
+            <v>210</v>
           </cell>
           <cell r="AH13" t="str">
             <v>D</v>
@@ -528,33 +529,33 @@
         </row>
         <row r="14">
           <cell r="AD14" t="str">
-            <v>耿鬼</v>
+            <v>武道熊師(連)</v>
           </cell>
           <cell r="AE14" t="str">
-            <v>幽靈</v>
+            <v>水</v>
           </cell>
           <cell r="AF14" t="str">
             <v>Y</v>
           </cell>
           <cell r="AG14">
-            <v>223</v>
+            <v>210</v>
           </cell>
           <cell r="AH14" t="str">
-            <v>G</v>
+            <v>D</v>
           </cell>
         </row>
         <row r="15">
           <cell r="AD15" t="str">
-            <v>蒼響</v>
+            <v>閃電鳥</v>
           </cell>
           <cell r="AE15" t="str">
-            <v>鋼</v>
+            <v>電</v>
           </cell>
           <cell r="AF15" t="str">
             <v>Y</v>
           </cell>
           <cell r="AG15">
-            <v>291</v>
+            <v>203</v>
           </cell>
           <cell r="AH15" t="str">
             <v>D</v>
@@ -562,16 +563,16 @@
         </row>
         <row r="16">
           <cell r="AD16" t="str">
-            <v>多刺菊石獸</v>
+            <v>雷公</v>
           </cell>
           <cell r="AE16" t="str">
-            <v>岩石</v>
+            <v>電</v>
           </cell>
           <cell r="AF16" t="str">
             <v>Y</v>
           </cell>
           <cell r="AG16">
-            <v>177</v>
+            <v>194</v>
           </cell>
           <cell r="AH16" t="str">
             <v>D</v>
@@ -579,16 +580,16 @@
         </row>
         <row r="17">
           <cell r="AD17" t="str">
-            <v>妙蛙花</v>
+            <v>投擲猴</v>
           </cell>
           <cell r="AE17" t="str">
-            <v>草</v>
+            <v>格鬥</v>
           </cell>
           <cell r="AF17" t="str">
             <v>Y</v>
           </cell>
           <cell r="AG17">
-            <v>159</v>
+            <v>181</v>
           </cell>
           <cell r="AH17" t="str">
             <v>D</v>
@@ -596,50 +597,50 @@
         </row>
         <row r="18">
           <cell r="AD18" t="str">
-            <v>列陣兵</v>
+            <v>超極巨耿鬼</v>
           </cell>
           <cell r="AE18" t="str">
-            <v>格鬥</v>
+            <v>幽靈</v>
           </cell>
           <cell r="AF18" t="str">
             <v>Y</v>
           </cell>
           <cell r="AG18">
-            <v>160</v>
+            <v>223</v>
           </cell>
           <cell r="AH18" t="str">
-            <v>D</v>
+            <v>G</v>
           </cell>
         </row>
         <row r="19">
           <cell r="AD19" t="str">
-            <v>閃焰王牌</v>
+            <v>耿鬼</v>
           </cell>
           <cell r="AE19" t="str">
-            <v>火</v>
+            <v>惡</v>
           </cell>
           <cell r="AF19" t="str">
-            <v>Y</v>
+            <v>N</v>
           </cell>
           <cell r="AG19">
-            <v>205</v>
+            <v>223</v>
           </cell>
           <cell r="AH19" t="str">
-            <v>G</v>
+            <v>D</v>
           </cell>
         </row>
         <row r="20">
           <cell r="AD20" t="str">
-            <v>鐮刀盔</v>
+            <v>耿鬼</v>
           </cell>
           <cell r="AE20" t="str">
-            <v>格鬥</v>
+            <v>幽靈</v>
           </cell>
           <cell r="AF20" t="str">
-            <v>N</v>
+            <v>Y</v>
           </cell>
           <cell r="AG20">
-            <v>185</v>
+            <v>223</v>
           </cell>
           <cell r="AH20" t="str">
             <v>D</v>
@@ -647,50 +648,50 @@
         </row>
         <row r="21">
           <cell r="AD21" t="str">
-            <v>噴火龍</v>
+            <v>蒼響</v>
           </cell>
           <cell r="AE21" t="str">
-            <v>火</v>
+            <v>鋼</v>
           </cell>
           <cell r="AF21" t="str">
             <v>Y</v>
           </cell>
           <cell r="AG21">
-            <v>187</v>
+            <v>291</v>
           </cell>
           <cell r="AH21" t="str">
-            <v>G</v>
+            <v>D</v>
           </cell>
         </row>
         <row r="22">
           <cell r="AD22" t="str">
-            <v>無極汰那</v>
+            <v>多刺菊石獸</v>
           </cell>
           <cell r="AE22" t="str">
-            <v>龍</v>
+            <v>岩石</v>
           </cell>
           <cell r="AF22" t="str">
             <v>Y</v>
           </cell>
           <cell r="AG22">
-            <v>229</v>
+            <v>177</v>
           </cell>
           <cell r="AH22" t="str">
-            <v>G</v>
+            <v>D</v>
           </cell>
         </row>
         <row r="23">
           <cell r="AD23" t="str">
-            <v>拉帝歐斯</v>
+            <v>妙蛙花</v>
           </cell>
           <cell r="AE23" t="str">
-            <v>超能力</v>
+            <v>草</v>
           </cell>
           <cell r="AF23" t="str">
             <v>Y</v>
           </cell>
           <cell r="AG23">
-            <v>221</v>
+            <v>159</v>
           </cell>
           <cell r="AH23" t="str">
             <v>D</v>
@@ -698,16 +699,16 @@
         </row>
         <row r="24">
           <cell r="AD24" t="str">
-            <v>拉帝歐斯</v>
+            <v>列陣兵</v>
           </cell>
           <cell r="AE24" t="str">
-            <v>龍</v>
+            <v>格鬥</v>
           </cell>
           <cell r="AF24" t="str">
             <v>Y</v>
           </cell>
           <cell r="AG24">
-            <v>221</v>
+            <v>160</v>
           </cell>
           <cell r="AH24" t="str">
             <v>D</v>
@@ -715,7 +716,7 @@
         </row>
         <row r="25">
           <cell r="AD25" t="str">
-            <v>狒狒達摩</v>
+            <v>超極巨閃焰王牌</v>
           </cell>
           <cell r="AE25" t="str">
             <v>火</v>
@@ -724,24 +725,24 @@
             <v>Y</v>
           </cell>
           <cell r="AG25">
-            <v>218</v>
+            <v>205</v>
           </cell>
           <cell r="AH25" t="str">
-            <v>D</v>
+            <v>G</v>
           </cell>
         </row>
         <row r="26">
           <cell r="AD26" t="str">
-            <v>耿鬼</v>
+            <v>閃焰王牌</v>
           </cell>
           <cell r="AE26" t="str">
-            <v>幽靈</v>
+            <v>火</v>
           </cell>
           <cell r="AF26" t="str">
             <v>Y</v>
           </cell>
           <cell r="AG26">
-            <v>223</v>
+            <v>205</v>
           </cell>
           <cell r="AH26" t="str">
             <v>D</v>
@@ -749,16 +750,16 @@
         </row>
         <row r="27">
           <cell r="AD27" t="str">
-            <v>巨金怪</v>
+            <v>鐮刀盔</v>
           </cell>
           <cell r="AE27" t="str">
-            <v>超能力</v>
+            <v>格鬥</v>
           </cell>
           <cell r="AF27" t="str">
-            <v>Y</v>
+            <v>N</v>
           </cell>
           <cell r="AG27">
-            <v>214</v>
+            <v>185</v>
           </cell>
           <cell r="AH27" t="str">
             <v>D</v>
@@ -766,33 +767,33 @@
         </row>
         <row r="28">
           <cell r="AD28" t="str">
-            <v>巨金怪</v>
+            <v>超極巨噴火龍</v>
           </cell>
           <cell r="AE28" t="str">
-            <v>鋼</v>
+            <v>火</v>
           </cell>
           <cell r="AF28" t="str">
             <v>Y</v>
           </cell>
           <cell r="AG28">
-            <v>214</v>
+            <v>187</v>
           </cell>
           <cell r="AH28" t="str">
-            <v>D</v>
+            <v>G</v>
           </cell>
         </row>
         <row r="29">
           <cell r="AD29" t="str">
-            <v>龍頭地鼠</v>
+            <v>噴火龍</v>
           </cell>
           <cell r="AE29" t="str">
-            <v>地面</v>
+            <v>飛行</v>
           </cell>
           <cell r="AF29" t="str">
             <v>Y</v>
           </cell>
           <cell r="AG29">
-            <v>217</v>
+            <v>187</v>
           </cell>
           <cell r="AH29" t="str">
             <v>D</v>
@@ -800,16 +801,16 @@
         </row>
         <row r="30">
           <cell r="AD30" t="str">
-            <v>龍頭地鼠</v>
+            <v>噴火龍</v>
           </cell>
           <cell r="AE30" t="str">
-            <v>鋼</v>
+            <v>火</v>
           </cell>
           <cell r="AF30" t="str">
             <v>Y</v>
           </cell>
           <cell r="AG30">
-            <v>217</v>
+            <v>187</v>
           </cell>
           <cell r="AH30" t="str">
             <v>D</v>
@@ -817,16 +818,16 @@
         </row>
         <row r="31">
           <cell r="AD31" t="str">
-            <v>武道熊師(一)</v>
+            <v>噴火龍</v>
           </cell>
           <cell r="AE31" t="str">
-            <v>惡</v>
+            <v>龍</v>
           </cell>
           <cell r="AF31" t="str">
-            <v>Y</v>
+            <v>N</v>
           </cell>
           <cell r="AG31">
-            <v>210</v>
+            <v>187</v>
           </cell>
           <cell r="AH31" t="str">
             <v>D</v>
@@ -834,33 +835,33 @@
         </row>
         <row r="32">
           <cell r="AD32" t="str">
-            <v>閃電鳥</v>
+            <v>無極汰那</v>
           </cell>
           <cell r="AE32" t="str">
-            <v>飛行</v>
+            <v>龍</v>
           </cell>
           <cell r="AF32" t="str">
             <v>Y</v>
           </cell>
           <cell r="AG32">
-            <v>203</v>
+            <v>231</v>
           </cell>
           <cell r="AH32" t="str">
-            <v>D</v>
+            <v>G</v>
           </cell>
         </row>
         <row r="33">
           <cell r="AD33" t="str">
-            <v>火焰鳥</v>
+            <v>拉帝歐斯</v>
           </cell>
           <cell r="AE33" t="str">
-            <v>飛行</v>
+            <v>超能力</v>
           </cell>
           <cell r="AF33" t="str">
             <v>Y</v>
           </cell>
           <cell r="AG33">
-            <v>200</v>
+            <v>221</v>
           </cell>
           <cell r="AH33" t="str">
             <v>D</v>
@@ -868,16 +869,16 @@
         </row>
         <row r="34">
           <cell r="AD34" t="str">
-            <v>火焰鳥</v>
+            <v>拉帝歐斯</v>
           </cell>
           <cell r="AE34" t="str">
-            <v>火</v>
+            <v>龍</v>
           </cell>
           <cell r="AF34" t="str">
             <v>Y</v>
           </cell>
           <cell r="AG34">
-            <v>200</v>
+            <v>221</v>
           </cell>
           <cell r="AH34" t="str">
             <v>D</v>
@@ -885,10 +886,10 @@
         </row>
         <row r="35">
           <cell r="AD35" t="str">
-            <v>藏瑪然特</v>
+            <v>狒狒達摩</v>
           </cell>
           <cell r="AE35" t="str">
-            <v>鋼</v>
+            <v>火</v>
           </cell>
           <cell r="AF35" t="str">
             <v>Y</v>
@@ -902,16 +903,16 @@
         </row>
         <row r="36">
           <cell r="AD36" t="str">
-            <v>炎帝</v>
+            <v>巨金怪</v>
           </cell>
           <cell r="AE36" t="str">
-            <v>火</v>
+            <v>超能力</v>
           </cell>
           <cell r="AF36" t="str">
             <v>Y</v>
           </cell>
           <cell r="AG36">
-            <v>175</v>
+            <v>214</v>
           </cell>
           <cell r="AH36" t="str">
             <v>D</v>
@@ -919,16 +920,16 @@
         </row>
         <row r="37">
           <cell r="AD37" t="str">
-            <v>閃焰王牌</v>
+            <v>巨金怪</v>
           </cell>
           <cell r="AE37" t="str">
-            <v>火</v>
+            <v>鋼</v>
           </cell>
           <cell r="AF37" t="str">
             <v>Y</v>
           </cell>
           <cell r="AG37">
-            <v>205</v>
+            <v>214</v>
           </cell>
           <cell r="AH37" t="str">
             <v>D</v>
@@ -936,16 +937,16 @@
         </row>
         <row r="38">
           <cell r="AD38" t="str">
-            <v>布莉姆溫</v>
+            <v>巨金怪</v>
           </cell>
           <cell r="AE38" t="str">
-            <v>超能力</v>
+            <v>蟲</v>
           </cell>
           <cell r="AF38" t="str">
-            <v>Y</v>
+            <v>N</v>
           </cell>
           <cell r="AG38">
-            <v>198</v>
+            <v>214</v>
           </cell>
           <cell r="AH38" t="str">
             <v>D</v>
@@ -953,16 +954,16 @@
         </row>
         <row r="39">
           <cell r="AD39" t="str">
-            <v>布莉姆溫</v>
+            <v>龍頭地鼠</v>
           </cell>
           <cell r="AE39" t="str">
-            <v>妖精</v>
+            <v>地面</v>
           </cell>
           <cell r="AF39" t="str">
             <v>Y</v>
           </cell>
           <cell r="AG39">
-            <v>198</v>
+            <v>217</v>
           </cell>
           <cell r="AH39" t="str">
             <v>D</v>
@@ -970,16 +971,16 @@
         </row>
         <row r="40">
           <cell r="AD40" t="str">
-            <v>吼鯨王</v>
+            <v>龍頭地鼠</v>
           </cell>
           <cell r="AE40" t="str">
-            <v>岩石</v>
+            <v>鋼</v>
           </cell>
           <cell r="AF40" t="str">
-            <v>N</v>
+            <v>Y</v>
           </cell>
           <cell r="AG40">
-            <v>147</v>
+            <v>217</v>
           </cell>
           <cell r="AH40" t="str">
             <v>D</v>
@@ -987,16 +988,16 @@
         </row>
         <row r="41">
           <cell r="AD41" t="str">
-            <v>拉帝亞斯</v>
+            <v>武道熊師(一)</v>
           </cell>
           <cell r="AE41" t="str">
-            <v>超能力</v>
+            <v>惡</v>
           </cell>
           <cell r="AF41" t="str">
             <v>Y</v>
           </cell>
           <cell r="AG41">
-            <v>158</v>
+            <v>210</v>
           </cell>
           <cell r="AH41" t="str">
             <v>D</v>
@@ -1004,16 +1005,16 @@
         </row>
         <row r="42">
           <cell r="AD42" t="str">
-            <v>拉帝亞斯</v>
+            <v>閃電鳥</v>
           </cell>
           <cell r="AE42" t="str">
-            <v>龍</v>
+            <v>飛行</v>
           </cell>
           <cell r="AF42" t="str">
             <v>Y</v>
           </cell>
           <cell r="AG42">
-            <v>158</v>
+            <v>203</v>
           </cell>
           <cell r="AH42" t="str">
             <v>D</v>
@@ -1021,16 +1022,16 @@
         </row>
         <row r="43">
           <cell r="AD43" t="str">
-            <v>水箭龜</v>
+            <v>火焰鳥</v>
           </cell>
           <cell r="AE43" t="str">
-            <v>岩石</v>
+            <v>飛行</v>
           </cell>
           <cell r="AF43" t="str">
-            <v>N</v>
+            <v>Y</v>
           </cell>
           <cell r="AG43">
-            <v>145</v>
+            <v>200</v>
           </cell>
           <cell r="AH43" t="str">
             <v>D</v>
@@ -1038,16 +1039,16 @@
         </row>
         <row r="44">
           <cell r="AD44" t="str">
-            <v>高傲雉雞</v>
+            <v>火焰鳥</v>
           </cell>
           <cell r="AE44" t="str">
-            <v>飛行</v>
+            <v>火</v>
           </cell>
           <cell r="AF44" t="str">
             <v>Y</v>
           </cell>
           <cell r="AG44">
-            <v>188</v>
+            <v>200</v>
           </cell>
           <cell r="AH44" t="str">
             <v>D</v>
@@ -1055,16 +1056,16 @@
         </row>
         <row r="45">
           <cell r="AD45" t="str">
-            <v>戰弦蠑螈</v>
+            <v>藏瑪然特</v>
           </cell>
           <cell r="AE45" t="str">
-            <v>毒</v>
+            <v>鋼</v>
           </cell>
           <cell r="AF45" t="str">
             <v>Y</v>
           </cell>
           <cell r="AG45">
-            <v>188</v>
+            <v>218</v>
           </cell>
           <cell r="AH45" t="str">
             <v>D</v>
@@ -1072,16 +1073,16 @@
         </row>
         <row r="46">
           <cell r="AD46" t="str">
-            <v>噴火龍</v>
+            <v>炎帝</v>
           </cell>
           <cell r="AE46" t="str">
-            <v>飛行</v>
+            <v>火</v>
           </cell>
           <cell r="AF46" t="str">
             <v>Y</v>
           </cell>
           <cell r="AG46">
-            <v>187</v>
+            <v>175</v>
           </cell>
           <cell r="AH46" t="str">
             <v>D</v>
@@ -1089,16 +1090,16 @@
         </row>
         <row r="47">
           <cell r="AD47" t="str">
-            <v>噴火龍</v>
+            <v>布莉姆溫</v>
           </cell>
           <cell r="AE47" t="str">
-            <v>火</v>
+            <v>超能力</v>
           </cell>
           <cell r="AF47" t="str">
             <v>Y</v>
           </cell>
           <cell r="AG47">
-            <v>187</v>
+            <v>198</v>
           </cell>
           <cell r="AH47" t="str">
             <v>D</v>
@@ -1106,16 +1107,16 @@
         </row>
         <row r="48">
           <cell r="AD48" t="str">
-            <v>耿鬼</v>
+            <v>布莉姆溫</v>
           </cell>
           <cell r="AE48" t="str">
-            <v>惡</v>
+            <v>妖精</v>
           </cell>
           <cell r="AF48" t="str">
-            <v>N</v>
+            <v>Y</v>
           </cell>
           <cell r="AG48">
-            <v>223</v>
+            <v>198</v>
           </cell>
           <cell r="AH48" t="str">
             <v>D</v>
@@ -1123,33 +1124,33 @@
         </row>
         <row r="49">
           <cell r="AD49" t="str">
-            <v>巴大蝶</v>
+            <v>吼鯨王</v>
           </cell>
           <cell r="AE49" t="str">
-            <v>蟲</v>
+            <v>岩石</v>
           </cell>
           <cell r="AF49" t="str">
-            <v>Y</v>
+            <v>N</v>
           </cell>
           <cell r="AG49">
-            <v>143</v>
+            <v>147</v>
           </cell>
           <cell r="AH49" t="str">
-            <v>G</v>
+            <v>D</v>
           </cell>
         </row>
         <row r="50">
           <cell r="AD50" t="str">
-            <v>巨金怪</v>
+            <v>拉帝亞斯</v>
           </cell>
           <cell r="AE50" t="str">
-            <v>蟲</v>
+            <v>超能力</v>
           </cell>
           <cell r="AF50" t="str">
-            <v>N</v>
+            <v>Y</v>
           </cell>
           <cell r="AG50">
-            <v>214</v>
+            <v>158</v>
           </cell>
           <cell r="AH50" t="str">
             <v>D</v>
@@ -1157,16 +1158,16 @@
         </row>
         <row r="51">
           <cell r="AD51" t="str">
-            <v>藏飽栗鼠</v>
+            <v>拉帝亞斯</v>
           </cell>
           <cell r="AE51" t="str">
-            <v>草</v>
+            <v>龍</v>
           </cell>
           <cell r="AF51" t="str">
-            <v>N</v>
+            <v>Y</v>
           </cell>
           <cell r="AG51">
-            <v>138</v>
+            <v>158</v>
           </cell>
           <cell r="AH51" t="str">
             <v>D</v>
@@ -1174,16 +1175,16 @@
         </row>
         <row r="52">
           <cell r="AD52" t="str">
-            <v>毛毛角羊</v>
+            <v>高傲雉雞</v>
           </cell>
           <cell r="AE52" t="str">
-            <v>格鬥</v>
+            <v>飛行</v>
           </cell>
           <cell r="AF52" t="str">
-            <v>N</v>
+            <v>Y</v>
           </cell>
           <cell r="AG52">
-            <v>136</v>
+            <v>188</v>
           </cell>
           <cell r="AH52" t="str">
             <v>D</v>
@@ -1191,16 +1192,16 @@
         </row>
         <row r="53">
           <cell r="AD53" t="str">
-            <v>千面避役</v>
+            <v>超極巨巴大蝶</v>
           </cell>
           <cell r="AE53" t="str">
-            <v>水</v>
+            <v>蟲</v>
           </cell>
           <cell r="AF53" t="str">
             <v>Y</v>
           </cell>
           <cell r="AG53">
-            <v>217</v>
+            <v>143</v>
           </cell>
           <cell r="AH53" t="str">
             <v>G</v>
@@ -1208,16 +1209,16 @@
         </row>
         <row r="54">
           <cell r="AD54" t="str">
-            <v>巨鉗蟹</v>
+            <v>巴大蝶</v>
           </cell>
           <cell r="AE54" t="str">
-            <v>地面</v>
+            <v>蟲</v>
           </cell>
           <cell r="AF54" t="str">
-            <v>N</v>
+            <v>Y</v>
           </cell>
           <cell r="AG54">
-            <v>198</v>
+            <v>143</v>
           </cell>
           <cell r="AH54" t="str">
             <v>D</v>
@@ -1225,16 +1226,16 @@
         </row>
         <row r="55">
           <cell r="AD55" t="str">
-            <v>巨鉗蟹</v>
+            <v>巴大蝶</v>
           </cell>
           <cell r="AE55" t="str">
-            <v>鋼</v>
+            <v>超能力</v>
           </cell>
           <cell r="AF55" t="str">
             <v>N</v>
           </cell>
           <cell r="AG55">
-            <v>198</v>
+            <v>143</v>
           </cell>
           <cell r="AH55" t="str">
             <v>D</v>
@@ -1242,16 +1243,16 @@
         </row>
         <row r="56">
           <cell r="AD56" t="str">
-            <v>怪力</v>
+            <v>藏飽栗鼠</v>
           </cell>
           <cell r="AE56" t="str">
-            <v>鋼</v>
+            <v>草</v>
           </cell>
           <cell r="AF56" t="str">
             <v>N</v>
           </cell>
           <cell r="AG56">
-            <v>201</v>
+            <v>138</v>
           </cell>
           <cell r="AH56" t="str">
             <v>D</v>
@@ -1259,50 +1260,50 @@
         </row>
         <row r="57">
           <cell r="AD57" t="str">
-            <v>巨鉗蟹</v>
+            <v>毛毛角羊</v>
           </cell>
           <cell r="AE57" t="str">
-            <v>水</v>
+            <v>格鬥</v>
           </cell>
           <cell r="AF57" t="str">
-            <v>Y</v>
+            <v>N</v>
           </cell>
           <cell r="AG57">
-            <v>198</v>
+            <v>136</v>
           </cell>
           <cell r="AH57" t="str">
-            <v>G</v>
+            <v>D</v>
           </cell>
         </row>
         <row r="58">
           <cell r="AD58" t="str">
-            <v>高傲雉雞</v>
+            <v>超極巨千面避役</v>
           </cell>
           <cell r="AE58" t="str">
-            <v>鋼</v>
+            <v>水</v>
           </cell>
           <cell r="AF58" t="str">
-            <v>N</v>
+            <v>Y</v>
           </cell>
           <cell r="AG58">
-            <v>188</v>
+            <v>217</v>
           </cell>
           <cell r="AH58" t="str">
-            <v>D</v>
+            <v>G</v>
           </cell>
         </row>
         <row r="59">
           <cell r="AD59" t="str">
-            <v>噴火龍</v>
+            <v>千面避役</v>
           </cell>
           <cell r="AE59" t="str">
-            <v>龍</v>
+            <v>水</v>
           </cell>
           <cell r="AF59" t="str">
-            <v>N</v>
+            <v>Y</v>
           </cell>
           <cell r="AG59">
-            <v>187</v>
+            <v>217</v>
           </cell>
           <cell r="AH59" t="str">
             <v>D</v>
@@ -1310,33 +1311,33 @@
         </row>
         <row r="60">
           <cell r="AD60" t="str">
-            <v>鐮刀盔</v>
+            <v>超極巨巨鉗蟹</v>
           </cell>
           <cell r="AE60" t="str">
-            <v>地面</v>
+            <v>水</v>
           </cell>
           <cell r="AF60" t="str">
-            <v>N</v>
+            <v>Y</v>
           </cell>
           <cell r="AG60">
-            <v>185</v>
+            <v>198</v>
           </cell>
           <cell r="AH60" t="str">
-            <v>D</v>
+            <v>G</v>
           </cell>
         </row>
         <row r="61">
           <cell r="AD61" t="str">
-            <v>鐮刀盔</v>
+            <v>巨鉗蟹</v>
           </cell>
           <cell r="AE61" t="str">
-            <v>蟲</v>
+            <v>地面</v>
           </cell>
           <cell r="AF61" t="str">
             <v>N</v>
           </cell>
           <cell r="AG61">
-            <v>185</v>
+            <v>198</v>
           </cell>
           <cell r="AH61" t="str">
             <v>D</v>
@@ -1344,16 +1345,16 @@
         </row>
         <row r="62">
           <cell r="AD62" t="str">
-            <v>多刺菊石獸</v>
+            <v>巨鉗蟹</v>
           </cell>
           <cell r="AE62" t="str">
-            <v>地面</v>
+            <v>鋼</v>
           </cell>
           <cell r="AF62" t="str">
             <v>N</v>
           </cell>
           <cell r="AG62">
-            <v>177</v>
+            <v>198</v>
           </cell>
           <cell r="AH62" t="str">
             <v>D</v>
@@ -1361,16 +1362,16 @@
         </row>
         <row r="63">
           <cell r="AD63" t="str">
-            <v>巴大蝶</v>
+            <v>高傲雉雞</v>
           </cell>
           <cell r="AE63" t="str">
-            <v>蟲</v>
+            <v>鋼</v>
           </cell>
           <cell r="AF63" t="str">
-            <v>Y</v>
+            <v>N</v>
           </cell>
           <cell r="AG63">
-            <v>143</v>
+            <v>188</v>
           </cell>
           <cell r="AH63" t="str">
             <v>D</v>
@@ -1378,16 +1379,16 @@
         </row>
         <row r="64">
           <cell r="AD64" t="str">
-            <v>鋼鎧鴉</v>
+            <v>鐮刀盔</v>
           </cell>
           <cell r="AE64" t="str">
-            <v>飛行</v>
+            <v>地面</v>
           </cell>
           <cell r="AF64" t="str">
-            <v>Y</v>
+            <v>N</v>
           </cell>
           <cell r="AG64">
-            <v>140</v>
+            <v>185</v>
           </cell>
           <cell r="AH64" t="str">
             <v>D</v>
@@ -1395,16 +1396,16 @@
         </row>
         <row r="65">
           <cell r="AD65" t="str">
-            <v>鋼鎧鴉</v>
+            <v>鐮刀盔</v>
           </cell>
           <cell r="AE65" t="str">
-            <v>鋼</v>
+            <v>蟲</v>
           </cell>
           <cell r="AF65" t="str">
-            <v>Y</v>
+            <v>N</v>
           </cell>
           <cell r="AG65">
-            <v>140</v>
+            <v>185</v>
           </cell>
           <cell r="AH65" t="str">
             <v>D</v>
@@ -1412,16 +1413,16 @@
         </row>
         <row r="66">
           <cell r="AD66" t="str">
-            <v>武道熊師(連)</v>
+            <v>多刺菊石獸</v>
           </cell>
           <cell r="AE66" t="str">
-            <v>水</v>
+            <v>地面</v>
           </cell>
           <cell r="AF66" t="str">
-            <v>Y</v>
+            <v>N</v>
           </cell>
           <cell r="AG66">
-            <v>210</v>
+            <v>177</v>
           </cell>
           <cell r="AH66" t="str">
             <v>D</v>
@@ -1429,16 +1430,16 @@
         </row>
         <row r="67">
           <cell r="AD67" t="str">
-            <v>灰塵山</v>
+            <v>巴大蝶</v>
           </cell>
           <cell r="AE67" t="str">
             <v>蟲</v>
           </cell>
           <cell r="AF67" t="str">
-            <v>N</v>
+            <v>Y</v>
           </cell>
           <cell r="AG67">
-            <v>153</v>
+            <v>143</v>
           </cell>
           <cell r="AH67" t="str">
             <v>D</v>
@@ -1446,16 +1447,16 @@
         </row>
         <row r="68">
           <cell r="AD68" t="str">
-            <v>吼鯨王</v>
+            <v>鋼鎧鴉</v>
           </cell>
           <cell r="AE68" t="str">
-            <v>超能力</v>
+            <v>飛行</v>
           </cell>
           <cell r="AF68" t="str">
-            <v>N</v>
+            <v>Y</v>
           </cell>
           <cell r="AG68">
-            <v>147</v>
+            <v>140</v>
           </cell>
           <cell r="AH68" t="str">
             <v>D</v>
@@ -1463,16 +1464,16 @@
         </row>
         <row r="69">
           <cell r="AD69" t="str">
-            <v>水箭龜</v>
+            <v>鋼鎧鴉</v>
           </cell>
           <cell r="AE69" t="str">
-            <v>惡</v>
+            <v>鋼</v>
           </cell>
           <cell r="AF69" t="str">
-            <v>N</v>
+            <v>Y</v>
           </cell>
           <cell r="AG69">
-            <v>145</v>
+            <v>140</v>
           </cell>
           <cell r="AH69" t="str">
             <v>D</v>
@@ -1480,16 +1481,16 @@
         </row>
         <row r="70">
           <cell r="AD70" t="str">
-            <v>勾魂眼</v>
+            <v>鋼鎧鴉</v>
           </cell>
           <cell r="AE70" t="str">
-            <v>幽靈</v>
+            <v>地面</v>
           </cell>
           <cell r="AF70" t="str">
-            <v>Y</v>
+            <v>N</v>
           </cell>
           <cell r="AG70">
-            <v>121</v>
+            <v>140</v>
           </cell>
           <cell r="AH70" t="str">
             <v>D</v>
@@ -1497,33 +1498,33 @@
         </row>
         <row r="71">
           <cell r="AD71" t="str">
-            <v>勾魂眼</v>
+            <v>超極巨灰塵山</v>
           </cell>
           <cell r="AE71" t="str">
-            <v>惡</v>
+            <v>毒</v>
           </cell>
           <cell r="AF71" t="str">
             <v>Y</v>
           </cell>
           <cell r="AG71">
-            <v>121</v>
+            <v>153</v>
           </cell>
           <cell r="AH71" t="str">
-            <v>D</v>
+            <v>G</v>
           </cell>
         </row>
         <row r="72">
           <cell r="AD72" t="str">
-            <v>巴大蝶</v>
+            <v>灰塵山</v>
           </cell>
           <cell r="AE72" t="str">
-            <v>超能力</v>
+            <v>蟲</v>
           </cell>
           <cell r="AF72" t="str">
             <v>N</v>
           </cell>
           <cell r="AG72">
-            <v>143</v>
+            <v>153</v>
           </cell>
           <cell r="AH72" t="str">
             <v>D</v>
@@ -1531,16 +1532,16 @@
         </row>
         <row r="73">
           <cell r="AD73" t="str">
-            <v>鐮刀盔</v>
+            <v>吼鯨王</v>
           </cell>
           <cell r="AE73" t="str">
-            <v>水</v>
+            <v>超能力</v>
           </cell>
           <cell r="AF73" t="str">
-            <v>Y</v>
+            <v>N</v>
           </cell>
           <cell r="AG73">
-            <v>185</v>
+            <v>147</v>
           </cell>
           <cell r="AH73" t="str">
             <v>D</v>
@@ -1548,7 +1549,7 @@
         </row>
         <row r="74">
           <cell r="AD74" t="str">
-            <v>水箭龜</v>
+            <v>超極巨水箭龜</v>
           </cell>
           <cell r="AE74" t="str">
             <v>水</v>
@@ -1565,16 +1566,16 @@
         </row>
         <row r="75">
           <cell r="AD75" t="str">
-            <v>鋼鎧鴉</v>
+            <v>水箭龜</v>
           </cell>
           <cell r="AE75" t="str">
-            <v>地面</v>
+            <v>水</v>
           </cell>
           <cell r="AF75" t="str">
-            <v>N</v>
+            <v>Y</v>
           </cell>
           <cell r="AG75">
-            <v>140</v>
+            <v>145</v>
           </cell>
           <cell r="AH75" t="str">
             <v>D</v>
@@ -1582,16 +1583,16 @@
         </row>
         <row r="76">
           <cell r="AD76" t="str">
-            <v>藏飽栗鼠</v>
+            <v>水箭龜</v>
           </cell>
           <cell r="AE76" t="str">
-            <v>地面</v>
+            <v>岩石</v>
           </cell>
           <cell r="AF76" t="str">
             <v>N</v>
           </cell>
           <cell r="AG76">
-            <v>138</v>
+            <v>145</v>
           </cell>
           <cell r="AH76" t="str">
             <v>D</v>
@@ -1599,7 +1600,7 @@
         </row>
         <row r="77">
           <cell r="AD77" t="str">
-            <v>藏飽栗鼠</v>
+            <v>水箭龜</v>
           </cell>
           <cell r="AE77" t="str">
             <v>惡</v>
@@ -1608,7 +1609,7 @@
             <v>N</v>
           </cell>
           <cell r="AG77">
-            <v>138</v>
+            <v>145</v>
           </cell>
           <cell r="AH77" t="str">
             <v>D</v>
@@ -1616,16 +1617,16 @@
         </row>
         <row r="78">
           <cell r="AD78" t="str">
-            <v>多刺菊石獸</v>
+            <v>勾魂眼</v>
           </cell>
           <cell r="AE78" t="str">
-            <v>水</v>
+            <v>幽靈</v>
           </cell>
           <cell r="AF78" t="str">
             <v>Y</v>
           </cell>
           <cell r="AG78">
-            <v>177</v>
+            <v>121</v>
           </cell>
           <cell r="AH78" t="str">
             <v>D</v>
@@ -1633,16 +1634,16 @@
         </row>
         <row r="79">
           <cell r="AD79" t="str">
-            <v>水君</v>
+            <v>勾魂眼</v>
           </cell>
           <cell r="AE79" t="str">
-            <v>水</v>
+            <v>惡</v>
           </cell>
           <cell r="AF79" t="str">
             <v>Y</v>
           </cell>
           <cell r="AG79">
-            <v>147</v>
+            <v>121</v>
           </cell>
           <cell r="AH79" t="str">
             <v>D</v>
@@ -1650,7 +1651,7 @@
         </row>
         <row r="80">
           <cell r="AD80" t="str">
-            <v>吼鯨王</v>
+            <v>鐮刀盔</v>
           </cell>
           <cell r="AE80" t="str">
             <v>水</v>
@@ -1659,7 +1660,7 @@
             <v>Y</v>
           </cell>
           <cell r="AG80">
-            <v>147</v>
+            <v>185</v>
           </cell>
           <cell r="AH80" t="str">
             <v>D</v>
@@ -1667,16 +1668,16 @@
         </row>
         <row r="81">
           <cell r="AD81" t="str">
-            <v>幸福蛋</v>
+            <v>藏飽栗鼠</v>
           </cell>
           <cell r="AE81" t="str">
-            <v>超能力</v>
+            <v>地面</v>
           </cell>
           <cell r="AF81" t="str">
             <v>N</v>
           </cell>
           <cell r="AG81">
-            <v>113</v>
+            <v>138</v>
           </cell>
           <cell r="AH81" t="str">
             <v>D</v>
@@ -1684,16 +1685,16 @@
         </row>
         <row r="82">
           <cell r="AD82" t="str">
-            <v>水箭龜</v>
+            <v>藏飽栗鼠</v>
           </cell>
           <cell r="AE82" t="str">
-            <v>水</v>
+            <v>惡</v>
           </cell>
           <cell r="AF82" t="str">
-            <v>Y</v>
+            <v>N</v>
           </cell>
           <cell r="AG82">
-            <v>145</v>
+            <v>138</v>
           </cell>
           <cell r="AH82" t="str">
             <v>D</v>
@@ -1701,16 +1702,16 @@
         </row>
         <row r="83">
           <cell r="AD83" t="str">
-            <v>急凍鳥</v>
+            <v>多刺菊石獸</v>
           </cell>
           <cell r="AE83" t="str">
-            <v>冰</v>
+            <v>水</v>
           </cell>
           <cell r="AF83" t="str">
             <v>Y</v>
           </cell>
           <cell r="AG83">
-            <v>155</v>
+            <v>177</v>
           </cell>
           <cell r="AH83" t="str">
             <v>D</v>
@@ -1718,16 +1719,16 @@
         </row>
         <row r="84">
           <cell r="AD84" t="str">
-            <v>幾何雪花</v>
+            <v>水君</v>
           </cell>
           <cell r="AE84" t="str">
-            <v>冰</v>
+            <v>水</v>
           </cell>
           <cell r="AF84" t="str">
             <v>Y</v>
           </cell>
           <cell r="AG84">
-            <v>153</v>
+            <v>147</v>
           </cell>
           <cell r="AH84" t="str">
             <v>D</v>
@@ -1735,16 +1736,16 @@
         </row>
         <row r="85">
           <cell r="AD85" t="str">
-            <v>壺壺</v>
+            <v>吼鯨王</v>
           </cell>
           <cell r="AE85" t="str">
-            <v>岩石</v>
+            <v>水</v>
           </cell>
           <cell r="AF85" t="str">
             <v>Y</v>
           </cell>
           <cell r="AG85">
-            <v>17</v>
+            <v>147</v>
           </cell>
           <cell r="AH85" t="str">
             <v>D</v>
@@ -1752,16 +1753,16 @@
         </row>
         <row r="86">
           <cell r="AD86" t="str">
-            <v>壺壺</v>
+            <v>幸福蛋</v>
           </cell>
           <cell r="AE86" t="str">
-            <v>蟲</v>
+            <v>超能力</v>
           </cell>
           <cell r="AF86" t="str">
-            <v>Y</v>
+            <v>N</v>
           </cell>
           <cell r="AG86">
-            <v>17</v>
+            <v>113</v>
           </cell>
           <cell r="AH86" t="str">
             <v>D</v>
@@ -1769,16 +1770,16 @@
         </row>
         <row r="87">
           <cell r="AD87" t="str">
-            <v>胡地</v>
+            <v>急凍鳥</v>
           </cell>
           <cell r="AE87" t="str">
-            <v>超能力</v>
+            <v>冰</v>
           </cell>
           <cell r="AF87" t="str">
             <v>Y</v>
           </cell>
           <cell r="AG87">
-            <v>225</v>
+            <v>155</v>
           </cell>
           <cell r="AH87" t="str">
             <v>D</v>
@@ -1786,16 +1787,16 @@
         </row>
         <row r="88">
           <cell r="AD88" t="str">
-            <v>胡地</v>
+            <v>幾何雪花</v>
           </cell>
           <cell r="AE88" t="str">
-            <v>格鬥</v>
+            <v>冰</v>
           </cell>
           <cell r="AF88" t="str">
-            <v>N</v>
+            <v>Y</v>
           </cell>
           <cell r="AG88">
-            <v>225</v>
+            <v>153</v>
           </cell>
           <cell r="AH88" t="str">
             <v>D</v>
@@ -1803,33 +1804,33 @@
         </row>
         <row r="89">
           <cell r="AD89" t="str">
-            <v>拉普拉斯</v>
+            <v>壺壺</v>
           </cell>
           <cell r="AE89" t="str">
-            <v>冰</v>
+            <v>岩石</v>
           </cell>
           <cell r="AF89" t="str">
             <v>Y</v>
           </cell>
           <cell r="AG89">
-            <v>141</v>
+            <v>17</v>
           </cell>
           <cell r="AH89" t="str">
-            <v>G</v>
+            <v>D</v>
           </cell>
         </row>
         <row r="90">
           <cell r="AD90" t="str">
-            <v>鋁鋼龍</v>
+            <v>壺壺</v>
           </cell>
           <cell r="AE90" t="str">
-            <v>鋼</v>
+            <v>蟲</v>
           </cell>
           <cell r="AF90" t="str">
             <v>Y</v>
           </cell>
           <cell r="AG90">
-            <v>201</v>
+            <v>17</v>
           </cell>
           <cell r="AH90" t="str">
             <v>D</v>
@@ -1837,16 +1838,16 @@
         </row>
         <row r="91">
           <cell r="AD91" t="str">
-            <v>鋁鋼龍</v>
+            <v>胡地</v>
           </cell>
           <cell r="AE91" t="str">
-            <v>龍</v>
+            <v>超能力</v>
           </cell>
           <cell r="AF91" t="str">
             <v>Y</v>
           </cell>
           <cell r="AG91">
-            <v>201</v>
+            <v>225</v>
           </cell>
           <cell r="AH91" t="str">
             <v>D</v>
@@ -1854,16 +1855,16 @@
         </row>
         <row r="92">
           <cell r="AD92" t="str">
-            <v>鋁鋼龍</v>
+            <v>胡地</v>
           </cell>
           <cell r="AE92" t="str">
-            <v>一般</v>
+            <v>格鬥</v>
           </cell>
           <cell r="AF92" t="str">
             <v>N</v>
           </cell>
           <cell r="AG92">
-            <v>201</v>
+            <v>225</v>
           </cell>
           <cell r="AH92" t="str">
             <v>D</v>
@@ -1871,16 +1872,16 @@
         </row>
         <row r="93">
           <cell r="AD93" t="str">
-            <v>巨金怪</v>
+            <v>拉普拉斯</v>
           </cell>
           <cell r="AE93" t="str">
-            <v>幽靈</v>
+            <v>冰</v>
           </cell>
           <cell r="AF93" t="str">
-            <v>N</v>
+            <v>Y</v>
           </cell>
           <cell r="AG93">
-            <v>214</v>
+            <v>141</v>
           </cell>
           <cell r="AH93" t="str">
             <v>D</v>
@@ -1888,16 +1889,16 @@
         </row>
         <row r="94">
           <cell r="AD94" t="str">
-            <v>沙奈朵</v>
+            <v>鋁鋼龍</v>
           </cell>
           <cell r="AE94" t="str">
-            <v>妖精</v>
+            <v>鋼</v>
           </cell>
           <cell r="AF94" t="str">
             <v>Y</v>
           </cell>
           <cell r="AG94">
-            <v>199</v>
+            <v>201</v>
           </cell>
           <cell r="AH94" t="str">
             <v>D</v>
@@ -1905,16 +1906,16 @@
         </row>
         <row r="95">
           <cell r="AD95" t="str">
-            <v>沙奈朵</v>
+            <v>鋁鋼龍</v>
           </cell>
           <cell r="AE95" t="str">
-            <v>超能力</v>
+            <v>龍</v>
           </cell>
           <cell r="AF95" t="str">
             <v>Y</v>
           </cell>
           <cell r="AG95">
-            <v>199</v>
+            <v>201</v>
           </cell>
           <cell r="AH95" t="str">
             <v>D</v>
@@ -1922,16 +1923,16 @@
         </row>
         <row r="96">
           <cell r="AD96" t="str">
-            <v>沙奈朵</v>
+            <v>鋁鋼龍</v>
           </cell>
           <cell r="AE96" t="str">
-            <v>草</v>
+            <v>一般</v>
           </cell>
           <cell r="AF96" t="str">
             <v>N</v>
           </cell>
           <cell r="AG96">
-            <v>199</v>
+            <v>201</v>
           </cell>
           <cell r="AH96" t="str">
             <v>D</v>
@@ -1939,16 +1940,16 @@
         </row>
         <row r="97">
           <cell r="AD97" t="str">
-            <v>沙奈朵</v>
+            <v>巨金怪</v>
           </cell>
           <cell r="AE97" t="str">
-            <v>電</v>
+            <v>幽靈</v>
           </cell>
           <cell r="AF97" t="str">
             <v>N</v>
           </cell>
           <cell r="AG97">
-            <v>199</v>
+            <v>214</v>
           </cell>
           <cell r="AH97" t="str">
             <v>D</v>
@@ -1956,16 +1957,16 @@
         </row>
         <row r="98">
           <cell r="AD98" t="str">
-            <v>甜冷美后</v>
+            <v>沙奈朵</v>
           </cell>
           <cell r="AE98" t="str">
-            <v>草</v>
+            <v>妖精</v>
           </cell>
           <cell r="AF98" t="str">
             <v>Y</v>
           </cell>
           <cell r="AG98">
-            <v>187</v>
+            <v>199</v>
           </cell>
           <cell r="AH98" t="str">
             <v>D</v>
@@ -1973,16 +1974,16 @@
         </row>
         <row r="99">
           <cell r="AD99" t="str">
-            <v>甜冷美后</v>
+            <v>沙奈朵</v>
           </cell>
           <cell r="AE99" t="str">
-            <v>妖精</v>
+            <v>超能力</v>
           </cell>
           <cell r="AF99" t="str">
-            <v>N</v>
+            <v>Y</v>
           </cell>
           <cell r="AG99">
-            <v>187</v>
+            <v>199</v>
           </cell>
           <cell r="AH99" t="str">
             <v>D</v>
@@ -1990,33 +1991,33 @@
         </row>
         <row r="100">
           <cell r="AD100" t="str">
-            <v>超級巨伊布</v>
+            <v>沙奈朵</v>
           </cell>
           <cell r="AE100" t="str">
-            <v>一般</v>
+            <v>草</v>
           </cell>
           <cell r="AF100" t="str">
-            <v>Y</v>
+            <v>N</v>
           </cell>
           <cell r="AG100">
-            <v>94</v>
+            <v>199</v>
           </cell>
           <cell r="AH100" t="str">
-            <v>G</v>
+            <v>D</v>
           </cell>
         </row>
         <row r="101">
           <cell r="AD101" t="str">
-            <v>水伊布</v>
+            <v>沙奈朵</v>
           </cell>
           <cell r="AE101" t="str">
-            <v>水</v>
+            <v>電</v>
           </cell>
           <cell r="AF101" t="str">
-            <v>Y</v>
+            <v>N</v>
           </cell>
           <cell r="AG101">
-            <v>174</v>
+            <v>199</v>
           </cell>
           <cell r="AH101" t="str">
             <v>D</v>
@@ -2024,16 +2025,16 @@
         </row>
         <row r="102">
           <cell r="AD102" t="str">
-            <v>雷伊布</v>
+            <v>甜冷美后</v>
           </cell>
           <cell r="AE102" t="str">
-            <v>電</v>
+            <v>草</v>
           </cell>
           <cell r="AF102" t="str">
             <v>Y</v>
           </cell>
           <cell r="AG102">
-            <v>195</v>
+            <v>187</v>
           </cell>
           <cell r="AH102" t="str">
             <v>D</v>
@@ -2041,16 +2042,16 @@
         </row>
         <row r="103">
           <cell r="AD103" t="str">
-            <v>火伊布</v>
+            <v>甜冷美后</v>
           </cell>
           <cell r="AE103" t="str">
-            <v>火</v>
+            <v>妖精</v>
           </cell>
           <cell r="AF103" t="str">
-            <v>Y</v>
+            <v>N</v>
           </cell>
           <cell r="AG103">
-            <v>206</v>
+            <v>187</v>
           </cell>
           <cell r="AH103" t="str">
             <v>D</v>
@@ -2058,33 +2059,33 @@
         </row>
         <row r="104">
           <cell r="AD104" t="str">
-            <v>太陽伊布</v>
+            <v>超極巨伊布</v>
           </cell>
           <cell r="AE104" t="str">
-            <v>超能力</v>
+            <v>一般</v>
           </cell>
           <cell r="AF104" t="str">
             <v>Y</v>
           </cell>
           <cell r="AG104">
-            <v>218</v>
+            <v>94</v>
           </cell>
           <cell r="AH104" t="str">
-            <v>D</v>
+            <v>G</v>
           </cell>
         </row>
         <row r="105">
           <cell r="AD105" t="str">
-            <v>月亮伊布</v>
+            <v>水伊布</v>
           </cell>
           <cell r="AE105" t="str">
-            <v>惡</v>
+            <v>水</v>
           </cell>
           <cell r="AF105" t="str">
             <v>Y</v>
           </cell>
           <cell r="AG105">
-            <v>111</v>
+            <v>174</v>
           </cell>
           <cell r="AH105" t="str">
             <v>D</v>
@@ -2092,16 +2093,16 @@
         </row>
         <row r="106">
           <cell r="AD106" t="str">
-            <v>葉伊布</v>
+            <v>雷伊布</v>
           </cell>
           <cell r="AE106" t="str">
-            <v>草</v>
+            <v>電</v>
           </cell>
           <cell r="AF106" t="str">
             <v>Y</v>
           </cell>
           <cell r="AG106">
-            <v>183</v>
+            <v>195</v>
           </cell>
           <cell r="AH106" t="str">
             <v>D</v>
@@ -2109,16 +2110,16 @@
         </row>
         <row r="107">
           <cell r="AD107" t="str">
-            <v>冰伊布</v>
+            <v>火伊布</v>
           </cell>
           <cell r="AE107" t="str">
-            <v>冰</v>
+            <v>火</v>
           </cell>
           <cell r="AF107" t="str">
             <v>Y</v>
           </cell>
           <cell r="AG107">
-            <v>200</v>
+            <v>206</v>
           </cell>
           <cell r="AH107" t="str">
             <v>D</v>
@@ -2126,16 +2127,16 @@
         </row>
         <row r="108">
           <cell r="AD108" t="str">
-            <v>仙子伊布</v>
+            <v>太陽伊布</v>
           </cell>
           <cell r="AE108" t="str">
-            <v>妖精</v>
+            <v>超能力</v>
           </cell>
           <cell r="AF108" t="str">
             <v>Y</v>
           </cell>
           <cell r="AG108">
-            <v>172</v>
+            <v>218</v>
           </cell>
           <cell r="AH108" t="str">
             <v>D</v>
@@ -2143,16 +2144,16 @@
         </row>
         <row r="109">
           <cell r="AD109" t="str">
-            <v>艾路雷朵</v>
+            <v>月亮伊布</v>
           </cell>
           <cell r="AE109" t="str">
-            <v>格鬥</v>
+            <v>惡</v>
           </cell>
           <cell r="AF109" t="str">
             <v>Y</v>
           </cell>
           <cell r="AG109">
-            <v>199</v>
+            <v>111</v>
           </cell>
           <cell r="AH109" t="str">
             <v>D</v>
@@ -2160,16 +2161,16 @@
         </row>
         <row r="110">
           <cell r="AD110" t="str">
-            <v>艾路雷朵</v>
+            <v>葉伊布</v>
           </cell>
           <cell r="AE110" t="str">
-            <v>超能力</v>
+            <v>草</v>
           </cell>
           <cell r="AF110" t="str">
             <v>Y</v>
           </cell>
           <cell r="AG110">
-            <v>199</v>
+            <v>183</v>
           </cell>
           <cell r="AH110" t="str">
             <v>D</v>
@@ -2177,16 +2178,16 @@
         </row>
         <row r="111">
           <cell r="AD111" t="str">
-            <v>艾路雷朵</v>
+            <v>冰伊布</v>
           </cell>
           <cell r="AE111" t="str">
-            <v>妖精</v>
+            <v>冰</v>
           </cell>
           <cell r="AF111" t="str">
-            <v>N</v>
+            <v>Y</v>
           </cell>
           <cell r="AG111">
-            <v>199</v>
+            <v>200</v>
           </cell>
           <cell r="AH111" t="str">
             <v>D</v>
@@ -2194,16 +2195,16 @@
         </row>
         <row r="112">
           <cell r="AD112" t="str">
-            <v>烏賊王</v>
+            <v>仙子伊布</v>
           </cell>
           <cell r="AE112" t="str">
-            <v>超能力</v>
+            <v>妖精</v>
           </cell>
           <cell r="AF112" t="str">
             <v>Y</v>
           </cell>
           <cell r="AG112">
-            <v>151</v>
+            <v>172</v>
           </cell>
           <cell r="AH112" t="str">
             <v>D</v>
@@ -2211,16 +2212,16 @@
         </row>
         <row r="113">
           <cell r="AD113" t="str">
-            <v>烏賊王</v>
+            <v>艾路雷朵</v>
           </cell>
           <cell r="AE113" t="str">
-            <v>飛行</v>
+            <v>格鬥</v>
           </cell>
           <cell r="AF113" t="str">
-            <v>N</v>
+            <v>Y</v>
           </cell>
           <cell r="AG113">
-            <v>151</v>
+            <v>199</v>
           </cell>
           <cell r="AH113" t="str">
             <v>D</v>
@@ -2228,33 +2229,33 @@
         </row>
         <row r="114">
           <cell r="AD114" t="str">
-            <v>超極巨灰塵山</v>
+            <v>艾路雷朵</v>
           </cell>
           <cell r="AE114" t="str">
-            <v>毒</v>
+            <v>超能力</v>
           </cell>
           <cell r="AF114" t="str">
             <v>Y</v>
           </cell>
           <cell r="AG114">
-            <v>155</v>
+            <v>199</v>
           </cell>
           <cell r="AH114" t="str">
-            <v>G</v>
+            <v>D</v>
           </cell>
         </row>
         <row r="115">
           <cell r="AD115" t="str">
-            <v>洛奇亞</v>
+            <v>艾路雷朵</v>
           </cell>
           <cell r="AE115" t="str">
-            <v>超能力</v>
+            <v>妖精</v>
           </cell>
           <cell r="AF115" t="str">
-            <v>Y</v>
+            <v>N</v>
           </cell>
           <cell r="AG115">
-            <v>164</v>
+            <v>199</v>
           </cell>
           <cell r="AH115" t="str">
             <v>D</v>
@@ -2262,16 +2263,16 @@
         </row>
         <row r="116">
           <cell r="AD116" t="str">
-            <v>洛奇亞</v>
+            <v>烏賊王</v>
           </cell>
           <cell r="AE116" t="str">
-            <v>龍</v>
+            <v>超能力</v>
           </cell>
           <cell r="AF116" t="str">
-            <v>N</v>
+            <v>Y</v>
           </cell>
           <cell r="AG116">
-            <v>164</v>
+            <v>151</v>
           </cell>
           <cell r="AH116" t="str">
             <v>D</v>
@@ -2279,16 +2280,16 @@
         </row>
         <row r="117">
           <cell r="AD117" t="str">
-            <v>飛腿郎</v>
+            <v>烏賊王</v>
           </cell>
           <cell r="AE117" t="str">
-            <v>格鬥</v>
+            <v>飛行</v>
           </cell>
           <cell r="AF117" t="str">
-            <v>Y</v>
+            <v>N</v>
           </cell>
           <cell r="AG117">
-            <v>189</v>
+            <v>151</v>
           </cell>
           <cell r="AH117" t="str">
             <v>D</v>
@@ -2296,10 +2297,10 @@
         </row>
         <row r="118">
           <cell r="AD118" t="str">
-            <v>快拳郎</v>
+            <v>洛奇亞</v>
           </cell>
           <cell r="AE118" t="str">
-            <v>格鬥</v>
+            <v>超能力</v>
           </cell>
           <cell r="AF118" t="str">
             <v>Y</v>
@@ -2313,10 +2314,10 @@
         </row>
         <row r="119">
           <cell r="AD119" t="str">
-            <v>快拳郎</v>
+            <v>洛奇亞</v>
           </cell>
           <cell r="AE119" t="str">
-            <v>鋼</v>
+            <v>龍</v>
           </cell>
           <cell r="AF119" t="str">
             <v>N</v>
@@ -2330,16 +2331,16 @@
         </row>
         <row r="120">
           <cell r="AD120" t="str">
-            <v>帝牙海獅</v>
+            <v>飛腿郎</v>
           </cell>
           <cell r="AE120" t="str">
-            <v>水</v>
+            <v>格鬥</v>
           </cell>
           <cell r="AF120" t="str">
             <v>Y</v>
           </cell>
           <cell r="AG120">
-            <v>156</v>
+            <v>189</v>
           </cell>
           <cell r="AH120" t="str">
             <v>D</v>
@@ -2347,16 +2348,16 @@
         </row>
         <row r="121">
           <cell r="AD121" t="str">
-            <v>帝牙海獅</v>
+            <v>快拳郎</v>
           </cell>
           <cell r="AE121" t="str">
-            <v>冰</v>
+            <v>格鬥</v>
           </cell>
           <cell r="AF121" t="str">
             <v>Y</v>
           </cell>
           <cell r="AG121">
-            <v>156</v>
+            <v>164</v>
           </cell>
           <cell r="AH121" t="str">
             <v>D</v>
@@ -2364,16 +2365,16 @@
         </row>
         <row r="122">
           <cell r="AD122" t="str">
-            <v>龐岩怪</v>
+            <v>快拳郎</v>
           </cell>
           <cell r="AE122" t="str">
-            <v>岩石</v>
+            <v>鋼</v>
           </cell>
           <cell r="AF122" t="str">
-            <v>Y</v>
+            <v>N</v>
           </cell>
           <cell r="AG122">
-            <v>190</v>
+            <v>164</v>
           </cell>
           <cell r="AH122" t="str">
             <v>D</v>
@@ -2381,16 +2382,16 @@
         </row>
         <row r="123">
           <cell r="AD123" t="str">
-            <v>龐岩怪</v>
+            <v>帝牙海獅</v>
           </cell>
           <cell r="AE123" t="str">
-            <v>地面</v>
+            <v>水</v>
           </cell>
           <cell r="AF123" t="str">
-            <v>N</v>
+            <v>Y</v>
           </cell>
           <cell r="AG123">
-            <v>190</v>
+            <v>156</v>
           </cell>
           <cell r="AH123" t="str">
             <v>D</v>
@@ -2398,16 +2399,16 @@
         </row>
         <row r="124">
           <cell r="AD124" t="str">
-            <v>老翁龍</v>
+            <v>帝牙海獅</v>
           </cell>
           <cell r="AE124" t="str">
-            <v>龍</v>
+            <v>冰</v>
           </cell>
           <cell r="AF124" t="str">
             <v>Y</v>
           </cell>
           <cell r="AG124">
-            <v>194</v>
+            <v>156</v>
           </cell>
           <cell r="AH124" t="str">
             <v>D</v>
@@ -2415,16 +2416,16 @@
         </row>
         <row r="125">
           <cell r="AD125" t="str">
-            <v>老翁龍</v>
+            <v>龐岩怪</v>
           </cell>
           <cell r="AE125" t="str">
-            <v>一般</v>
+            <v>岩石</v>
           </cell>
           <cell r="AF125" t="str">
-            <v>N</v>
+            <v>Y</v>
           </cell>
           <cell r="AG125">
-            <v>194</v>
+            <v>190</v>
           </cell>
           <cell r="AH125" t="str">
             <v>D</v>
@@ -2435,6 +2436,7 @@
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2705,15 +2707,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AB150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="J84" sqref="J84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:28" x14ac:dyDescent="0.3">
@@ -2798,10 +2800,10 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="2:28" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:28" ht="17" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="str">
         <f>[1]攻守數據!AD3</f>
-        <v>轟擂金剛猩</v>
+        <v>超極巨轟擂金剛猩</v>
       </c>
       <c r="C2" s="1" t="str">
         <f>[1]攻守數據!AE3</f>
@@ -2883,11 +2885,11 @@
     <row r="3" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="str">
         <f>[1]攻守數據!AD4</f>
-        <v>怪力</v>
+        <v>轟擂金剛猩</v>
       </c>
       <c r="C3" s="1" t="str">
         <f>[1]攻守數據!AE4</f>
-        <v>格鬥</v>
+        <v>草</v>
       </c>
       <c r="D3" s="1" t="str">
         <f>[1]攻守數據!AF4</f>
@@ -2895,11 +2897,11 @@
       </c>
       <c r="E3" s="1">
         <f>[1]攻守數據!AG4</f>
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F3" s="1" t="str">
         <f>[1]攻守數據!AH4</f>
-        <v>G</v>
+        <v>D</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>17</v>
@@ -2962,14 +2964,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:28" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:28" ht="17" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="str">
         <f>[1]攻守數據!AD5</f>
-        <v>戰弦蠑螈</v>
+        <v>超極巨怪力</v>
       </c>
       <c r="C4" s="1" t="str">
         <f>[1]攻守數據!AE5</f>
-        <v>電</v>
+        <v>格鬥</v>
       </c>
       <c r="D4" s="1" t="str">
         <f>[1]攻守數據!AF5</f>
@@ -2977,7 +2979,7 @@
       </c>
       <c r="E4" s="1">
         <f>[1]攻守數據!AG5</f>
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="F4" s="1" t="str">
         <f>[1]攻守數據!AH5</f>
@@ -3047,23 +3049,23 @@
     <row r="5" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="str">
         <f>[1]攻守數據!AD6</f>
-        <v>妙蛙花</v>
+        <v>怪力</v>
       </c>
       <c r="C5" s="1" t="str">
         <f>[1]攻守數據!AE6</f>
-        <v>草</v>
+        <v>鋼</v>
       </c>
       <c r="D5" s="1" t="str">
         <f>[1]攻守數據!AF6</f>
-        <v>Y</v>
+        <v>N</v>
       </c>
       <c r="E5" s="1">
         <f>[1]攻守數據!AG6</f>
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="F5" s="1" t="str">
         <f>[1]攻守數據!AH6</f>
-        <v>G</v>
+        <v>D</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>12</v>
@@ -3129,7 +3131,7 @@
     <row r="6" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="str">
         <f>[1]攻守數據!AD7</f>
-        <v>武道熊師(連)</v>
+        <v>怪力</v>
       </c>
       <c r="C6" s="1" t="str">
         <f>[1]攻守數據!AE7</f>
@@ -3141,7 +3143,7 @@
       </c>
       <c r="E6" s="1">
         <f>[1]攻守數據!AG7</f>
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="F6" s="1" t="str">
         <f>[1]攻守數據!AH7</f>
@@ -3211,7 +3213,7 @@
     <row r="7" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="str">
         <f>[1]攻守數據!AD8</f>
-        <v>閃電鳥</v>
+        <v>超極巨顫弦蠑螈</v>
       </c>
       <c r="C7" s="1" t="str">
         <f>[1]攻守數據!AE8</f>
@@ -3223,11 +3225,11 @@
       </c>
       <c r="E7" s="1">
         <f>[1]攻守數據!AG8</f>
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="F7" s="1" t="str">
         <f>[1]攻守數據!AH8</f>
-        <v>D</v>
+        <v>G</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>0</v>
@@ -3290,10 +3292,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:28" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:28" ht="17" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="str">
         <f>[1]攻守數據!AD9</f>
-        <v>雷公</v>
+        <v>顫弦蠑螈</v>
       </c>
       <c r="C8" s="1" t="str">
         <f>[1]攻守數據!AE9</f>
@@ -3305,7 +3307,7 @@
       </c>
       <c r="E8" s="1">
         <f>[1]攻守數據!AG9</f>
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="F8" s="1" t="str">
         <f>[1]攻守數據!AH9</f>
@@ -3372,14 +3374,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:28" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:28" ht="17" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="str">
         <f>[1]攻守數據!AD10</f>
-        <v>轟擂金剛猩</v>
+        <v>顫弦蠑螈</v>
       </c>
       <c r="C9" s="1" t="str">
         <f>[1]攻守數據!AE10</f>
-        <v>草</v>
+        <v>毒</v>
       </c>
       <c r="D9" s="1" t="str">
         <f>[1]攻守數據!AF10</f>
@@ -3387,7 +3389,7 @@
       </c>
       <c r="E9" s="1">
         <f>[1]攻守數據!AG10</f>
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="F9" s="1" t="str">
         <f>[1]攻守數據!AH10</f>
@@ -3454,14 +3456,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:28" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:28" ht="17" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="str">
         <f>[1]攻守數據!AD11</f>
-        <v>怪力</v>
+        <v>超極巨妙蛙花</v>
       </c>
       <c r="C10" s="1" t="str">
         <f>[1]攻守數據!AE11</f>
-        <v>格鬥</v>
+        <v>草</v>
       </c>
       <c r="D10" s="1" t="str">
         <f>[1]攻守數據!AF11</f>
@@ -3469,11 +3471,11 @@
       </c>
       <c r="E10" s="1">
         <f>[1]攻守數據!AG11</f>
-        <v>201</v>
+        <v>159</v>
       </c>
       <c r="F10" s="1" t="str">
         <f>[1]攻守數據!AH11</f>
-        <v>D</v>
+        <v>G</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>18</v>
@@ -3536,14 +3538,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:28" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:28" ht="17" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="str">
         <f>[1]攻守數據!AD12</f>
-        <v>戰弦蠑螈</v>
+        <v>妙蛙花</v>
       </c>
       <c r="C11" s="1" t="str">
         <f>[1]攻守數據!AE12</f>
-        <v>電</v>
+        <v>草</v>
       </c>
       <c r="D11" s="1" t="str">
         <f>[1]攻守數據!AF12</f>
@@ -3551,7 +3553,7 @@
       </c>
       <c r="E11" s="1">
         <f>[1]攻守數據!AG12</f>
-        <v>188</v>
+        <v>159</v>
       </c>
       <c r="F11" s="1" t="str">
         <f>[1]攻守數據!AH12</f>
@@ -3621,7 +3623,7 @@
     <row r="12" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="str">
         <f>[1]攻守數據!AD13</f>
-        <v>投擲猴</v>
+        <v>武道熊師(一)</v>
       </c>
       <c r="C12" s="1" t="str">
         <f>[1]攻守數據!AE13</f>
@@ -3633,7 +3635,7 @@
       </c>
       <c r="E12" s="1">
         <f>[1]攻守數據!AG13</f>
-        <v>181</v>
+        <v>210</v>
       </c>
       <c r="F12" s="1" t="str">
         <f>[1]攻守數據!AH13</f>
@@ -3703,11 +3705,11 @@
     <row r="13" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="str">
         <f>[1]攻守數據!AD14</f>
-        <v>耿鬼</v>
+        <v>武道熊師(連)</v>
       </c>
       <c r="C13" s="1" t="str">
         <f>[1]攻守數據!AE14</f>
-        <v>幽靈</v>
+        <v>水</v>
       </c>
       <c r="D13" s="1" t="str">
         <f>[1]攻守數據!AF14</f>
@@ -3715,11 +3717,11 @@
       </c>
       <c r="E13" s="1">
         <f>[1]攻守數據!AG14</f>
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="F13" s="1" t="str">
         <f>[1]攻守數據!AH14</f>
-        <v>G</v>
+        <v>D</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>13</v>
@@ -3785,11 +3787,11 @@
     <row r="14" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="str">
         <f>[1]攻守數據!AD15</f>
-        <v>蒼響</v>
+        <v>閃電鳥</v>
       </c>
       <c r="C14" s="1" t="str">
         <f>[1]攻守數據!AE15</f>
-        <v>鋼</v>
+        <v>電</v>
       </c>
       <c r="D14" s="1" t="str">
         <f>[1]攻守數據!AF15</f>
@@ -3797,7 +3799,7 @@
       </c>
       <c r="E14" s="1">
         <f>[1]攻守數據!AG15</f>
-        <v>291</v>
+        <v>203</v>
       </c>
       <c r="F14" s="1" t="str">
         <f>[1]攻守數據!AH15</f>
@@ -3864,14 +3866,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:28" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:28" ht="17" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="str">
         <f>[1]攻守數據!AD16</f>
-        <v>多刺菊石獸</v>
+        <v>雷公</v>
       </c>
       <c r="C15" s="1" t="str">
         <f>[1]攻守數據!AE16</f>
-        <v>岩石</v>
+        <v>電</v>
       </c>
       <c r="D15" s="1" t="str">
         <f>[1]攻守數據!AF16</f>
@@ -3879,7 +3881,7 @@
       </c>
       <c r="E15" s="1">
         <f>[1]攻守數據!AG16</f>
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="F15" s="1" t="str">
         <f>[1]攻守數據!AH16</f>
@@ -3946,14 +3948,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:28" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:28" ht="17" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="str">
         <f>[1]攻守數據!AD17</f>
-        <v>妙蛙花</v>
+        <v>投擲猴</v>
       </c>
       <c r="C16" s="1" t="str">
         <f>[1]攻守數據!AE17</f>
-        <v>草</v>
+        <v>格鬥</v>
       </c>
       <c r="D16" s="1" t="str">
         <f>[1]攻守數據!AF17</f>
@@ -3961,7 +3963,7 @@
       </c>
       <c r="E16" s="1">
         <f>[1]攻守數據!AG17</f>
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="F16" s="1" t="str">
         <f>[1]攻守數據!AH17</f>
@@ -4031,11 +4033,11 @@
     <row r="17" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="str">
         <f>[1]攻守數據!AD18</f>
-        <v>列陣兵</v>
+        <v>超極巨耿鬼</v>
       </c>
       <c r="C17" s="1" t="str">
         <f>[1]攻守數據!AE18</f>
-        <v>格鬥</v>
+        <v>幽靈</v>
       </c>
       <c r="D17" s="1" t="str">
         <f>[1]攻守數據!AF18</f>
@@ -4043,11 +4045,11 @@
       </c>
       <c r="E17" s="1">
         <f>[1]攻守數據!AG18</f>
-        <v>160</v>
+        <v>223</v>
       </c>
       <c r="F17" s="1" t="str">
         <f>[1]攻守數據!AH18</f>
-        <v>D</v>
+        <v>G</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>7</v>
@@ -4113,23 +4115,23 @@
     <row r="18" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="str">
         <f>[1]攻守數據!AD19</f>
-        <v>閃焰王牌</v>
+        <v>耿鬼</v>
       </c>
       <c r="C18" s="1" t="str">
         <f>[1]攻守數據!AE19</f>
-        <v>火</v>
+        <v>惡</v>
       </c>
       <c r="D18" s="1" t="str">
         <f>[1]攻守數據!AF19</f>
-        <v>Y</v>
+        <v>N</v>
       </c>
       <c r="E18" s="1">
         <f>[1]攻守數據!AG19</f>
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="F18" s="1" t="str">
         <f>[1]攻守數據!AH19</f>
-        <v>G</v>
+        <v>D</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>4</v>
@@ -4195,19 +4197,19 @@
     <row r="19" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="str">
         <f>[1]攻守數據!AD20</f>
-        <v>鐮刀盔</v>
+        <v>耿鬼</v>
       </c>
       <c r="C19" s="1" t="str">
         <f>[1]攻守數據!AE20</f>
-        <v>格鬥</v>
+        <v>幽靈</v>
       </c>
       <c r="D19" s="1" t="str">
         <f>[1]攻守數據!AF20</f>
-        <v>N</v>
+        <v>Y</v>
       </c>
       <c r="E19" s="1">
         <f>[1]攻守數據!AG20</f>
-        <v>185</v>
+        <v>223</v>
       </c>
       <c r="F19" s="1" t="str">
         <f>[1]攻守數據!AH20</f>
@@ -4277,11 +4279,11 @@
     <row r="20" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="str">
         <f>[1]攻守數據!AD21</f>
-        <v>噴火龍</v>
+        <v>蒼響</v>
       </c>
       <c r="C20" s="1" t="str">
         <f>[1]攻守數據!AE21</f>
-        <v>火</v>
+        <v>鋼</v>
       </c>
       <c r="D20" s="1" t="str">
         <f>[1]攻守數據!AF21</f>
@@ -4289,11 +4291,11 @@
       </c>
       <c r="E20" s="1">
         <f>[1]攻守數據!AG21</f>
-        <v>187</v>
+        <v>291</v>
       </c>
       <c r="F20" s="1" t="str">
         <f>[1]攻守數據!AH21</f>
-        <v>G</v>
+        <v>D</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>19</v>
@@ -4359,11 +4361,11 @@
     <row r="21" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="str">
         <f>[1]攻守數據!AD22</f>
-        <v>無極汰那</v>
+        <v>多刺菊石獸</v>
       </c>
       <c r="C21" s="1" t="str">
         <f>[1]攻守數據!AE22</f>
-        <v>龍</v>
+        <v>岩石</v>
       </c>
       <c r="D21" s="1" t="str">
         <f>[1]攻守數據!AF22</f>
@@ -4371,21 +4373,21 @@
       </c>
       <c r="E21" s="1">
         <f>[1]攻守數據!AG22</f>
-        <v>229</v>
+        <v>177</v>
       </c>
       <c r="F21" s="1" t="str">
         <f>[1]攻守數據!AH22</f>
-        <v>G</v>
+        <v>D</v>
       </c>
     </row>
     <row r="22" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="str">
         <f>[1]攻守數據!AD23</f>
-        <v>拉帝歐斯</v>
+        <v>妙蛙花</v>
       </c>
       <c r="C22" s="1" t="str">
         <f>[1]攻守數據!AE23</f>
-        <v>超能力</v>
+        <v>草</v>
       </c>
       <c r="D22" s="1" t="str">
         <f>[1]攻守數據!AF23</f>
@@ -4393,7 +4395,7 @@
       </c>
       <c r="E22" s="1">
         <f>[1]攻守數據!AG23</f>
-        <v>221</v>
+        <v>159</v>
       </c>
       <c r="F22" s="1" t="str">
         <f>[1]攻守數據!AH23</f>
@@ -4403,11 +4405,11 @@
     <row r="23" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="str">
         <f>[1]攻守數據!AD24</f>
-        <v>拉帝歐斯</v>
+        <v>列陣兵</v>
       </c>
       <c r="C23" s="1" t="str">
         <f>[1]攻守數據!AE24</f>
-        <v>龍</v>
+        <v>格鬥</v>
       </c>
       <c r="D23" s="1" t="str">
         <f>[1]攻守數據!AF24</f>
@@ -4415,7 +4417,7 @@
       </c>
       <c r="E23" s="1">
         <f>[1]攻守數據!AG24</f>
-        <v>221</v>
+        <v>160</v>
       </c>
       <c r="F23" s="1" t="str">
         <f>[1]攻守數據!AH24</f>
@@ -4425,7 +4427,7 @@
     <row r="24" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="str">
         <f>[1]攻守數據!AD25</f>
-        <v>狒狒達摩</v>
+        <v>超極巨閃焰王牌</v>
       </c>
       <c r="C24" s="1" t="str">
         <f>[1]攻守數據!AE25</f>
@@ -4437,21 +4439,21 @@
       </c>
       <c r="E24" s="1">
         <f>[1]攻守數據!AG25</f>
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="F24" s="1" t="str">
         <f>[1]攻守數據!AH25</f>
-        <v>D</v>
+        <v>G</v>
       </c>
     </row>
     <row r="25" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="str">
         <f>[1]攻守數據!AD26</f>
-        <v>耿鬼</v>
+        <v>閃焰王牌</v>
       </c>
       <c r="C25" s="1" t="str">
         <f>[1]攻守數據!AE26</f>
-        <v>幽靈</v>
+        <v>火</v>
       </c>
       <c r="D25" s="1" t="str">
         <f>[1]攻守數據!AF26</f>
@@ -4459,7 +4461,7 @@
       </c>
       <c r="E25" s="1">
         <f>[1]攻守數據!AG26</f>
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="F25" s="1" t="str">
         <f>[1]攻守數據!AH26</f>
@@ -4469,19 +4471,19 @@
     <row r="26" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="str">
         <f>[1]攻守數據!AD27</f>
-        <v>巨金怪</v>
+        <v>鐮刀盔</v>
       </c>
       <c r="C26" s="1" t="str">
         <f>[1]攻守數據!AE27</f>
-        <v>超能力</v>
+        <v>格鬥</v>
       </c>
       <c r="D26" s="1" t="str">
         <f>[1]攻守數據!AF27</f>
-        <v>Y</v>
+        <v>N</v>
       </c>
       <c r="E26" s="1">
         <f>[1]攻守數據!AG27</f>
-        <v>214</v>
+        <v>185</v>
       </c>
       <c r="F26" s="1" t="str">
         <f>[1]攻守數據!AH27</f>
@@ -4491,11 +4493,11 @@
     <row r="27" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="str">
         <f>[1]攻守數據!AD28</f>
-        <v>巨金怪</v>
+        <v>超極巨噴火龍</v>
       </c>
       <c r="C27" s="1" t="str">
         <f>[1]攻守數據!AE28</f>
-        <v>鋼</v>
+        <v>火</v>
       </c>
       <c r="D27" s="1" t="str">
         <f>[1]攻守數據!AF28</f>
@@ -4503,21 +4505,21 @@
       </c>
       <c r="E27" s="1">
         <f>[1]攻守數據!AG28</f>
-        <v>214</v>
+        <v>187</v>
       </c>
       <c r="F27" s="1" t="str">
         <f>[1]攻守數據!AH28</f>
-        <v>D</v>
+        <v>G</v>
       </c>
     </row>
     <row r="28" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="str">
         <f>[1]攻守數據!AD29</f>
-        <v>龍頭地鼠</v>
+        <v>噴火龍</v>
       </c>
       <c r="C28" s="1" t="str">
         <f>[1]攻守數據!AE29</f>
-        <v>地面</v>
+        <v>飛行</v>
       </c>
       <c r="D28" s="1" t="str">
         <f>[1]攻守數據!AF29</f>
@@ -4525,7 +4527,7 @@
       </c>
       <c r="E28" s="1">
         <f>[1]攻守數據!AG29</f>
-        <v>217</v>
+        <v>187</v>
       </c>
       <c r="F28" s="1" t="str">
         <f>[1]攻守數據!AH29</f>
@@ -4535,11 +4537,11 @@
     <row r="29" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="str">
         <f>[1]攻守數據!AD30</f>
-        <v>龍頭地鼠</v>
+        <v>噴火龍</v>
       </c>
       <c r="C29" s="1" t="str">
         <f>[1]攻守數據!AE30</f>
-        <v>鋼</v>
+        <v>火</v>
       </c>
       <c r="D29" s="1" t="str">
         <f>[1]攻守數據!AF30</f>
@@ -4547,7 +4549,7 @@
       </c>
       <c r="E29" s="1">
         <f>[1]攻守數據!AG30</f>
-        <v>217</v>
+        <v>187</v>
       </c>
       <c r="F29" s="1" t="str">
         <f>[1]攻守數據!AH30</f>
@@ -4557,19 +4559,19 @@
     <row r="30" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="str">
         <f>[1]攻守數據!AD31</f>
-        <v>武道熊師(一)</v>
+        <v>噴火龍</v>
       </c>
       <c r="C30" s="1" t="str">
         <f>[1]攻守數據!AE31</f>
-        <v>惡</v>
+        <v>龍</v>
       </c>
       <c r="D30" s="1" t="str">
         <f>[1]攻守數據!AF31</f>
-        <v>Y</v>
+        <v>N</v>
       </c>
       <c r="E30" s="1">
         <f>[1]攻守數據!AG31</f>
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="F30" s="1" t="str">
         <f>[1]攻守數據!AH31</f>
@@ -4579,11 +4581,11 @@
     <row r="31" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="str">
         <f>[1]攻守數據!AD32</f>
-        <v>閃電鳥</v>
+        <v>無極汰那</v>
       </c>
       <c r="C31" s="1" t="str">
         <f>[1]攻守數據!AE32</f>
-        <v>飛行</v>
+        <v>龍</v>
       </c>
       <c r="D31" s="1" t="str">
         <f>[1]攻守數據!AF32</f>
@@ -4591,21 +4593,21 @@
       </c>
       <c r="E31" s="1">
         <f>[1]攻守數據!AG32</f>
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="F31" s="1" t="str">
         <f>[1]攻守數據!AH32</f>
-        <v>D</v>
+        <v>G</v>
       </c>
     </row>
     <row r="32" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="str">
         <f>[1]攻守數據!AD33</f>
-        <v>火焰鳥</v>
+        <v>拉帝歐斯</v>
       </c>
       <c r="C32" s="1" t="str">
         <f>[1]攻守數據!AE33</f>
-        <v>飛行</v>
+        <v>超能力</v>
       </c>
       <c r="D32" s="1" t="str">
         <f>[1]攻守數據!AF33</f>
@@ -4613,7 +4615,7 @@
       </c>
       <c r="E32" s="1">
         <f>[1]攻守數據!AG33</f>
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="F32" s="1" t="str">
         <f>[1]攻守數據!AH33</f>
@@ -4623,11 +4625,11 @@
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="str">
         <f>[1]攻守數據!AD34</f>
-        <v>火焰鳥</v>
+        <v>拉帝歐斯</v>
       </c>
       <c r="C33" s="1" t="str">
         <f>[1]攻守數據!AE34</f>
-        <v>火</v>
+        <v>龍</v>
       </c>
       <c r="D33" s="1" t="str">
         <f>[1]攻守數據!AF34</f>
@@ -4635,7 +4637,7 @@
       </c>
       <c r="E33" s="1">
         <f>[1]攻守數據!AG34</f>
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="F33" s="1" t="str">
         <f>[1]攻守數據!AH34</f>
@@ -4645,11 +4647,11 @@
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="str">
         <f>[1]攻守數據!AD35</f>
-        <v>藏瑪然特</v>
+        <v>狒狒達摩</v>
       </c>
       <c r="C34" s="1" t="str">
         <f>[1]攻守數據!AE35</f>
-        <v>鋼</v>
+        <v>火</v>
       </c>
       <c r="D34" s="1" t="str">
         <f>[1]攻守數據!AF35</f>
@@ -4667,11 +4669,11 @@
     <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="str">
         <f>[1]攻守數據!AD36</f>
-        <v>炎帝</v>
+        <v>巨金怪</v>
       </c>
       <c r="C35" s="1" t="str">
         <f>[1]攻守數據!AE36</f>
-        <v>火</v>
+        <v>超能力</v>
       </c>
       <c r="D35" s="1" t="str">
         <f>[1]攻守數據!AF36</f>
@@ -4679,7 +4681,7 @@
       </c>
       <c r="E35" s="1">
         <f>[1]攻守數據!AG36</f>
-        <v>175</v>
+        <v>214</v>
       </c>
       <c r="F35" s="1" t="str">
         <f>[1]攻守數據!AH36</f>
@@ -4689,11 +4691,11 @@
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="str">
         <f>[1]攻守數據!AD37</f>
-        <v>閃焰王牌</v>
+        <v>巨金怪</v>
       </c>
       <c r="C36" s="1" t="str">
         <f>[1]攻守數據!AE37</f>
-        <v>火</v>
+        <v>鋼</v>
       </c>
       <c r="D36" s="1" t="str">
         <f>[1]攻守數據!AF37</f>
@@ -4701,7 +4703,7 @@
       </c>
       <c r="E36" s="1">
         <f>[1]攻守數據!AG37</f>
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="F36" s="1" t="str">
         <f>[1]攻守數據!AH37</f>
@@ -4711,19 +4713,19 @@
     <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="str">
         <f>[1]攻守數據!AD38</f>
-        <v>布莉姆溫</v>
+        <v>巨金怪</v>
       </c>
       <c r="C37" s="1" t="str">
         <f>[1]攻守數據!AE38</f>
-        <v>超能力</v>
+        <v>蟲</v>
       </c>
       <c r="D37" s="1" t="str">
         <f>[1]攻守數據!AF38</f>
-        <v>Y</v>
+        <v>N</v>
       </c>
       <c r="E37" s="1">
         <f>[1]攻守數據!AG38</f>
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="F37" s="1" t="str">
         <f>[1]攻守數據!AH38</f>
@@ -4733,11 +4735,11 @@
     <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B38" s="1" t="str">
         <f>[1]攻守數據!AD39</f>
-        <v>布莉姆溫</v>
+        <v>龍頭地鼠</v>
       </c>
       <c r="C38" s="1" t="str">
         <f>[1]攻守數據!AE39</f>
-        <v>妖精</v>
+        <v>地面</v>
       </c>
       <c r="D38" s="1" t="str">
         <f>[1]攻守數據!AF39</f>
@@ -4745,7 +4747,7 @@
       </c>
       <c r="E38" s="1">
         <f>[1]攻守數據!AG39</f>
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="F38" s="1" t="str">
         <f>[1]攻守數據!AH39</f>
@@ -4755,19 +4757,19 @@
     <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39" s="1" t="str">
         <f>[1]攻守數據!AD40</f>
-        <v>吼鯨王</v>
+        <v>龍頭地鼠</v>
       </c>
       <c r="C39" s="1" t="str">
         <f>[1]攻守數據!AE40</f>
-        <v>岩石</v>
+        <v>鋼</v>
       </c>
       <c r="D39" s="1" t="str">
         <f>[1]攻守數據!AF40</f>
-        <v>N</v>
+        <v>Y</v>
       </c>
       <c r="E39" s="1">
         <f>[1]攻守數據!AG40</f>
-        <v>147</v>
+        <v>217</v>
       </c>
       <c r="F39" s="1" t="str">
         <f>[1]攻守數據!AH40</f>
@@ -4777,11 +4779,11 @@
     <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="str">
         <f>[1]攻守數據!AD41</f>
-        <v>拉帝亞斯</v>
+        <v>武道熊師(一)</v>
       </c>
       <c r="C40" s="1" t="str">
         <f>[1]攻守數據!AE41</f>
-        <v>超能力</v>
+        <v>惡</v>
       </c>
       <c r="D40" s="1" t="str">
         <f>[1]攻守數據!AF41</f>
@@ -4789,7 +4791,7 @@
       </c>
       <c r="E40" s="1">
         <f>[1]攻守數據!AG41</f>
-        <v>158</v>
+        <v>210</v>
       </c>
       <c r="F40" s="1" t="str">
         <f>[1]攻守數據!AH41</f>
@@ -4799,11 +4801,11 @@
     <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="str">
         <f>[1]攻守數據!AD42</f>
-        <v>拉帝亞斯</v>
+        <v>閃電鳥</v>
       </c>
       <c r="C41" s="1" t="str">
         <f>[1]攻守數據!AE42</f>
-        <v>龍</v>
+        <v>飛行</v>
       </c>
       <c r="D41" s="1" t="str">
         <f>[1]攻守數據!AF42</f>
@@ -4811,7 +4813,7 @@
       </c>
       <c r="E41" s="1">
         <f>[1]攻守數據!AG42</f>
-        <v>158</v>
+        <v>203</v>
       </c>
       <c r="F41" s="1" t="str">
         <f>[1]攻守數據!AH42</f>
@@ -4821,19 +4823,19 @@
     <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B42" s="1" t="str">
         <f>[1]攻守數據!AD43</f>
-        <v>水箭龜</v>
+        <v>火焰鳥</v>
       </c>
       <c r="C42" s="1" t="str">
         <f>[1]攻守數據!AE43</f>
-        <v>岩石</v>
+        <v>飛行</v>
       </c>
       <c r="D42" s="1" t="str">
         <f>[1]攻守數據!AF43</f>
-        <v>N</v>
+        <v>Y</v>
       </c>
       <c r="E42" s="1">
         <f>[1]攻守數據!AG43</f>
-        <v>145</v>
+        <v>200</v>
       </c>
       <c r="F42" s="1" t="str">
         <f>[1]攻守數據!AH43</f>
@@ -4843,11 +4845,11 @@
     <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="str">
         <f>[1]攻守數據!AD44</f>
-        <v>高傲雉雞</v>
+        <v>火焰鳥</v>
       </c>
       <c r="C43" s="1" t="str">
         <f>[1]攻守數據!AE44</f>
-        <v>飛行</v>
+        <v>火</v>
       </c>
       <c r="D43" s="1" t="str">
         <f>[1]攻守數據!AF44</f>
@@ -4855,7 +4857,7 @@
       </c>
       <c r="E43" s="1">
         <f>[1]攻守數據!AG44</f>
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="F43" s="1" t="str">
         <f>[1]攻守數據!AH44</f>
@@ -4865,11 +4867,11 @@
     <row r="44" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B44" s="1" t="str">
         <f>[1]攻守數據!AD45</f>
-        <v>戰弦蠑螈</v>
+        <v>藏瑪然特</v>
       </c>
       <c r="C44" s="1" t="str">
         <f>[1]攻守數據!AE45</f>
-        <v>毒</v>
+        <v>鋼</v>
       </c>
       <c r="D44" s="1" t="str">
         <f>[1]攻守數據!AF45</f>
@@ -4877,7 +4879,7 @@
       </c>
       <c r="E44" s="1">
         <f>[1]攻守數據!AG45</f>
-        <v>188</v>
+        <v>218</v>
       </c>
       <c r="F44" s="1" t="str">
         <f>[1]攻守數據!AH45</f>
@@ -4887,11 +4889,11 @@
     <row r="45" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B45" s="1" t="str">
         <f>[1]攻守數據!AD46</f>
-        <v>噴火龍</v>
+        <v>炎帝</v>
       </c>
       <c r="C45" s="1" t="str">
         <f>[1]攻守數據!AE46</f>
-        <v>飛行</v>
+        <v>火</v>
       </c>
       <c r="D45" s="1" t="str">
         <f>[1]攻守數據!AF46</f>
@@ -4899,7 +4901,7 @@
       </c>
       <c r="E45" s="1">
         <f>[1]攻守數據!AG46</f>
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="F45" s="1" t="str">
         <f>[1]攻守數據!AH46</f>
@@ -4909,11 +4911,11 @@
     <row r="46" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B46" s="1" t="str">
         <f>[1]攻守數據!AD47</f>
-        <v>噴火龍</v>
+        <v>布莉姆溫</v>
       </c>
       <c r="C46" s="1" t="str">
         <f>[1]攻守數據!AE47</f>
-        <v>火</v>
+        <v>超能力</v>
       </c>
       <c r="D46" s="1" t="str">
         <f>[1]攻守數據!AF47</f>
@@ -4921,7 +4923,7 @@
       </c>
       <c r="E46" s="1">
         <f>[1]攻守數據!AG47</f>
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="F46" s="1" t="str">
         <f>[1]攻守數據!AH47</f>
@@ -4931,19 +4933,19 @@
     <row r="47" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B47" s="1" t="str">
         <f>[1]攻守數據!AD48</f>
-        <v>耿鬼</v>
+        <v>布莉姆溫</v>
       </c>
       <c r="C47" s="1" t="str">
         <f>[1]攻守數據!AE48</f>
-        <v>惡</v>
+        <v>妖精</v>
       </c>
       <c r="D47" s="1" t="str">
         <f>[1]攻守數據!AF48</f>
-        <v>N</v>
+        <v>Y</v>
       </c>
       <c r="E47" s="1">
         <f>[1]攻守數據!AG48</f>
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="F47" s="1" t="str">
         <f>[1]攻守數據!AH48</f>
@@ -4953,41 +4955,41 @@
     <row r="48" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B48" s="1" t="str">
         <f>[1]攻守數據!AD49</f>
-        <v>巴大蝶</v>
+        <v>吼鯨王</v>
       </c>
       <c r="C48" s="1" t="str">
         <f>[1]攻守數據!AE49</f>
-        <v>蟲</v>
+        <v>岩石</v>
       </c>
       <c r="D48" s="1" t="str">
         <f>[1]攻守數據!AF49</f>
-        <v>Y</v>
+        <v>N</v>
       </c>
       <c r="E48" s="1">
         <f>[1]攻守數據!AG49</f>
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F48" s="1" t="str">
         <f>[1]攻守數據!AH49</f>
-        <v>G</v>
+        <v>D</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B49" s="1" t="str">
         <f>[1]攻守數據!AD50</f>
-        <v>巨金怪</v>
+        <v>拉帝亞斯</v>
       </c>
       <c r="C49" s="1" t="str">
         <f>[1]攻守數據!AE50</f>
-        <v>蟲</v>
+        <v>超能力</v>
       </c>
       <c r="D49" s="1" t="str">
         <f>[1]攻守數據!AF50</f>
-        <v>N</v>
+        <v>Y</v>
       </c>
       <c r="E49" s="1">
         <f>[1]攻守數據!AG50</f>
-        <v>214</v>
+        <v>158</v>
       </c>
       <c r="F49" s="1" t="str">
         <f>[1]攻守數據!AH50</f>
@@ -4997,19 +4999,19 @@
     <row r="50" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B50" s="1" t="str">
         <f>[1]攻守數據!AD51</f>
-        <v>藏飽栗鼠</v>
+        <v>拉帝亞斯</v>
       </c>
       <c r="C50" s="1" t="str">
         <f>[1]攻守數據!AE51</f>
-        <v>草</v>
+        <v>龍</v>
       </c>
       <c r="D50" s="1" t="str">
         <f>[1]攻守數據!AF51</f>
-        <v>N</v>
+        <v>Y</v>
       </c>
       <c r="E50" s="1">
         <f>[1]攻守數據!AG51</f>
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="F50" s="1" t="str">
         <f>[1]攻守數據!AH51</f>
@@ -5019,19 +5021,19 @@
     <row r="51" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B51" s="1" t="str">
         <f>[1]攻守數據!AD52</f>
-        <v>毛毛角羊</v>
+        <v>高傲雉雞</v>
       </c>
       <c r="C51" s="1" t="str">
         <f>[1]攻守數據!AE52</f>
-        <v>格鬥</v>
+        <v>飛行</v>
       </c>
       <c r="D51" s="1" t="str">
         <f>[1]攻守數據!AF52</f>
-        <v>N</v>
+        <v>Y</v>
       </c>
       <c r="E51" s="1">
         <f>[1]攻守數據!AG52</f>
-        <v>136</v>
+        <v>188</v>
       </c>
       <c r="F51" s="1" t="str">
         <f>[1]攻守數據!AH52</f>
@@ -5041,11 +5043,11 @@
     <row r="52" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B52" s="1" t="str">
         <f>[1]攻守數據!AD53</f>
-        <v>千面避役</v>
+        <v>超極巨巴大蝶</v>
       </c>
       <c r="C52" s="1" t="str">
         <f>[1]攻守數據!AE53</f>
-        <v>水</v>
+        <v>蟲</v>
       </c>
       <c r="D52" s="1" t="str">
         <f>[1]攻守數據!AF53</f>
@@ -5053,7 +5055,7 @@
       </c>
       <c r="E52" s="1">
         <f>[1]攻守數據!AG53</f>
-        <v>217</v>
+        <v>143</v>
       </c>
       <c r="F52" s="1" t="str">
         <f>[1]攻守數據!AH53</f>
@@ -5063,19 +5065,19 @@
     <row r="53" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B53" s="1" t="str">
         <f>[1]攻守數據!AD54</f>
-        <v>巨鉗蟹</v>
+        <v>巴大蝶</v>
       </c>
       <c r="C53" s="1" t="str">
         <f>[1]攻守數據!AE54</f>
-        <v>地面</v>
+        <v>蟲</v>
       </c>
       <c r="D53" s="1" t="str">
         <f>[1]攻守數據!AF54</f>
-        <v>N</v>
+        <v>Y</v>
       </c>
       <c r="E53" s="1">
         <f>[1]攻守數據!AG54</f>
-        <v>198</v>
+        <v>143</v>
       </c>
       <c r="F53" s="1" t="str">
         <f>[1]攻守數據!AH54</f>
@@ -5085,11 +5087,11 @@
     <row r="54" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B54" s="1" t="str">
         <f>[1]攻守數據!AD55</f>
-        <v>巨鉗蟹</v>
+        <v>巴大蝶</v>
       </c>
       <c r="C54" s="1" t="str">
         <f>[1]攻守數據!AE55</f>
-        <v>鋼</v>
+        <v>超能力</v>
       </c>
       <c r="D54" s="1" t="str">
         <f>[1]攻守數據!AF55</f>
@@ -5097,7 +5099,7 @@
       </c>
       <c r="E54" s="1">
         <f>[1]攻守數據!AG55</f>
-        <v>198</v>
+        <v>143</v>
       </c>
       <c r="F54" s="1" t="str">
         <f>[1]攻守數據!AH55</f>
@@ -5107,11 +5109,11 @@
     <row r="55" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B55" s="1" t="str">
         <f>[1]攻守數據!AD56</f>
-        <v>怪力</v>
+        <v>藏飽栗鼠</v>
       </c>
       <c r="C55" s="1" t="str">
         <f>[1]攻守數據!AE56</f>
-        <v>鋼</v>
+        <v>草</v>
       </c>
       <c r="D55" s="1" t="str">
         <f>[1]攻守數據!AF56</f>
@@ -5119,7 +5121,7 @@
       </c>
       <c r="E55" s="1">
         <f>[1]攻守數據!AG56</f>
-        <v>201</v>
+        <v>138</v>
       </c>
       <c r="F55" s="1" t="str">
         <f>[1]攻守數據!AH56</f>
@@ -5129,63 +5131,63 @@
     <row r="56" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B56" s="1" t="str">
         <f>[1]攻守數據!AD57</f>
-        <v>巨鉗蟹</v>
+        <v>毛毛角羊</v>
       </c>
       <c r="C56" s="1" t="str">
         <f>[1]攻守數據!AE57</f>
-        <v>水</v>
+        <v>格鬥</v>
       </c>
       <c r="D56" s="1" t="str">
         <f>[1]攻守數據!AF57</f>
-        <v>Y</v>
+        <v>N</v>
       </c>
       <c r="E56" s="1">
         <f>[1]攻守數據!AG57</f>
-        <v>198</v>
+        <v>136</v>
       </c>
       <c r="F56" s="1" t="str">
         <f>[1]攻守數據!AH57</f>
-        <v>G</v>
+        <v>D</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B57" s="1" t="str">
         <f>[1]攻守數據!AD58</f>
-        <v>高傲雉雞</v>
+        <v>超極巨千面避役</v>
       </c>
       <c r="C57" s="1" t="str">
         <f>[1]攻守數據!AE58</f>
-        <v>鋼</v>
+        <v>水</v>
       </c>
       <c r="D57" s="1" t="str">
         <f>[1]攻守數據!AF58</f>
-        <v>N</v>
+        <v>Y</v>
       </c>
       <c r="E57" s="1">
         <f>[1]攻守數據!AG58</f>
-        <v>188</v>
+        <v>217</v>
       </c>
       <c r="F57" s="1" t="str">
         <f>[1]攻守數據!AH58</f>
-        <v>D</v>
+        <v>G</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B58" s="1" t="str">
         <f>[1]攻守數據!AD59</f>
-        <v>噴火龍</v>
+        <v>千面避役</v>
       </c>
       <c r="C58" s="1" t="str">
         <f>[1]攻守數據!AE59</f>
-        <v>龍</v>
+        <v>水</v>
       </c>
       <c r="D58" s="1" t="str">
         <f>[1]攻守數據!AF59</f>
-        <v>N</v>
+        <v>Y</v>
       </c>
       <c r="E58" s="1">
         <f>[1]攻守數據!AG59</f>
-        <v>187</v>
+        <v>217</v>
       </c>
       <c r="F58" s="1" t="str">
         <f>[1]攻守數據!AH59</f>
@@ -5195,33 +5197,33 @@
     <row r="59" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B59" s="1" t="str">
         <f>[1]攻守數據!AD60</f>
-        <v>鐮刀盔</v>
+        <v>超極巨巨鉗蟹</v>
       </c>
       <c r="C59" s="1" t="str">
         <f>[1]攻守數據!AE60</f>
-        <v>地面</v>
+        <v>水</v>
       </c>
       <c r="D59" s="1" t="str">
         <f>[1]攻守數據!AF60</f>
-        <v>N</v>
+        <v>Y</v>
       </c>
       <c r="E59" s="1">
         <f>[1]攻守數據!AG60</f>
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="F59" s="1" t="str">
         <f>[1]攻守數據!AH60</f>
-        <v>D</v>
+        <v>G</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B60" s="1" t="str">
         <f>[1]攻守數據!AD61</f>
-        <v>鐮刀盔</v>
+        <v>巨鉗蟹</v>
       </c>
       <c r="C60" s="1" t="str">
         <f>[1]攻守數據!AE61</f>
-        <v>蟲</v>
+        <v>地面</v>
       </c>
       <c r="D60" s="1" t="str">
         <f>[1]攻守數據!AF61</f>
@@ -5229,7 +5231,7 @@
       </c>
       <c r="E60" s="1">
         <f>[1]攻守數據!AG61</f>
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="F60" s="1" t="str">
         <f>[1]攻守數據!AH61</f>
@@ -5239,11 +5241,11 @@
     <row r="61" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B61" s="1" t="str">
         <f>[1]攻守數據!AD62</f>
-        <v>多刺菊石獸</v>
+        <v>巨鉗蟹</v>
       </c>
       <c r="C61" s="1" t="str">
         <f>[1]攻守數據!AE62</f>
-        <v>地面</v>
+        <v>鋼</v>
       </c>
       <c r="D61" s="1" t="str">
         <f>[1]攻守數據!AF62</f>
@@ -5251,7 +5253,7 @@
       </c>
       <c r="E61" s="1">
         <f>[1]攻守數據!AG62</f>
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="F61" s="1" t="str">
         <f>[1]攻守數據!AH62</f>
@@ -5261,19 +5263,19 @@
     <row r="62" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B62" s="1" t="str">
         <f>[1]攻守數據!AD63</f>
-        <v>巴大蝶</v>
+        <v>高傲雉雞</v>
       </c>
       <c r="C62" s="1" t="str">
         <f>[1]攻守數據!AE63</f>
-        <v>蟲</v>
+        <v>鋼</v>
       </c>
       <c r="D62" s="1" t="str">
         <f>[1]攻守數據!AF63</f>
-        <v>Y</v>
+        <v>N</v>
       </c>
       <c r="E62" s="1">
         <f>[1]攻守數據!AG63</f>
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="F62" s="1" t="str">
         <f>[1]攻守數據!AH63</f>
@@ -5283,19 +5285,19 @@
     <row r="63" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B63" s="1" t="str">
         <f>[1]攻守數據!AD64</f>
-        <v>鋼鎧鴉</v>
+        <v>鐮刀盔</v>
       </c>
       <c r="C63" s="1" t="str">
         <f>[1]攻守數據!AE64</f>
-        <v>飛行</v>
+        <v>地面</v>
       </c>
       <c r="D63" s="1" t="str">
         <f>[1]攻守數據!AF64</f>
-        <v>Y</v>
+        <v>N</v>
       </c>
       <c r="E63" s="1">
         <f>[1]攻守數據!AG64</f>
-        <v>140</v>
+        <v>185</v>
       </c>
       <c r="F63" s="1" t="str">
         <f>[1]攻守數據!AH64</f>
@@ -5305,19 +5307,19 @@
     <row r="64" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B64" s="1" t="str">
         <f>[1]攻守數據!AD65</f>
-        <v>鋼鎧鴉</v>
+        <v>鐮刀盔</v>
       </c>
       <c r="C64" s="1" t="str">
         <f>[1]攻守數據!AE65</f>
-        <v>鋼</v>
+        <v>蟲</v>
       </c>
       <c r="D64" s="1" t="str">
         <f>[1]攻守數據!AF65</f>
-        <v>Y</v>
+        <v>N</v>
       </c>
       <c r="E64" s="1">
         <f>[1]攻守數據!AG65</f>
-        <v>140</v>
+        <v>185</v>
       </c>
       <c r="F64" s="1" t="str">
         <f>[1]攻守數據!AH65</f>
@@ -5327,19 +5329,19 @@
     <row r="65" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B65" s="1" t="str">
         <f>[1]攻守數據!AD66</f>
-        <v>武道熊師(連)</v>
+        <v>多刺菊石獸</v>
       </c>
       <c r="C65" s="1" t="str">
         <f>[1]攻守數據!AE66</f>
-        <v>水</v>
+        <v>地面</v>
       </c>
       <c r="D65" s="1" t="str">
         <f>[1]攻守數據!AF66</f>
-        <v>Y</v>
+        <v>N</v>
       </c>
       <c r="E65" s="1">
         <f>[1]攻守數據!AG66</f>
-        <v>210</v>
+        <v>177</v>
       </c>
       <c r="F65" s="1" t="str">
         <f>[1]攻守數據!AH66</f>
@@ -5349,7 +5351,7 @@
     <row r="66" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B66" s="1" t="str">
         <f>[1]攻守數據!AD67</f>
-        <v>灰塵山</v>
+        <v>巴大蝶</v>
       </c>
       <c r="C66" s="1" t="str">
         <f>[1]攻守數據!AE67</f>
@@ -5357,11 +5359,11 @@
       </c>
       <c r="D66" s="1" t="str">
         <f>[1]攻守數據!AF67</f>
-        <v>N</v>
+        <v>Y</v>
       </c>
       <c r="E66" s="1">
         <f>[1]攻守數據!AG67</f>
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="F66" s="1" t="str">
         <f>[1]攻守數據!AH67</f>
@@ -5371,19 +5373,19 @@
     <row r="67" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B67" s="1" t="str">
         <f>[1]攻守數據!AD68</f>
-        <v>吼鯨王</v>
+        <v>鋼鎧鴉</v>
       </c>
       <c r="C67" s="1" t="str">
         <f>[1]攻守數據!AE68</f>
-        <v>超能力</v>
+        <v>飛行</v>
       </c>
       <c r="D67" s="1" t="str">
         <f>[1]攻守數據!AF68</f>
-        <v>N</v>
+        <v>Y</v>
       </c>
       <c r="E67" s="1">
         <f>[1]攻守數據!AG68</f>
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="F67" s="1" t="str">
         <f>[1]攻守數據!AH68</f>
@@ -5393,19 +5395,19 @@
     <row r="68" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B68" s="1" t="str">
         <f>[1]攻守數據!AD69</f>
-        <v>水箭龜</v>
+        <v>鋼鎧鴉</v>
       </c>
       <c r="C68" s="1" t="str">
         <f>[1]攻守數據!AE69</f>
-        <v>惡</v>
+        <v>鋼</v>
       </c>
       <c r="D68" s="1" t="str">
         <f>[1]攻守數據!AF69</f>
-        <v>N</v>
+        <v>Y</v>
       </c>
       <c r="E68" s="1">
         <f>[1]攻守數據!AG69</f>
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F68" s="1" t="str">
         <f>[1]攻守數據!AH69</f>
@@ -5415,19 +5417,19 @@
     <row r="69" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B69" s="1" t="str">
         <f>[1]攻守數據!AD70</f>
-        <v>勾魂眼</v>
+        <v>鋼鎧鴉</v>
       </c>
       <c r="C69" s="1" t="str">
         <f>[1]攻守數據!AE70</f>
-        <v>幽靈</v>
+        <v>地面</v>
       </c>
       <c r="D69" s="1" t="str">
         <f>[1]攻守數據!AF70</f>
-        <v>Y</v>
+        <v>N</v>
       </c>
       <c r="E69" s="1">
         <f>[1]攻守數據!AG70</f>
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="F69" s="1" t="str">
         <f>[1]攻守數據!AH70</f>
@@ -5437,11 +5439,11 @@
     <row r="70" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B70" s="1" t="str">
         <f>[1]攻守數據!AD71</f>
-        <v>勾魂眼</v>
+        <v>超極巨灰塵山</v>
       </c>
       <c r="C70" s="1" t="str">
         <f>[1]攻守數據!AE71</f>
-        <v>惡</v>
+        <v>毒</v>
       </c>
       <c r="D70" s="1" t="str">
         <f>[1]攻守數據!AF71</f>
@@ -5449,21 +5451,21 @@
       </c>
       <c r="E70" s="1">
         <f>[1]攻守數據!AG71</f>
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="F70" s="1" t="str">
         <f>[1]攻守數據!AH71</f>
-        <v>D</v>
+        <v>G</v>
       </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B71" s="1" t="str">
         <f>[1]攻守數據!AD72</f>
-        <v>巴大蝶</v>
+        <v>灰塵山</v>
       </c>
       <c r="C71" s="1" t="str">
         <f>[1]攻守數據!AE72</f>
-        <v>超能力</v>
+        <v>蟲</v>
       </c>
       <c r="D71" s="1" t="str">
         <f>[1]攻守數據!AF72</f>
@@ -5471,7 +5473,7 @@
       </c>
       <c r="E71" s="1">
         <f>[1]攻守數據!AG72</f>
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="F71" s="1" t="str">
         <f>[1]攻守數據!AH72</f>
@@ -5481,19 +5483,19 @@
     <row r="72" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B72" s="1" t="str">
         <f>[1]攻守數據!AD73</f>
-        <v>鐮刀盔</v>
+        <v>吼鯨王</v>
       </c>
       <c r="C72" s="1" t="str">
         <f>[1]攻守數據!AE73</f>
-        <v>水</v>
+        <v>超能力</v>
       </c>
       <c r="D72" s="1" t="str">
         <f>[1]攻守數據!AF73</f>
-        <v>Y</v>
+        <v>N</v>
       </c>
       <c r="E72" s="1">
         <f>[1]攻守數據!AG73</f>
-        <v>185</v>
+        <v>147</v>
       </c>
       <c r="F72" s="1" t="str">
         <f>[1]攻守數據!AH73</f>
@@ -5503,7 +5505,7 @@
     <row r="73" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B73" s="1" t="str">
         <f>[1]攻守數據!AD74</f>
-        <v>水箭龜</v>
+        <v>超極巨水箭龜</v>
       </c>
       <c r="C73" s="1" t="str">
         <f>[1]攻守數據!AE74</f>
@@ -5525,19 +5527,19 @@
     <row r="74" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B74" s="1" t="str">
         <f>[1]攻守數據!AD75</f>
-        <v>鋼鎧鴉</v>
+        <v>水箭龜</v>
       </c>
       <c r="C74" s="1" t="str">
         <f>[1]攻守數據!AE75</f>
-        <v>地面</v>
+        <v>水</v>
       </c>
       <c r="D74" s="1" t="str">
         <f>[1]攻守數據!AF75</f>
-        <v>N</v>
+        <v>Y</v>
       </c>
       <c r="E74" s="1">
         <f>[1]攻守數據!AG75</f>
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="F74" s="1" t="str">
         <f>[1]攻守數據!AH75</f>
@@ -5547,11 +5549,11 @@
     <row r="75" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B75" s="1" t="str">
         <f>[1]攻守數據!AD76</f>
-        <v>藏飽栗鼠</v>
+        <v>水箭龜</v>
       </c>
       <c r="C75" s="1" t="str">
         <f>[1]攻守數據!AE76</f>
-        <v>地面</v>
+        <v>岩石</v>
       </c>
       <c r="D75" s="1" t="str">
         <f>[1]攻守數據!AF76</f>
@@ -5559,7 +5561,7 @@
       </c>
       <c r="E75" s="1">
         <f>[1]攻守數據!AG76</f>
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="F75" s="1" t="str">
         <f>[1]攻守數據!AH76</f>
@@ -5569,7 +5571,7 @@
     <row r="76" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B76" s="1" t="str">
         <f>[1]攻守數據!AD77</f>
-        <v>藏飽栗鼠</v>
+        <v>水箭龜</v>
       </c>
       <c r="C76" s="1" t="str">
         <f>[1]攻守數據!AE77</f>
@@ -5581,7 +5583,7 @@
       </c>
       <c r="E76" s="1">
         <f>[1]攻守數據!AG77</f>
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="F76" s="1" t="str">
         <f>[1]攻守數據!AH77</f>
@@ -5591,11 +5593,11 @@
     <row r="77" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B77" s="1" t="str">
         <f>[1]攻守數據!AD78</f>
-        <v>多刺菊石獸</v>
+        <v>勾魂眼</v>
       </c>
       <c r="C77" s="1" t="str">
         <f>[1]攻守數據!AE78</f>
-        <v>水</v>
+        <v>幽靈</v>
       </c>
       <c r="D77" s="1" t="str">
         <f>[1]攻守數據!AF78</f>
@@ -5603,7 +5605,7 @@
       </c>
       <c r="E77" s="1">
         <f>[1]攻守數據!AG78</f>
-        <v>177</v>
+        <v>121</v>
       </c>
       <c r="F77" s="1" t="str">
         <f>[1]攻守數據!AH78</f>
@@ -5613,11 +5615,11 @@
     <row r="78" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B78" s="1" t="str">
         <f>[1]攻守數據!AD79</f>
-        <v>水君</v>
+        <v>勾魂眼</v>
       </c>
       <c r="C78" s="1" t="str">
         <f>[1]攻守數據!AE79</f>
-        <v>水</v>
+        <v>惡</v>
       </c>
       <c r="D78" s="1" t="str">
         <f>[1]攻守數據!AF79</f>
@@ -5625,7 +5627,7 @@
       </c>
       <c r="E78" s="1">
         <f>[1]攻守數據!AG79</f>
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="F78" s="1" t="str">
         <f>[1]攻守數據!AH79</f>
@@ -5635,7 +5637,7 @@
     <row r="79" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="str">
         <f>[1]攻守數據!AD80</f>
-        <v>吼鯨王</v>
+        <v>鐮刀盔</v>
       </c>
       <c r="C79" s="1" t="str">
         <f>[1]攻守數據!AE80</f>
@@ -5647,7 +5649,7 @@
       </c>
       <c r="E79" s="1">
         <f>[1]攻守數據!AG80</f>
-        <v>147</v>
+        <v>185</v>
       </c>
       <c r="F79" s="1" t="str">
         <f>[1]攻守數據!AH80</f>
@@ -5657,11 +5659,11 @@
     <row r="80" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B80" s="1" t="str">
         <f>[1]攻守數據!AD81</f>
-        <v>幸福蛋</v>
+        <v>藏飽栗鼠</v>
       </c>
       <c r="C80" s="1" t="str">
         <f>[1]攻守數據!AE81</f>
-        <v>超能力</v>
+        <v>地面</v>
       </c>
       <c r="D80" s="1" t="str">
         <f>[1]攻守數據!AF81</f>
@@ -5669,7 +5671,7 @@
       </c>
       <c r="E80" s="1">
         <f>[1]攻守數據!AG81</f>
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="F80" s="1" t="str">
         <f>[1]攻守數據!AH81</f>
@@ -5679,19 +5681,19 @@
     <row r="81" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B81" s="1" t="str">
         <f>[1]攻守數據!AD82</f>
-        <v>水箭龜</v>
+        <v>藏飽栗鼠</v>
       </c>
       <c r="C81" s="1" t="str">
         <f>[1]攻守數據!AE82</f>
-        <v>水</v>
+        <v>惡</v>
       </c>
       <c r="D81" s="1" t="str">
         <f>[1]攻守數據!AF82</f>
-        <v>Y</v>
+        <v>N</v>
       </c>
       <c r="E81" s="1">
         <f>[1]攻守數據!AG82</f>
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="F81" s="1" t="str">
         <f>[1]攻守數據!AH82</f>
@@ -5701,11 +5703,11 @@
     <row r="82" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B82" s="1" t="str">
         <f>[1]攻守數據!AD83</f>
-        <v>急凍鳥</v>
+        <v>多刺菊石獸</v>
       </c>
       <c r="C82" s="1" t="str">
         <f>[1]攻守數據!AE83</f>
-        <v>冰</v>
+        <v>水</v>
       </c>
       <c r="D82" s="1" t="str">
         <f>[1]攻守數據!AF83</f>
@@ -5713,7 +5715,7 @@
       </c>
       <c r="E82" s="1">
         <f>[1]攻守數據!AG83</f>
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="F82" s="1" t="str">
         <f>[1]攻守數據!AH83</f>
@@ -5723,11 +5725,11 @@
     <row r="83" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B83" s="1" t="str">
         <f>[1]攻守數據!AD84</f>
-        <v>幾何雪花</v>
+        <v>水君</v>
       </c>
       <c r="C83" s="1" t="str">
         <f>[1]攻守數據!AE84</f>
-        <v>冰</v>
+        <v>水</v>
       </c>
       <c r="D83" s="1" t="str">
         <f>[1]攻守數據!AF84</f>
@@ -5735,7 +5737,7 @@
       </c>
       <c r="E83" s="1">
         <f>[1]攻守數據!AG84</f>
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F83" s="1" t="str">
         <f>[1]攻守數據!AH84</f>
@@ -5745,11 +5747,11 @@
     <row r="84" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B84" s="1" t="str">
         <f>[1]攻守數據!AD85</f>
-        <v>壺壺</v>
+        <v>吼鯨王</v>
       </c>
       <c r="C84" s="1" t="str">
         <f>[1]攻守數據!AE85</f>
-        <v>岩石</v>
+        <v>水</v>
       </c>
       <c r="D84" s="1" t="str">
         <f>[1]攻守數據!AF85</f>
@@ -5757,7 +5759,7 @@
       </c>
       <c r="E84" s="1">
         <f>[1]攻守數據!AG85</f>
-        <v>17</v>
+        <v>147</v>
       </c>
       <c r="F84" s="1" t="str">
         <f>[1]攻守數據!AH85</f>
@@ -5767,19 +5769,19 @@
     <row r="85" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B85" s="1" t="str">
         <f>[1]攻守數據!AD86</f>
-        <v>壺壺</v>
+        <v>幸福蛋</v>
       </c>
       <c r="C85" s="1" t="str">
         <f>[1]攻守數據!AE86</f>
-        <v>蟲</v>
+        <v>超能力</v>
       </c>
       <c r="D85" s="1" t="str">
         <f>[1]攻守數據!AF86</f>
-        <v>Y</v>
+        <v>N</v>
       </c>
       <c r="E85" s="1">
         <f>[1]攻守數據!AG86</f>
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="F85" s="1" t="str">
         <f>[1]攻守數據!AH86</f>
@@ -5789,11 +5791,11 @@
     <row r="86" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B86" s="1" t="str">
         <f>[1]攻守數據!AD87</f>
-        <v>胡地</v>
+        <v>急凍鳥</v>
       </c>
       <c r="C86" s="1" t="str">
         <f>[1]攻守數據!AE87</f>
-        <v>超能力</v>
+        <v>冰</v>
       </c>
       <c r="D86" s="1" t="str">
         <f>[1]攻守數據!AF87</f>
@@ -5801,7 +5803,7 @@
       </c>
       <c r="E86" s="1">
         <f>[1]攻守數據!AG87</f>
-        <v>225</v>
+        <v>155</v>
       </c>
       <c r="F86" s="1" t="str">
         <f>[1]攻守數據!AH87</f>
@@ -5811,19 +5813,19 @@
     <row r="87" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B87" s="1" t="str">
         <f>[1]攻守數據!AD88</f>
-        <v>胡地</v>
+        <v>幾何雪花</v>
       </c>
       <c r="C87" s="1" t="str">
         <f>[1]攻守數據!AE88</f>
-        <v>格鬥</v>
+        <v>冰</v>
       </c>
       <c r="D87" s="1" t="str">
         <f>[1]攻守數據!AF88</f>
-        <v>N</v>
+        <v>Y</v>
       </c>
       <c r="E87" s="1">
         <f>[1]攻守數據!AG88</f>
-        <v>225</v>
+        <v>153</v>
       </c>
       <c r="F87" s="1" t="str">
         <f>[1]攻守數據!AH88</f>
@@ -5833,11 +5835,11 @@
     <row r="88" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B88" s="1" t="str">
         <f>[1]攻守數據!AD89</f>
-        <v>拉普拉斯</v>
+        <v>壺壺</v>
       </c>
       <c r="C88" s="1" t="str">
         <f>[1]攻守數據!AE89</f>
-        <v>冰</v>
+        <v>岩石</v>
       </c>
       <c r="D88" s="1" t="str">
         <f>[1]攻守數據!AF89</f>
@@ -5845,21 +5847,21 @@
       </c>
       <c r="E88" s="1">
         <f>[1]攻守數據!AG89</f>
-        <v>141</v>
+        <v>17</v>
       </c>
       <c r="F88" s="1" t="str">
         <f>[1]攻守數據!AH89</f>
-        <v>G</v>
+        <v>D</v>
       </c>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B89" s="1" t="str">
         <f>[1]攻守數據!AD90</f>
-        <v>鋁鋼龍</v>
+        <v>壺壺</v>
       </c>
       <c r="C89" s="1" t="str">
         <f>[1]攻守數據!AE90</f>
-        <v>鋼</v>
+        <v>蟲</v>
       </c>
       <c r="D89" s="1" t="str">
         <f>[1]攻守數據!AF90</f>
@@ -5867,7 +5869,7 @@
       </c>
       <c r="E89" s="1">
         <f>[1]攻守數據!AG90</f>
-        <v>201</v>
+        <v>17</v>
       </c>
       <c r="F89" s="1" t="str">
         <f>[1]攻守數據!AH90</f>
@@ -5877,11 +5879,11 @@
     <row r="90" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B90" s="1" t="str">
         <f>[1]攻守數據!AD91</f>
-        <v>鋁鋼龍</v>
+        <v>胡地</v>
       </c>
       <c r="C90" s="1" t="str">
         <f>[1]攻守數據!AE91</f>
-        <v>龍</v>
+        <v>超能力</v>
       </c>
       <c r="D90" s="1" t="str">
         <f>[1]攻守數據!AF91</f>
@@ -5889,7 +5891,7 @@
       </c>
       <c r="E90" s="1">
         <f>[1]攻守數據!AG91</f>
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="F90" s="1" t="str">
         <f>[1]攻守數據!AH91</f>
@@ -5899,11 +5901,11 @@
     <row r="91" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B91" s="1" t="str">
         <f>[1]攻守數據!AD92</f>
-        <v>鋁鋼龍</v>
+        <v>胡地</v>
       </c>
       <c r="C91" s="1" t="str">
         <f>[1]攻守數據!AE92</f>
-        <v>一般</v>
+        <v>格鬥</v>
       </c>
       <c r="D91" s="1" t="str">
         <f>[1]攻守數據!AF92</f>
@@ -5911,7 +5913,7 @@
       </c>
       <c r="E91" s="1">
         <f>[1]攻守數據!AG92</f>
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="F91" s="1" t="str">
         <f>[1]攻守數據!AH92</f>
@@ -5921,19 +5923,19 @@
     <row r="92" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B92" s="1" t="str">
         <f>[1]攻守數據!AD93</f>
-        <v>巨金怪</v>
+        <v>拉普拉斯</v>
       </c>
       <c r="C92" s="1" t="str">
         <f>[1]攻守數據!AE93</f>
-        <v>幽靈</v>
+        <v>冰</v>
       </c>
       <c r="D92" s="1" t="str">
         <f>[1]攻守數據!AF93</f>
-        <v>N</v>
+        <v>Y</v>
       </c>
       <c r="E92" s="1">
         <f>[1]攻守數據!AG93</f>
-        <v>214</v>
+        <v>141</v>
       </c>
       <c r="F92" s="1" t="str">
         <f>[1]攻守數據!AH93</f>
@@ -5943,11 +5945,11 @@
     <row r="93" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B93" s="1" t="str">
         <f>[1]攻守數據!AD94</f>
-        <v>沙奈朵</v>
+        <v>鋁鋼龍</v>
       </c>
       <c r="C93" s="1" t="str">
         <f>[1]攻守數據!AE94</f>
-        <v>妖精</v>
+        <v>鋼</v>
       </c>
       <c r="D93" s="1" t="str">
         <f>[1]攻守數據!AF94</f>
@@ -5955,7 +5957,7 @@
       </c>
       <c r="E93" s="1">
         <f>[1]攻守數據!AG94</f>
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F93" s="1" t="str">
         <f>[1]攻守數據!AH94</f>
@@ -5965,11 +5967,11 @@
     <row r="94" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B94" s="1" t="str">
         <f>[1]攻守數據!AD95</f>
-        <v>沙奈朵</v>
+        <v>鋁鋼龍</v>
       </c>
       <c r="C94" s="1" t="str">
         <f>[1]攻守數據!AE95</f>
-        <v>超能力</v>
+        <v>龍</v>
       </c>
       <c r="D94" s="1" t="str">
         <f>[1]攻守數據!AF95</f>
@@ -5977,7 +5979,7 @@
       </c>
       <c r="E94" s="1">
         <f>[1]攻守數據!AG95</f>
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F94" s="1" t="str">
         <f>[1]攻守數據!AH95</f>
@@ -5987,11 +5989,11 @@
     <row r="95" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B95" s="1" t="str">
         <f>[1]攻守數據!AD96</f>
-        <v>沙奈朵</v>
+        <v>鋁鋼龍</v>
       </c>
       <c r="C95" s="1" t="str">
         <f>[1]攻守數據!AE96</f>
-        <v>草</v>
+        <v>一般</v>
       </c>
       <c r="D95" s="1" t="str">
         <f>[1]攻守數據!AF96</f>
@@ -5999,7 +6001,7 @@
       </c>
       <c r="E95" s="1">
         <f>[1]攻守數據!AG96</f>
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F95" s="1" t="str">
         <f>[1]攻守數據!AH96</f>
@@ -6009,11 +6011,11 @@
     <row r="96" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B96" s="1" t="str">
         <f>[1]攻守數據!AD97</f>
-        <v>沙奈朵</v>
+        <v>巨金怪</v>
       </c>
       <c r="C96" s="1" t="str">
         <f>[1]攻守數據!AE97</f>
-        <v>電</v>
+        <v>幽靈</v>
       </c>
       <c r="D96" s="1" t="str">
         <f>[1]攻守數據!AF97</f>
@@ -6021,7 +6023,7 @@
       </c>
       <c r="E96" s="1">
         <f>[1]攻守數據!AG97</f>
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="F96" s="1" t="str">
         <f>[1]攻守數據!AH97</f>
@@ -6031,11 +6033,11 @@
     <row r="97" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B97" s="1" t="str">
         <f>[1]攻守數據!AD98</f>
-        <v>甜冷美后</v>
+        <v>沙奈朵</v>
       </c>
       <c r="C97" s="1" t="str">
         <f>[1]攻守數據!AE98</f>
-        <v>草</v>
+        <v>妖精</v>
       </c>
       <c r="D97" s="1" t="str">
         <f>[1]攻守數據!AF98</f>
@@ -6043,7 +6045,7 @@
       </c>
       <c r="E97" s="1">
         <f>[1]攻守數據!AG98</f>
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="F97" s="1" t="str">
         <f>[1]攻守數據!AH98</f>
@@ -6053,19 +6055,19 @@
     <row r="98" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B98" s="1" t="str">
         <f>[1]攻守數據!AD99</f>
-        <v>甜冷美后</v>
+        <v>沙奈朵</v>
       </c>
       <c r="C98" s="1" t="str">
         <f>[1]攻守數據!AE99</f>
-        <v>妖精</v>
+        <v>超能力</v>
       </c>
       <c r="D98" s="1" t="str">
         <f>[1]攻守數據!AF99</f>
-        <v>N</v>
+        <v>Y</v>
       </c>
       <c r="E98" s="1">
         <f>[1]攻守數據!AG99</f>
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="F98" s="1" t="str">
         <f>[1]攻守數據!AH99</f>
@@ -6075,41 +6077,41 @@
     <row r="99" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B99" s="1" t="str">
         <f>[1]攻守數據!AD100</f>
-        <v>超級巨伊布</v>
+        <v>沙奈朵</v>
       </c>
       <c r="C99" s="1" t="str">
         <f>[1]攻守數據!AE100</f>
-        <v>一般</v>
+        <v>草</v>
       </c>
       <c r="D99" s="1" t="str">
         <f>[1]攻守數據!AF100</f>
-        <v>Y</v>
+        <v>N</v>
       </c>
       <c r="E99" s="1">
         <f>[1]攻守數據!AG100</f>
-        <v>94</v>
+        <v>199</v>
       </c>
       <c r="F99" s="1" t="str">
         <f>[1]攻守數據!AH100</f>
-        <v>G</v>
+        <v>D</v>
       </c>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B100" s="1" t="str">
         <f>[1]攻守數據!AD101</f>
-        <v>水伊布</v>
+        <v>沙奈朵</v>
       </c>
       <c r="C100" s="1" t="str">
         <f>[1]攻守數據!AE101</f>
-        <v>水</v>
+        <v>電</v>
       </c>
       <c r="D100" s="1" t="str">
         <f>[1]攻守數據!AF101</f>
-        <v>Y</v>
+        <v>N</v>
       </c>
       <c r="E100" s="1">
         <f>[1]攻守數據!AG101</f>
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="F100" s="1" t="str">
         <f>[1]攻守數據!AH101</f>
@@ -6119,11 +6121,11 @@
     <row r="101" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B101" s="1" t="str">
         <f>[1]攻守數據!AD102</f>
-        <v>雷伊布</v>
+        <v>甜冷美后</v>
       </c>
       <c r="C101" s="1" t="str">
         <f>[1]攻守數據!AE102</f>
-        <v>電</v>
+        <v>草</v>
       </c>
       <c r="D101" s="1" t="str">
         <f>[1]攻守數據!AF102</f>
@@ -6131,7 +6133,7 @@
       </c>
       <c r="E101" s="1">
         <f>[1]攻守數據!AG102</f>
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F101" s="1" t="str">
         <f>[1]攻守數據!AH102</f>
@@ -6141,19 +6143,19 @@
     <row r="102" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B102" s="1" t="str">
         <f>[1]攻守數據!AD103</f>
-        <v>火伊布</v>
+        <v>甜冷美后</v>
       </c>
       <c r="C102" s="1" t="str">
         <f>[1]攻守數據!AE103</f>
-        <v>火</v>
+        <v>妖精</v>
       </c>
       <c r="D102" s="1" t="str">
         <f>[1]攻守數據!AF103</f>
-        <v>Y</v>
+        <v>N</v>
       </c>
       <c r="E102" s="1">
         <f>[1]攻守數據!AG103</f>
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="F102" s="1" t="str">
         <f>[1]攻守數據!AH103</f>
@@ -6163,11 +6165,11 @@
     <row r="103" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B103" s="1" t="str">
         <f>[1]攻守數據!AD104</f>
-        <v>太陽伊布</v>
+        <v>超極巨伊布</v>
       </c>
       <c r="C103" s="1" t="str">
         <f>[1]攻守數據!AE104</f>
-        <v>超能力</v>
+        <v>一般</v>
       </c>
       <c r="D103" s="1" t="str">
         <f>[1]攻守數據!AF104</f>
@@ -6175,21 +6177,21 @@
       </c>
       <c r="E103" s="1">
         <f>[1]攻守數據!AG104</f>
-        <v>218</v>
+        <v>94</v>
       </c>
       <c r="F103" s="1" t="str">
         <f>[1]攻守數據!AH104</f>
-        <v>D</v>
+        <v>G</v>
       </c>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B104" s="1" t="str">
         <f>[1]攻守數據!AD105</f>
-        <v>月亮伊布</v>
+        <v>水伊布</v>
       </c>
       <c r="C104" s="1" t="str">
         <f>[1]攻守數據!AE105</f>
-        <v>惡</v>
+        <v>水</v>
       </c>
       <c r="D104" s="1" t="str">
         <f>[1]攻守數據!AF105</f>
@@ -6197,7 +6199,7 @@
       </c>
       <c r="E104" s="1">
         <f>[1]攻守數據!AG105</f>
-        <v>111</v>
+        <v>174</v>
       </c>
       <c r="F104" s="1" t="str">
         <f>[1]攻守數據!AH105</f>
@@ -6207,11 +6209,11 @@
     <row r="105" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B105" s="1" t="str">
         <f>[1]攻守數據!AD106</f>
-        <v>葉伊布</v>
+        <v>雷伊布</v>
       </c>
       <c r="C105" s="1" t="str">
         <f>[1]攻守數據!AE106</f>
-        <v>草</v>
+        <v>電</v>
       </c>
       <c r="D105" s="1" t="str">
         <f>[1]攻守數據!AF106</f>
@@ -6219,7 +6221,7 @@
       </c>
       <c r="E105" s="1">
         <f>[1]攻守數據!AG106</f>
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="F105" s="1" t="str">
         <f>[1]攻守數據!AH106</f>
@@ -6229,11 +6231,11 @@
     <row r="106" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B106" s="1" t="str">
         <f>[1]攻守數據!AD107</f>
-        <v>冰伊布</v>
+        <v>火伊布</v>
       </c>
       <c r="C106" s="1" t="str">
         <f>[1]攻守數據!AE107</f>
-        <v>冰</v>
+        <v>火</v>
       </c>
       <c r="D106" s="1" t="str">
         <f>[1]攻守數據!AF107</f>
@@ -6241,7 +6243,7 @@
       </c>
       <c r="E106" s="1">
         <f>[1]攻守數據!AG107</f>
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="F106" s="1" t="str">
         <f>[1]攻守數據!AH107</f>
@@ -6251,11 +6253,11 @@
     <row r="107" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B107" s="1" t="str">
         <f>[1]攻守數據!AD108</f>
-        <v>仙子伊布</v>
+        <v>太陽伊布</v>
       </c>
       <c r="C107" s="1" t="str">
         <f>[1]攻守數據!AE108</f>
-        <v>妖精</v>
+        <v>超能力</v>
       </c>
       <c r="D107" s="1" t="str">
         <f>[1]攻守數據!AF108</f>
@@ -6263,7 +6265,7 @@
       </c>
       <c r="E107" s="1">
         <f>[1]攻守數據!AG108</f>
-        <v>172</v>
+        <v>218</v>
       </c>
       <c r="F107" s="1" t="str">
         <f>[1]攻守數據!AH108</f>
@@ -6273,11 +6275,11 @@
     <row r="108" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B108" s="1" t="str">
         <f>[1]攻守數據!AD109</f>
-        <v>艾路雷朵</v>
+        <v>月亮伊布</v>
       </c>
       <c r="C108" s="1" t="str">
         <f>[1]攻守數據!AE109</f>
-        <v>格鬥</v>
+        <v>惡</v>
       </c>
       <c r="D108" s="1" t="str">
         <f>[1]攻守數據!AF109</f>
@@ -6285,7 +6287,7 @@
       </c>
       <c r="E108" s="1">
         <f>[1]攻守數據!AG109</f>
-        <v>199</v>
+        <v>111</v>
       </c>
       <c r="F108" s="1" t="str">
         <f>[1]攻守數據!AH109</f>
@@ -6295,11 +6297,11 @@
     <row r="109" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B109" s="1" t="str">
         <f>[1]攻守數據!AD110</f>
-        <v>艾路雷朵</v>
+        <v>葉伊布</v>
       </c>
       <c r="C109" s="1" t="str">
         <f>[1]攻守數據!AE110</f>
-        <v>超能力</v>
+        <v>草</v>
       </c>
       <c r="D109" s="1" t="str">
         <f>[1]攻守數據!AF110</f>
@@ -6307,7 +6309,7 @@
       </c>
       <c r="E109" s="1">
         <f>[1]攻守數據!AG110</f>
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="F109" s="1" t="str">
         <f>[1]攻守數據!AH110</f>
@@ -6317,19 +6319,19 @@
     <row r="110" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B110" s="1" t="str">
         <f>[1]攻守數據!AD111</f>
-        <v>艾路雷朵</v>
+        <v>冰伊布</v>
       </c>
       <c r="C110" s="1" t="str">
         <f>[1]攻守數據!AE111</f>
-        <v>妖精</v>
+        <v>冰</v>
       </c>
       <c r="D110" s="1" t="str">
         <f>[1]攻守數據!AF111</f>
-        <v>N</v>
+        <v>Y</v>
       </c>
       <c r="E110" s="1">
         <f>[1]攻守數據!AG111</f>
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F110" s="1" t="str">
         <f>[1]攻守數據!AH111</f>
@@ -6339,11 +6341,11 @@
     <row r="111" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B111" s="1" t="str">
         <f>[1]攻守數據!AD112</f>
-        <v>烏賊王</v>
+        <v>仙子伊布</v>
       </c>
       <c r="C111" s="1" t="str">
         <f>[1]攻守數據!AE112</f>
-        <v>超能力</v>
+        <v>妖精</v>
       </c>
       <c r="D111" s="1" t="str">
         <f>[1]攻守數據!AF112</f>
@@ -6351,7 +6353,7 @@
       </c>
       <c r="E111" s="1">
         <f>[1]攻守數據!AG112</f>
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="F111" s="1" t="str">
         <f>[1]攻守數據!AH112</f>
@@ -6361,19 +6363,19 @@
     <row r="112" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B112" s="1" t="str">
         <f>[1]攻守數據!AD113</f>
-        <v>烏賊王</v>
+        <v>艾路雷朵</v>
       </c>
       <c r="C112" s="1" t="str">
         <f>[1]攻守數據!AE113</f>
-        <v>飛行</v>
+        <v>格鬥</v>
       </c>
       <c r="D112" s="1" t="str">
         <f>[1]攻守數據!AF113</f>
-        <v>N</v>
+        <v>Y</v>
       </c>
       <c r="E112" s="1">
         <f>[1]攻守數據!AG113</f>
-        <v>151</v>
+        <v>199</v>
       </c>
       <c r="F112" s="1" t="str">
         <f>[1]攻守數據!AH113</f>
@@ -6383,11 +6385,11 @@
     <row r="113" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B113" s="1" t="str">
         <f>[1]攻守數據!AD114</f>
-        <v>超極巨灰塵山</v>
+        <v>艾路雷朵</v>
       </c>
       <c r="C113" s="1" t="str">
         <f>[1]攻守數據!AE114</f>
-        <v>毒</v>
+        <v>超能力</v>
       </c>
       <c r="D113" s="1" t="str">
         <f>[1]攻守數據!AF114</f>
@@ -6395,29 +6397,29 @@
       </c>
       <c r="E113" s="1">
         <f>[1]攻守數據!AG114</f>
-        <v>155</v>
+        <v>199</v>
       </c>
       <c r="F113" s="1" t="str">
         <f>[1]攻守數據!AH114</f>
-        <v>G</v>
+        <v>D</v>
       </c>
     </row>
     <row r="114" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B114" s="1" t="str">
         <f>[1]攻守數據!AD115</f>
-        <v>洛奇亞</v>
+        <v>艾路雷朵</v>
       </c>
       <c r="C114" s="1" t="str">
         <f>[1]攻守數據!AE115</f>
-        <v>超能力</v>
+        <v>妖精</v>
       </c>
       <c r="D114" s="1" t="str">
         <f>[1]攻守數據!AF115</f>
-        <v>Y</v>
+        <v>N</v>
       </c>
       <c r="E114" s="1">
         <f>[1]攻守數據!AG115</f>
-        <v>164</v>
+        <v>199</v>
       </c>
       <c r="F114" s="1" t="str">
         <f>[1]攻守數據!AH115</f>
@@ -6427,19 +6429,19 @@
     <row r="115" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B115" s="1" t="str">
         <f>[1]攻守數據!AD116</f>
-        <v>洛奇亞</v>
+        <v>烏賊王</v>
       </c>
       <c r="C115" s="1" t="str">
         <f>[1]攻守數據!AE116</f>
-        <v>龍</v>
+        <v>超能力</v>
       </c>
       <c r="D115" s="1" t="str">
         <f>[1]攻守數據!AF116</f>
-        <v>N</v>
+        <v>Y</v>
       </c>
       <c r="E115" s="1">
         <f>[1]攻守數據!AG116</f>
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="F115" s="1" t="str">
         <f>[1]攻守數據!AH116</f>
@@ -6447,777 +6449,778 @@
       </c>
     </row>
     <row r="116" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B116" s="14" t="str">
+      <c r="B116" s="1" t="str">
         <f>[1]攻守數據!AD117</f>
-        <v>飛腿郎</v>
-      </c>
-      <c r="C116" s="14" t="str">
+        <v>烏賊王</v>
+      </c>
+      <c r="C116" s="1" t="str">
         <f>[1]攻守數據!AE117</f>
-        <v>格鬥</v>
-      </c>
-      <c r="D116" s="14" t="str">
+        <v>飛行</v>
+      </c>
+      <c r="D116" s="1" t="str">
         <f>[1]攻守數據!AF117</f>
-        <v>Y</v>
-      </c>
-      <c r="E116" s="14">
+        <v>N</v>
+      </c>
+      <c r="E116" s="1">
         <f>[1]攻守數據!AG117</f>
-        <v>189</v>
-      </c>
-      <c r="F116" s="14" t="str">
+        <v>151</v>
+      </c>
+      <c r="F116" s="1" t="str">
         <f>[1]攻守數據!AH117</f>
         <v>D</v>
       </c>
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B117" s="14" t="str">
+      <c r="B117" s="1" t="str">
         <f>[1]攻守數據!AD118</f>
-        <v>快拳郎</v>
-      </c>
-      <c r="C117" s="14" t="str">
+        <v>洛奇亞</v>
+      </c>
+      <c r="C117" s="1" t="str">
         <f>[1]攻守數據!AE118</f>
-        <v>格鬥</v>
-      </c>
-      <c r="D117" s="14" t="str">
+        <v>超能力</v>
+      </c>
+      <c r="D117" s="1" t="str">
         <f>[1]攻守數據!AF118</f>
         <v>Y</v>
       </c>
-      <c r="E117" s="14">
+      <c r="E117" s="1">
         <f>[1]攻守數據!AG118</f>
         <v>164</v>
       </c>
-      <c r="F117" s="14" t="str">
+      <c r="F117" s="1" t="str">
         <f>[1]攻守數據!AH118</f>
         <v>D</v>
       </c>
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B118" s="14" t="str">
+      <c r="B118" s="1" t="str">
         <f>[1]攻守數據!AD119</f>
-        <v>快拳郎</v>
-      </c>
-      <c r="C118" s="14" t="str">
+        <v>洛奇亞</v>
+      </c>
+      <c r="C118" s="1" t="str">
         <f>[1]攻守數據!AE119</f>
-        <v>鋼</v>
-      </c>
-      <c r="D118" s="14" t="str">
+        <v>龍</v>
+      </c>
+      <c r="D118" s="1" t="str">
         <f>[1]攻守數據!AF119</f>
         <v>N</v>
       </c>
-      <c r="E118" s="14">
+      <c r="E118" s="1">
         <f>[1]攻守數據!AG119</f>
         <v>164</v>
       </c>
-      <c r="F118" s="14" t="str">
+      <c r="F118" s="1" t="str">
         <f>[1]攻守數據!AH119</f>
         <v>D</v>
       </c>
     </row>
     <row r="119" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B119" s="14" t="str">
-        <f>IF([1]攻守數據!AD120 = "", "", [1]攻守數據!AD120)</f>
+      <c r="B119" s="1" t="str">
+        <f>[1]攻守數據!AD120</f>
+        <v>飛腿郎</v>
+      </c>
+      <c r="C119" s="1" t="str">
+        <f>[1]攻守數據!AE120</f>
+        <v>格鬥</v>
+      </c>
+      <c r="D119" s="1" t="str">
+        <f>[1]攻守數據!AF120</f>
+        <v>Y</v>
+      </c>
+      <c r="E119" s="1">
+        <f>[1]攻守數據!AG120</f>
+        <v>189</v>
+      </c>
+      <c r="F119" s="1" t="str">
+        <f>[1]攻守數據!AH120</f>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="120" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B120" s="1" t="str">
+        <f>[1]攻守數據!AD121</f>
+        <v>快拳郎</v>
+      </c>
+      <c r="C120" s="1" t="str">
+        <f>[1]攻守數據!AE121</f>
+        <v>格鬥</v>
+      </c>
+      <c r="D120" s="1" t="str">
+        <f>[1]攻守數據!AF121</f>
+        <v>Y</v>
+      </c>
+      <c r="E120" s="1">
+        <f>[1]攻守數據!AG121</f>
+        <v>164</v>
+      </c>
+      <c r="F120" s="1" t="str">
+        <f>[1]攻守數據!AH121</f>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="121" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B121" s="1" t="str">
+        <f>[1]攻守數據!AD122</f>
+        <v>快拳郎</v>
+      </c>
+      <c r="C121" s="1" t="str">
+        <f>[1]攻守數據!AE122</f>
+        <v>鋼</v>
+      </c>
+      <c r="D121" s="1" t="str">
+        <f>[1]攻守數據!AF122</f>
+        <v>N</v>
+      </c>
+      <c r="E121" s="1">
+        <f>[1]攻守數據!AG122</f>
+        <v>164</v>
+      </c>
+      <c r="F121" s="1" t="str">
+        <f>[1]攻守數據!AH122</f>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="122" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B122" s="1" t="str">
+        <f>[1]攻守數據!AD123</f>
         <v>帝牙海獅</v>
       </c>
-      <c r="C119" s="14" t="str">
-        <f>IF([1]攻守數據!AE120 = "", "", [1]攻守數據!AE120)</f>
+      <c r="C122" s="1" t="str">
+        <f>[1]攻守數據!AE123</f>
         <v>水</v>
       </c>
-      <c r="D119" s="14" t="str">
-        <f>IF([1]攻守數據!AF120 = "", "", [1]攻守數據!AF120)</f>
-        <v>Y</v>
-      </c>
-      <c r="E119" s="14">
-        <f>IF([1]攻守數據!AG120 = "", "", [1]攻守數據!AG120)</f>
+      <c r="D122" s="1" t="str">
+        <f>[1]攻守數據!AF123</f>
+        <v>Y</v>
+      </c>
+      <c r="E122" s="1">
+        <f>[1]攻守數據!AG123</f>
         <v>156</v>
       </c>
-      <c r="F119" s="14" t="str">
-        <f>IF([1]攻守數據!AH120 = "", "", [1]攻守數據!AH120)</f>
-        <v>D</v>
-      </c>
-    </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B120" s="14" t="str">
-        <f>IF([1]攻守數據!AD121 = "", "", [1]攻守數據!AD121)</f>
+      <c r="F122" s="1" t="str">
+        <f>[1]攻守數據!AH123</f>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="123" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B123" s="1" t="str">
+        <f>[1]攻守數據!AD124</f>
         <v>帝牙海獅</v>
       </c>
-      <c r="C120" s="14" t="str">
-        <f>IF([1]攻守數據!AE121 = "", "", [1]攻守數據!AE121)</f>
+      <c r="C123" s="1" t="str">
+        <f>[1]攻守數據!AE124</f>
         <v>冰</v>
       </c>
-      <c r="D120" s="14" t="str">
-        <f>IF([1]攻守數據!AF121 = "", "", [1]攻守數據!AF121)</f>
-        <v>Y</v>
-      </c>
-      <c r="E120" s="14">
-        <f>IF([1]攻守數據!AG121 = "", "", [1]攻守數據!AG121)</f>
+      <c r="D123" s="1" t="str">
+        <f>[1]攻守數據!AF124</f>
+        <v>Y</v>
+      </c>
+      <c r="E123" s="1">
+        <f>[1]攻守數據!AG124</f>
         <v>156</v>
       </c>
-      <c r="F120" s="14" t="str">
-        <f>IF([1]攻守數據!AH121 = "", "", [1]攻守數據!AH121)</f>
-        <v>D</v>
-      </c>
-    </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B121" s="14" t="str">
-        <f>IF([1]攻守數據!AD122 = "", "", [1]攻守數據!AD122)</f>
+      <c r="F123" s="1" t="str">
+        <f>[1]攻守數據!AH124</f>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="124" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B124" s="1" t="str">
+        <f>[1]攻守數據!AD125</f>
         <v>龐岩怪</v>
       </c>
-      <c r="C121" s="14" t="str">
-        <f>IF([1]攻守數據!AE122 = "", "", [1]攻守數據!AE122)</f>
+      <c r="C124" s="1" t="str">
+        <f>[1]攻守數據!AE125</f>
         <v>岩石</v>
       </c>
-      <c r="D121" s="14" t="str">
-        <f>IF([1]攻守數據!AF122 = "", "", [1]攻守數據!AF122)</f>
-        <v>Y</v>
-      </c>
-      <c r="E121" s="14">
-        <f>IF([1]攻守數據!AG122 = "", "", [1]攻守數據!AG122)</f>
+      <c r="D124" s="1" t="str">
+        <f>[1]攻守數據!AF125</f>
+        <v>Y</v>
+      </c>
+      <c r="E124" s="1">
+        <f>[1]攻守數據!AG125</f>
         <v>190</v>
       </c>
-      <c r="F121" s="14" t="str">
-        <f>IF([1]攻守數據!AH122 = "", "", [1]攻守數據!AH122)</f>
-        <v>D</v>
-      </c>
-    </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B122" s="14" t="str">
-        <f>IF([1]攻守數據!AD123 = "", "", [1]攻守數據!AD123)</f>
-        <v>龐岩怪</v>
-      </c>
-      <c r="C122" s="14" t="str">
-        <f>IF([1]攻守數據!AE123 = "", "", [1]攻守數據!AE123)</f>
-        <v>地面</v>
-      </c>
-      <c r="D122" s="14" t="str">
-        <f>IF([1]攻守數據!AF123 = "", "", [1]攻守數據!AF123)</f>
-        <v>N</v>
-      </c>
-      <c r="E122" s="14">
-        <f>IF([1]攻守數據!AG123 = "", "", [1]攻守數據!AG123)</f>
-        <v>190</v>
-      </c>
-      <c r="F122" s="14" t="str">
-        <f>IF([1]攻守數據!AH123 = "", "", [1]攻守數據!AH123)</f>
-        <v>D</v>
-      </c>
-    </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B123" s="14" t="str">
-        <f>IF([1]攻守數據!AD124 = "", "", [1]攻守數據!AD124)</f>
-        <v>老翁龍</v>
-      </c>
-      <c r="C123" s="14" t="str">
-        <f>IF([1]攻守數據!AE124 = "", "", [1]攻守數據!AE124)</f>
-        <v>龍</v>
-      </c>
-      <c r="D123" s="14" t="str">
-        <f>IF([1]攻守數據!AF124 = "", "", [1]攻守數據!AF124)</f>
-        <v>Y</v>
-      </c>
-      <c r="E123" s="14">
-        <f>IF([1]攻守數據!AG124 = "", "", [1]攻守數據!AG124)</f>
-        <v>194</v>
-      </c>
-      <c r="F123" s="14" t="str">
-        <f>IF([1]攻守數據!AH124 = "", "", [1]攻守數據!AH124)</f>
-        <v>D</v>
-      </c>
-    </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B124" s="14" t="str">
-        <f>IF([1]攻守數據!AD125 = "", "", [1]攻守數據!AD125)</f>
-        <v>老翁龍</v>
-      </c>
-      <c r="C124" s="14" t="str">
-        <f>IF([1]攻守數據!AE125 = "", "", [1]攻守數據!AE125)</f>
-        <v>一般</v>
-      </c>
-      <c r="D124" s="14" t="str">
-        <f>IF([1]攻守數據!AF125 = "", "", [1]攻守數據!AF125)</f>
-        <v>N</v>
-      </c>
-      <c r="E124" s="14">
-        <f>IF([1]攻守數據!AG125 = "", "", [1]攻守數據!AG125)</f>
-        <v>194</v>
-      </c>
-      <c r="F124" s="14" t="str">
-        <f>IF([1]攻守數據!AH125 = "", "", [1]攻守數據!AH125)</f>
+      <c r="F124" s="1" t="str">
+        <f>[1]攻守數據!AH125</f>
         <v>D</v>
       </c>
     </row>
     <row r="125" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B125" s="14" t="str">
-        <f>IF([1]攻守數據!AD126 = "", "", [1]攻守數據!AD126)</f>
+        <f>IF([1]攻守數據!AD129 = "", "", [1]攻守數據!AD129)</f>
         <v/>
       </c>
       <c r="C125" s="14" t="str">
-        <f>IF([1]攻守數據!AE126 = "", "", [1]攻守數據!AE126)</f>
+        <f>IF([1]攻守數據!AE129 = "", "", [1]攻守數據!AE129)</f>
         <v/>
       </c>
       <c r="D125" s="14" t="str">
-        <f>IF([1]攻守數據!AF126 = "", "", [1]攻守數據!AF126)</f>
+        <f>IF([1]攻守數據!AF129 = "", "", [1]攻守數據!AF129)</f>
         <v/>
       </c>
       <c r="E125" s="14" t="str">
-        <f>IF([1]攻守數據!AG126 = "", "", [1]攻守數據!AG126)</f>
+        <f>IF([1]攻守數據!AG129 = "", "", [1]攻守數據!AG129)</f>
         <v/>
       </c>
       <c r="F125" s="14" t="str">
-        <f>IF([1]攻守數據!AH126 = "", "", [1]攻守數據!AH126)</f>
+        <f>IF([1]攻守數據!AH129 = "", "", [1]攻守數據!AH129)</f>
         <v/>
       </c>
     </row>
     <row r="126" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B126" s="14" t="str">
-        <f>IF([1]攻守數據!AD127 = "", "", [1]攻守數據!AD127)</f>
+        <f>IF([1]攻守數據!AD130 = "", "", [1]攻守數據!AD130)</f>
         <v/>
       </c>
       <c r="C126" s="14" t="str">
-        <f>IF([1]攻守數據!AE127 = "", "", [1]攻守數據!AE127)</f>
+        <f>IF([1]攻守數據!AE130 = "", "", [1]攻守數據!AE130)</f>
         <v/>
       </c>
       <c r="D126" s="14" t="str">
-        <f>IF([1]攻守數據!AF127 = "", "", [1]攻守數據!AF127)</f>
+        <f>IF([1]攻守數據!AF130 = "", "", [1]攻守數據!AF130)</f>
         <v/>
       </c>
       <c r="E126" s="14" t="str">
-        <f>IF([1]攻守數據!AG127 = "", "", [1]攻守數據!AG127)</f>
+        <f>IF([1]攻守數據!AG130 = "", "", [1]攻守數據!AG130)</f>
         <v/>
       </c>
       <c r="F126" s="14" t="str">
-        <f>IF([1]攻守數據!AH127 = "", "", [1]攻守數據!AH127)</f>
+        <f>IF([1]攻守數據!AH130 = "", "", [1]攻守數據!AH130)</f>
         <v/>
       </c>
     </row>
     <row r="127" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B127" s="14" t="str">
-        <f>IF([1]攻守數據!AD128 = "", "", [1]攻守數據!AD128)</f>
+        <f>IF([1]攻守數據!AD131 = "", "", [1]攻守數據!AD131)</f>
         <v/>
       </c>
       <c r="C127" s="14" t="str">
-        <f>IF([1]攻守數據!AE128 = "", "", [1]攻守數據!AE128)</f>
+        <f>IF([1]攻守數據!AE131 = "", "", [1]攻守數據!AE131)</f>
         <v/>
       </c>
       <c r="D127" s="14" t="str">
-        <f>IF([1]攻守數據!AF128 = "", "", [1]攻守數據!AF128)</f>
+        <f>IF([1]攻守數據!AF131 = "", "", [1]攻守數據!AF131)</f>
         <v/>
       </c>
       <c r="E127" s="14" t="str">
-        <f>IF([1]攻守數據!AG128 = "", "", [1]攻守數據!AG128)</f>
+        <f>IF([1]攻守數據!AG131 = "", "", [1]攻守數據!AG131)</f>
         <v/>
       </c>
       <c r="F127" s="14" t="str">
-        <f>IF([1]攻守數據!AH128 = "", "", [1]攻守數據!AH128)</f>
+        <f>IF([1]攻守數據!AH131 = "", "", [1]攻守數據!AH131)</f>
         <v/>
       </c>
     </row>
     <row r="128" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B128" s="14" t="str">
-        <f>IF([1]攻守數據!AD129 = "", "", [1]攻守數據!AD129)</f>
+        <f>IF([1]攻守數據!AD132 = "", "", [1]攻守數據!AD132)</f>
         <v/>
       </c>
       <c r="C128" s="14" t="str">
-        <f>IF([1]攻守數據!AE129 = "", "", [1]攻守數據!AE129)</f>
+        <f>IF([1]攻守數據!AE132 = "", "", [1]攻守數據!AE132)</f>
         <v/>
       </c>
       <c r="D128" s="14" t="str">
-        <f>IF([1]攻守數據!AF129 = "", "", [1]攻守數據!AF129)</f>
+        <f>IF([1]攻守數據!AF132 = "", "", [1]攻守數據!AF132)</f>
         <v/>
       </c>
       <c r="E128" s="14" t="str">
-        <f>IF([1]攻守數據!AG129 = "", "", [1]攻守數據!AG129)</f>
+        <f>IF([1]攻守數據!AG132 = "", "", [1]攻守數據!AG132)</f>
         <v/>
       </c>
       <c r="F128" s="14" t="str">
-        <f>IF([1]攻守數據!AH129 = "", "", [1]攻守數據!AH129)</f>
+        <f>IF([1]攻守數據!AH132 = "", "", [1]攻守數據!AH132)</f>
         <v/>
       </c>
     </row>
     <row r="129" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B129" s="14" t="str">
-        <f>IF([1]攻守數據!AD130 = "", "", [1]攻守數據!AD130)</f>
+        <f>IF([1]攻守數據!AD133 = "", "", [1]攻守數據!AD133)</f>
         <v/>
       </c>
       <c r="C129" s="14" t="str">
-        <f>IF([1]攻守數據!AE130 = "", "", [1]攻守數據!AE130)</f>
+        <f>IF([1]攻守數據!AE133 = "", "", [1]攻守數據!AE133)</f>
         <v/>
       </c>
       <c r="D129" s="14" t="str">
-        <f>IF([1]攻守數據!AF130 = "", "", [1]攻守數據!AF130)</f>
+        <f>IF([1]攻守數據!AF133 = "", "", [1]攻守數據!AF133)</f>
         <v/>
       </c>
       <c r="E129" s="14" t="str">
-        <f>IF([1]攻守數據!AG130 = "", "", [1]攻守數據!AG130)</f>
+        <f>IF([1]攻守數據!AG133 = "", "", [1]攻守數據!AG133)</f>
         <v/>
       </c>
       <c r="F129" s="14" t="str">
-        <f>IF([1]攻守數據!AH130 = "", "", [1]攻守數據!AH130)</f>
+        <f>IF([1]攻守數據!AH133 = "", "", [1]攻守數據!AH133)</f>
         <v/>
       </c>
     </row>
     <row r="130" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B130" s="14" t="str">
-        <f>IF([1]攻守數據!AD131 = "", "", [1]攻守數據!AD131)</f>
+        <f>IF([1]攻守數據!AD134 = "", "", [1]攻守數據!AD134)</f>
         <v/>
       </c>
       <c r="C130" s="14" t="str">
-        <f>IF([1]攻守數據!AE131 = "", "", [1]攻守數據!AE131)</f>
+        <f>IF([1]攻守數據!AE134 = "", "", [1]攻守數據!AE134)</f>
         <v/>
       </c>
       <c r="D130" s="14" t="str">
-        <f>IF([1]攻守數據!AF131 = "", "", [1]攻守數據!AF131)</f>
+        <f>IF([1]攻守數據!AF134 = "", "", [1]攻守數據!AF134)</f>
         <v/>
       </c>
       <c r="E130" s="14" t="str">
-        <f>IF([1]攻守數據!AG131 = "", "", [1]攻守數據!AG131)</f>
+        <f>IF([1]攻守數據!AG134 = "", "", [1]攻守數據!AG134)</f>
         <v/>
       </c>
       <c r="F130" s="14" t="str">
-        <f>IF([1]攻守數據!AH131 = "", "", [1]攻守數據!AH131)</f>
+        <f>IF([1]攻守數據!AH134 = "", "", [1]攻守數據!AH134)</f>
         <v/>
       </c>
     </row>
     <row r="131" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B131" s="14" t="str">
-        <f>IF([1]攻守數據!AD132 = "", "", [1]攻守數據!AD132)</f>
+        <f>IF([1]攻守數據!AD135 = "", "", [1]攻守數據!AD135)</f>
         <v/>
       </c>
       <c r="C131" s="14" t="str">
-        <f>IF([1]攻守數據!AE132 = "", "", [1]攻守數據!AE132)</f>
+        <f>IF([1]攻守數據!AE135 = "", "", [1]攻守數據!AE135)</f>
         <v/>
       </c>
       <c r="D131" s="14" t="str">
-        <f>IF([1]攻守數據!AF132 = "", "", [1]攻守數據!AF132)</f>
+        <f>IF([1]攻守數據!AF135 = "", "", [1]攻守數據!AF135)</f>
         <v/>
       </c>
       <c r="E131" s="14" t="str">
-        <f>IF([1]攻守數據!AG132 = "", "", [1]攻守數據!AG132)</f>
+        <f>IF([1]攻守數據!AG135 = "", "", [1]攻守數據!AG135)</f>
         <v/>
       </c>
       <c r="F131" s="14" t="str">
-        <f>IF([1]攻守數據!AH132 = "", "", [1]攻守數據!AH132)</f>
+        <f>IF([1]攻守數據!AH135 = "", "", [1]攻守數據!AH135)</f>
         <v/>
       </c>
     </row>
     <row r="132" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B132" s="14" t="str">
-        <f>IF([1]攻守數據!AD133 = "", "", [1]攻守數據!AD133)</f>
+        <f>IF([1]攻守數據!AD136 = "", "", [1]攻守數據!AD136)</f>
         <v/>
       </c>
       <c r="C132" s="14" t="str">
-        <f>IF([1]攻守數據!AE133 = "", "", [1]攻守數據!AE133)</f>
+        <f>IF([1]攻守數據!AE136 = "", "", [1]攻守數據!AE136)</f>
         <v/>
       </c>
       <c r="D132" s="14" t="str">
-        <f>IF([1]攻守數據!AF133 = "", "", [1]攻守數據!AF133)</f>
+        <f>IF([1]攻守數據!AF136 = "", "", [1]攻守數據!AF136)</f>
         <v/>
       </c>
       <c r="E132" s="14" t="str">
-        <f>IF([1]攻守數據!AG133 = "", "", [1]攻守數據!AG133)</f>
+        <f>IF([1]攻守數據!AG136 = "", "", [1]攻守數據!AG136)</f>
         <v/>
       </c>
       <c r="F132" s="14" t="str">
-        <f>IF([1]攻守數據!AH133 = "", "", [1]攻守數據!AH133)</f>
+        <f>IF([1]攻守數據!AH136 = "", "", [1]攻守數據!AH136)</f>
         <v/>
       </c>
     </row>
     <row r="133" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B133" s="14" t="str">
-        <f>IF([1]攻守數據!AD134 = "", "", [1]攻守數據!AD134)</f>
+        <f>IF([1]攻守數據!AD137 = "", "", [1]攻守數據!AD137)</f>
         <v/>
       </c>
       <c r="C133" s="14" t="str">
-        <f>IF([1]攻守數據!AE134 = "", "", [1]攻守數據!AE134)</f>
+        <f>IF([1]攻守數據!AE137 = "", "", [1]攻守數據!AE137)</f>
         <v/>
       </c>
       <c r="D133" s="14" t="str">
-        <f>IF([1]攻守數據!AF134 = "", "", [1]攻守數據!AF134)</f>
+        <f>IF([1]攻守數據!AF137 = "", "", [1]攻守數據!AF137)</f>
         <v/>
       </c>
       <c r="E133" s="14" t="str">
-        <f>IF([1]攻守數據!AG134 = "", "", [1]攻守數據!AG134)</f>
+        <f>IF([1]攻守數據!AG137 = "", "", [1]攻守數據!AG137)</f>
         <v/>
       </c>
       <c r="F133" s="14" t="str">
-        <f>IF([1]攻守數據!AH134 = "", "", [1]攻守數據!AH134)</f>
+        <f>IF([1]攻守數據!AH137 = "", "", [1]攻守數據!AH137)</f>
         <v/>
       </c>
     </row>
     <row r="134" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B134" s="14" t="str">
-        <f>IF([1]攻守數據!AD135 = "", "", [1]攻守數據!AD135)</f>
+        <f>IF([1]攻守數據!AD138 = "", "", [1]攻守數據!AD138)</f>
         <v/>
       </c>
       <c r="C134" s="14" t="str">
-        <f>IF([1]攻守數據!AE135 = "", "", [1]攻守數據!AE135)</f>
+        <f>IF([1]攻守數據!AE138 = "", "", [1]攻守數據!AE138)</f>
         <v/>
       </c>
       <c r="D134" s="14" t="str">
-        <f>IF([1]攻守數據!AF135 = "", "", [1]攻守數據!AF135)</f>
+        <f>IF([1]攻守數據!AF138 = "", "", [1]攻守數據!AF138)</f>
         <v/>
       </c>
       <c r="E134" s="14" t="str">
-        <f>IF([1]攻守數據!AG135 = "", "", [1]攻守數據!AG135)</f>
+        <f>IF([1]攻守數據!AG138 = "", "", [1]攻守數據!AG138)</f>
         <v/>
       </c>
       <c r="F134" s="14" t="str">
-        <f>IF([1]攻守數據!AH135 = "", "", [1]攻守數據!AH135)</f>
+        <f>IF([1]攻守數據!AH138 = "", "", [1]攻守數據!AH138)</f>
         <v/>
       </c>
     </row>
     <row r="135" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B135" s="14" t="str">
-        <f>IF([1]攻守數據!AD136 = "", "", [1]攻守數據!AD136)</f>
+        <f>IF([1]攻守數據!AD139 = "", "", [1]攻守數據!AD139)</f>
         <v/>
       </c>
       <c r="C135" s="14" t="str">
-        <f>IF([1]攻守數據!AE136 = "", "", [1]攻守數據!AE136)</f>
+        <f>IF([1]攻守數據!AE139 = "", "", [1]攻守數據!AE139)</f>
         <v/>
       </c>
       <c r="D135" s="14" t="str">
-        <f>IF([1]攻守數據!AF136 = "", "", [1]攻守數據!AF136)</f>
+        <f>IF([1]攻守數據!AF139 = "", "", [1]攻守數據!AF139)</f>
         <v/>
       </c>
       <c r="E135" s="14" t="str">
-        <f>IF([1]攻守數據!AG136 = "", "", [1]攻守數據!AG136)</f>
+        <f>IF([1]攻守數據!AG139 = "", "", [1]攻守數據!AG139)</f>
         <v/>
       </c>
       <c r="F135" s="14" t="str">
-        <f>IF([1]攻守數據!AH136 = "", "", [1]攻守數據!AH136)</f>
+        <f>IF([1]攻守數據!AH139 = "", "", [1]攻守數據!AH139)</f>
         <v/>
       </c>
     </row>
     <row r="136" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B136" s="14" t="str">
-        <f>IF([1]攻守數據!AD137 = "", "", [1]攻守數據!AD137)</f>
+        <f>IF([1]攻守數據!AD140 = "", "", [1]攻守數據!AD140)</f>
         <v/>
       </c>
       <c r="C136" s="14" t="str">
-        <f>IF([1]攻守數據!AE137 = "", "", [1]攻守數據!AE137)</f>
+        <f>IF([1]攻守數據!AE140 = "", "", [1]攻守數據!AE140)</f>
         <v/>
       </c>
       <c r="D136" s="14" t="str">
-        <f>IF([1]攻守數據!AF137 = "", "", [1]攻守數據!AF137)</f>
+        <f>IF([1]攻守數據!AF140 = "", "", [1]攻守數據!AF140)</f>
         <v/>
       </c>
       <c r="E136" s="14" t="str">
-        <f>IF([1]攻守數據!AG137 = "", "", [1]攻守數據!AG137)</f>
+        <f>IF([1]攻守數據!AG140 = "", "", [1]攻守數據!AG140)</f>
         <v/>
       </c>
       <c r="F136" s="14" t="str">
-        <f>IF([1]攻守數據!AH137 = "", "", [1]攻守數據!AH137)</f>
+        <f>IF([1]攻守數據!AH140 = "", "", [1]攻守數據!AH140)</f>
         <v/>
       </c>
     </row>
     <row r="137" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B137" s="14" t="str">
-        <f>IF([1]攻守數據!AD138 = "", "", [1]攻守數據!AD138)</f>
+        <f>IF([1]攻守數據!AD141 = "", "", [1]攻守數據!AD141)</f>
         <v/>
       </c>
       <c r="C137" s="14" t="str">
-        <f>IF([1]攻守數據!AE138 = "", "", [1]攻守數據!AE138)</f>
+        <f>IF([1]攻守數據!AE141 = "", "", [1]攻守數據!AE141)</f>
         <v/>
       </c>
       <c r="D137" s="14" t="str">
-        <f>IF([1]攻守數據!AF138 = "", "", [1]攻守數據!AF138)</f>
+        <f>IF([1]攻守數據!AF141 = "", "", [1]攻守數據!AF141)</f>
         <v/>
       </c>
       <c r="E137" s="14" t="str">
-        <f>IF([1]攻守數據!AG138 = "", "", [1]攻守數據!AG138)</f>
+        <f>IF([1]攻守數據!AG141 = "", "", [1]攻守數據!AG141)</f>
         <v/>
       </c>
       <c r="F137" s="14" t="str">
-        <f>IF([1]攻守數據!AH138 = "", "", [1]攻守數據!AH138)</f>
+        <f>IF([1]攻守數據!AH141 = "", "", [1]攻守數據!AH141)</f>
         <v/>
       </c>
     </row>
     <row r="138" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B138" s="14" t="str">
-        <f>IF([1]攻守數據!AD139 = "", "", [1]攻守數據!AD139)</f>
+        <f>IF([1]攻守數據!AD142 = "", "", [1]攻守數據!AD142)</f>
         <v/>
       </c>
       <c r="C138" s="14" t="str">
-        <f>IF([1]攻守數據!AE139 = "", "", [1]攻守數據!AE139)</f>
+        <f>IF([1]攻守數據!AE142 = "", "", [1]攻守數據!AE142)</f>
         <v/>
       </c>
       <c r="D138" s="14" t="str">
-        <f>IF([1]攻守數據!AF139 = "", "", [1]攻守數據!AF139)</f>
+        <f>IF([1]攻守數據!AF142 = "", "", [1]攻守數據!AF142)</f>
         <v/>
       </c>
       <c r="E138" s="14" t="str">
-        <f>IF([1]攻守數據!AG139 = "", "", [1]攻守數據!AG139)</f>
+        <f>IF([1]攻守數據!AG142 = "", "", [1]攻守數據!AG142)</f>
         <v/>
       </c>
       <c r="F138" s="14" t="str">
-        <f>IF([1]攻守數據!AH139 = "", "", [1]攻守數據!AH139)</f>
+        <f>IF([1]攻守數據!AH142 = "", "", [1]攻守數據!AH142)</f>
         <v/>
       </c>
     </row>
     <row r="139" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B139" s="14" t="str">
-        <f>IF([1]攻守數據!AD140 = "", "", [1]攻守數據!AD140)</f>
+        <f>IF([1]攻守數據!AD143 = "", "", [1]攻守數據!AD143)</f>
         <v/>
       </c>
       <c r="C139" s="14" t="str">
-        <f>IF([1]攻守數據!AE140 = "", "", [1]攻守數據!AE140)</f>
+        <f>IF([1]攻守數據!AE143 = "", "", [1]攻守數據!AE143)</f>
         <v/>
       </c>
       <c r="D139" s="14" t="str">
-        <f>IF([1]攻守數據!AF140 = "", "", [1]攻守數據!AF140)</f>
+        <f>IF([1]攻守數據!AF143 = "", "", [1]攻守數據!AF143)</f>
         <v/>
       </c>
       <c r="E139" s="14" t="str">
-        <f>IF([1]攻守數據!AG140 = "", "", [1]攻守數據!AG140)</f>
+        <f>IF([1]攻守數據!AG143 = "", "", [1]攻守數據!AG143)</f>
         <v/>
       </c>
       <c r="F139" s="14" t="str">
-        <f>IF([1]攻守數據!AH140 = "", "", [1]攻守數據!AH140)</f>
+        <f>IF([1]攻守數據!AH143 = "", "", [1]攻守數據!AH143)</f>
         <v/>
       </c>
     </row>
     <row r="140" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B140" s="14" t="str">
-        <f>IF([1]攻守數據!AD141 = "", "", [1]攻守數據!AD141)</f>
+        <f>IF([1]攻守數據!AD144 = "", "", [1]攻守數據!AD144)</f>
         <v/>
       </c>
       <c r="C140" s="14" t="str">
-        <f>IF([1]攻守數據!AE141 = "", "", [1]攻守數據!AE141)</f>
+        <f>IF([1]攻守數據!AE144 = "", "", [1]攻守數據!AE144)</f>
         <v/>
       </c>
       <c r="D140" s="14" t="str">
-        <f>IF([1]攻守數據!AF141 = "", "", [1]攻守數據!AF141)</f>
+        <f>IF([1]攻守數據!AF144 = "", "", [1]攻守數據!AF144)</f>
         <v/>
       </c>
       <c r="E140" s="14" t="str">
-        <f>IF([1]攻守數據!AG141 = "", "", [1]攻守數據!AG141)</f>
+        <f>IF([1]攻守數據!AG144 = "", "", [1]攻守數據!AG144)</f>
         <v/>
       </c>
       <c r="F140" s="14" t="str">
-        <f>IF([1]攻守數據!AH141 = "", "", [1]攻守數據!AH141)</f>
+        <f>IF([1]攻守數據!AH144 = "", "", [1]攻守數據!AH144)</f>
         <v/>
       </c>
     </row>
     <row r="141" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B141" s="14" t="str">
-        <f>IF([1]攻守數據!AD142 = "", "", [1]攻守數據!AD142)</f>
+        <f>IF([1]攻守數據!AD145 = "", "", [1]攻守數據!AD145)</f>
         <v/>
       </c>
       <c r="C141" s="14" t="str">
-        <f>IF([1]攻守數據!AE142 = "", "", [1]攻守數據!AE142)</f>
+        <f>IF([1]攻守數據!AE145 = "", "", [1]攻守數據!AE145)</f>
         <v/>
       </c>
       <c r="D141" s="14" t="str">
-        <f>IF([1]攻守數據!AF142 = "", "", [1]攻守數據!AF142)</f>
+        <f>IF([1]攻守數據!AF145 = "", "", [1]攻守數據!AF145)</f>
         <v/>
       </c>
       <c r="E141" s="14" t="str">
-        <f>IF([1]攻守數據!AG142 = "", "", [1]攻守數據!AG142)</f>
+        <f>IF([1]攻守數據!AG145 = "", "", [1]攻守數據!AG145)</f>
         <v/>
       </c>
       <c r="F141" s="14" t="str">
-        <f>IF([1]攻守數據!AH142 = "", "", [1]攻守數據!AH142)</f>
+        <f>IF([1]攻守數據!AH145 = "", "", [1]攻守數據!AH145)</f>
         <v/>
       </c>
     </row>
     <row r="142" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B142" s="14" t="str">
-        <f>IF([1]攻守數據!AD143 = "", "", [1]攻守數據!AD143)</f>
+        <f>IF([1]攻守數據!AD146 = "", "", [1]攻守數據!AD146)</f>
         <v/>
       </c>
       <c r="C142" s="14" t="str">
-        <f>IF([1]攻守數據!AE143 = "", "", [1]攻守數據!AE143)</f>
+        <f>IF([1]攻守數據!AE146 = "", "", [1]攻守數據!AE146)</f>
         <v/>
       </c>
       <c r="D142" s="14" t="str">
-        <f>IF([1]攻守數據!AF143 = "", "", [1]攻守數據!AF143)</f>
+        <f>IF([1]攻守數據!AF146 = "", "", [1]攻守數據!AF146)</f>
         <v/>
       </c>
       <c r="E142" s="14" t="str">
-        <f>IF([1]攻守數據!AG143 = "", "", [1]攻守數據!AG143)</f>
+        <f>IF([1]攻守數據!AG146 = "", "", [1]攻守數據!AG146)</f>
         <v/>
       </c>
       <c r="F142" s="14" t="str">
-        <f>IF([1]攻守數據!AH143 = "", "", [1]攻守數據!AH143)</f>
+        <f>IF([1]攻守數據!AH146 = "", "", [1]攻守數據!AH146)</f>
         <v/>
       </c>
     </row>
     <row r="143" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B143" s="14" t="str">
-        <f>IF([1]攻守數據!AD144 = "", "", [1]攻守數據!AD144)</f>
+        <f>IF([1]攻守數據!AD147 = "", "", [1]攻守數據!AD147)</f>
         <v/>
       </c>
       <c r="C143" s="14" t="str">
-        <f>IF([1]攻守數據!AE144 = "", "", [1]攻守數據!AE144)</f>
+        <f>IF([1]攻守數據!AE147 = "", "", [1]攻守數據!AE147)</f>
         <v/>
       </c>
       <c r="D143" s="14" t="str">
-        <f>IF([1]攻守數據!AF144 = "", "", [1]攻守數據!AF144)</f>
+        <f>IF([1]攻守數據!AF147 = "", "", [1]攻守數據!AF147)</f>
         <v/>
       </c>
       <c r="E143" s="14" t="str">
-        <f>IF([1]攻守數據!AG144 = "", "", [1]攻守數據!AG144)</f>
+        <f>IF([1]攻守數據!AG147 = "", "", [1]攻守數據!AG147)</f>
         <v/>
       </c>
       <c r="F143" s="14" t="str">
-        <f>IF([1]攻守數據!AH144 = "", "", [1]攻守數據!AH144)</f>
+        <f>IF([1]攻守數據!AH147 = "", "", [1]攻守數據!AH147)</f>
         <v/>
       </c>
     </row>
     <row r="144" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B144" s="14" t="str">
-        <f>IF([1]攻守數據!AD145 = "", "", [1]攻守數據!AD145)</f>
+        <f>IF([1]攻守數據!AD148 = "", "", [1]攻守數據!AD148)</f>
         <v/>
       </c>
       <c r="C144" s="14" t="str">
-        <f>IF([1]攻守數據!AE145 = "", "", [1]攻守數據!AE145)</f>
+        <f>IF([1]攻守數據!AE148 = "", "", [1]攻守數據!AE148)</f>
         <v/>
       </c>
       <c r="D144" s="14" t="str">
-        <f>IF([1]攻守數據!AF145 = "", "", [1]攻守數據!AF145)</f>
+        <f>IF([1]攻守數據!AF148 = "", "", [1]攻守數據!AF148)</f>
         <v/>
       </c>
       <c r="E144" s="14" t="str">
-        <f>IF([1]攻守數據!AG145 = "", "", [1]攻守數據!AG145)</f>
+        <f>IF([1]攻守數據!AG148 = "", "", [1]攻守數據!AG148)</f>
         <v/>
       </c>
       <c r="F144" s="14" t="str">
-        <f>IF([1]攻守數據!AH145 = "", "", [1]攻守數據!AH145)</f>
+        <f>IF([1]攻守數據!AH148 = "", "", [1]攻守數據!AH148)</f>
         <v/>
       </c>
     </row>
     <row r="145" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B145" s="14" t="str">
-        <f>IF([1]攻守數據!AD146 = "", "", [1]攻守數據!AD146)</f>
+        <f>IF([1]攻守數據!AD149 = "", "", [1]攻守數據!AD149)</f>
         <v/>
       </c>
       <c r="C145" s="14" t="str">
-        <f>IF([1]攻守數據!AE146 = "", "", [1]攻守數據!AE146)</f>
+        <f>IF([1]攻守數據!AE149 = "", "", [1]攻守數據!AE149)</f>
         <v/>
       </c>
       <c r="D145" s="14" t="str">
-        <f>IF([1]攻守數據!AF146 = "", "", [1]攻守數據!AF146)</f>
+        <f>IF([1]攻守數據!AF149 = "", "", [1]攻守數據!AF149)</f>
         <v/>
       </c>
       <c r="E145" s="14" t="str">
-        <f>IF([1]攻守數據!AG146 = "", "", [1]攻守數據!AG146)</f>
+        <f>IF([1]攻守數據!AG149 = "", "", [1]攻守數據!AG149)</f>
         <v/>
       </c>
       <c r="F145" s="14" t="str">
-        <f>IF([1]攻守數據!AH146 = "", "", [1]攻守數據!AH146)</f>
+        <f>IF([1]攻守數據!AH149 = "", "", [1]攻守數據!AH149)</f>
         <v/>
       </c>
     </row>
     <row r="146" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B146" s="14" t="str">
-        <f>IF([1]攻守數據!AD147 = "", "", [1]攻守數據!AD147)</f>
+        <f>IF([1]攻守數據!AD150 = "", "", [1]攻守數據!AD150)</f>
         <v/>
       </c>
       <c r="C146" s="14" t="str">
-        <f>IF([1]攻守數據!AE147 = "", "", [1]攻守數據!AE147)</f>
+        <f>IF([1]攻守數據!AE150 = "", "", [1]攻守數據!AE150)</f>
         <v/>
       </c>
       <c r="D146" s="14" t="str">
-        <f>IF([1]攻守數據!AF147 = "", "", [1]攻守數據!AF147)</f>
+        <f>IF([1]攻守數據!AF150 = "", "", [1]攻守數據!AF150)</f>
         <v/>
       </c>
       <c r="E146" s="14" t="str">
-        <f>IF([1]攻守數據!AG147 = "", "", [1]攻守數據!AG147)</f>
+        <f>IF([1]攻守數據!AG150 = "", "", [1]攻守數據!AG150)</f>
         <v/>
       </c>
       <c r="F146" s="14" t="str">
-        <f>IF([1]攻守數據!AH147 = "", "", [1]攻守數據!AH147)</f>
+        <f>IF([1]攻守數據!AH150 = "", "", [1]攻守數據!AH150)</f>
         <v/>
       </c>
     </row>
     <row r="147" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B147" s="14" t="str">
-        <f>IF([1]攻守數據!AD148 = "", "", [1]攻守數據!AD148)</f>
+        <f>IF([1]攻守數據!AD151 = "", "", [1]攻守數據!AD151)</f>
         <v/>
       </c>
       <c r="C147" s="14" t="str">
-        <f>IF([1]攻守數據!AE148 = "", "", [1]攻守數據!AE148)</f>
+        <f>IF([1]攻守數據!AE151 = "", "", [1]攻守數據!AE151)</f>
         <v/>
       </c>
       <c r="D147" s="14" t="str">
-        <f>IF([1]攻守數據!AF148 = "", "", [1]攻守數據!AF148)</f>
+        <f>IF([1]攻守數據!AF151 = "", "", [1]攻守數據!AF151)</f>
         <v/>
       </c>
       <c r="E147" s="14" t="str">
-        <f>IF([1]攻守數據!AG148 = "", "", [1]攻守數據!AG148)</f>
+        <f>IF([1]攻守數據!AG151 = "", "", [1]攻守數據!AG151)</f>
         <v/>
       </c>
       <c r="F147" s="14" t="str">
-        <f>IF([1]攻守數據!AH148 = "", "", [1]攻守數據!AH148)</f>
+        <f>IF([1]攻守數據!AH151 = "", "", [1]攻守數據!AH151)</f>
         <v/>
       </c>
     </row>
     <row r="148" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B148" s="14" t="str">
-        <f>IF([1]攻守數據!AD149 = "", "", [1]攻守數據!AD149)</f>
+        <f>IF([1]攻守數據!AD152 = "", "", [1]攻守數據!AD152)</f>
         <v/>
       </c>
       <c r="C148" s="14" t="str">
-        <f>IF([1]攻守數據!AE149 = "", "", [1]攻守數據!AE149)</f>
+        <f>IF([1]攻守數據!AE152 = "", "", [1]攻守數據!AE152)</f>
         <v/>
       </c>
       <c r="D148" s="14" t="str">
-        <f>IF([1]攻守數據!AF149 = "", "", [1]攻守數據!AF149)</f>
+        <f>IF([1]攻守數據!AF152 = "", "", [1]攻守數據!AF152)</f>
         <v/>
       </c>
       <c r="E148" s="14" t="str">
-        <f>IF([1]攻守數據!AG149 = "", "", [1]攻守數據!AG149)</f>
+        <f>IF([1]攻守數據!AG152 = "", "", [1]攻守數據!AG152)</f>
         <v/>
       </c>
       <c r="F148" s="14" t="str">
-        <f>IF([1]攻守數據!AH149 = "", "", [1]攻守數據!AH149)</f>
+        <f>IF([1]攻守數據!AH152 = "", "", [1]攻守數據!AH152)</f>
         <v/>
       </c>
     </row>
     <row r="149" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B149" s="14" t="str">
-        <f>IF([1]攻守數據!AD150 = "", "", [1]攻守數據!AD150)</f>
+        <f>IF([1]攻守數據!AD153 = "", "", [1]攻守數據!AD153)</f>
         <v/>
       </c>
       <c r="C149" s="14" t="str">
-        <f>IF([1]攻守數據!AE150 = "", "", [1]攻守數據!AE150)</f>
+        <f>IF([1]攻守數據!AE153 = "", "", [1]攻守數據!AE153)</f>
         <v/>
       </c>
       <c r="D149" s="14" t="str">
-        <f>IF([1]攻守數據!AF150 = "", "", [1]攻守數據!AF150)</f>
+        <f>IF([1]攻守數據!AF153 = "", "", [1]攻守數據!AF153)</f>
         <v/>
       </c>
       <c r="E149" s="14" t="str">
-        <f>IF([1]攻守數據!AG150 = "", "", [1]攻守數據!AG150)</f>
+        <f>IF([1]攻守數據!AG153 = "", "", [1]攻守數據!AG153)</f>
         <v/>
       </c>
       <c r="F149" s="14" t="str">
-        <f>IF([1]攻守數據!AH150 = "", "", [1]攻守數據!AH150)</f>
+        <f>IF([1]攻守數據!AH153 = "", "", [1]攻守數據!AH153)</f>
         <v/>
       </c>
     </row>
     <row r="150" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B150" s="14" t="str">
-        <f>IF([1]攻守數據!AD151 = "", "", [1]攻守數據!AD151)</f>
+        <f>IF([1]攻守數據!AD154 = "", "", [1]攻守數據!AD154)</f>
         <v/>
       </c>
       <c r="C150" s="14" t="str">
-        <f>IF([1]攻守數據!AE151 = "", "", [1]攻守數據!AE151)</f>
+        <f>IF([1]攻守數據!AE154 = "", "", [1]攻守數據!AE154)</f>
         <v/>
       </c>
       <c r="D150" s="14" t="str">
-        <f>IF([1]攻守數據!AF151 = "", "", [1]攻守數據!AF151)</f>
+        <f>IF([1]攻守數據!AF154 = "", "", [1]攻守數據!AF154)</f>
         <v/>
       </c>
       <c r="E150" s="14" t="str">
-        <f>IF([1]攻守數據!AG151 = "", "", [1]攻守數據!AG151)</f>
+        <f>IF([1]攻守數據!AG154 = "", "", [1]攻守數據!AG154)</f>
         <v/>
       </c>
       <c r="F150" s="14" t="str">
-        <f>IF([1]攻守數據!AH151 = "", "", [1]攻守數據!AH151)</f>
+        <f>IF([1]攻守數據!AH154 = "", "", [1]攻守數據!AH154)</f>
         <v/>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Att.xlsx
+++ b/Att.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\寶可夢\Pokemon_App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15804A04-7EF3-4E5C-8379-D19AAA847F66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A39BC8-E045-4A6E-B74D-889F9E415A39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12800" yWindow="0" windowWidth="12800" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -2431,6 +2431,74 @@
             <v>D</v>
           </cell>
         </row>
+        <row r="129">
+          <cell r="AD129" t="str">
+            <v>鳳王</v>
+          </cell>
+          <cell r="AE129" t="str">
+            <v>火</v>
+          </cell>
+          <cell r="AF129" t="str">
+            <v>N</v>
+          </cell>
+          <cell r="AG129">
+            <v>201</v>
+          </cell>
+          <cell r="AH129" t="str">
+            <v>D</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="AD130" t="str">
+            <v>鳳王</v>
+          </cell>
+          <cell r="AE130" t="str">
+            <v>超能力</v>
+          </cell>
+          <cell r="AF130" t="str">
+            <v>N</v>
+          </cell>
+          <cell r="AG130">
+            <v>201</v>
+          </cell>
+          <cell r="AH130" t="str">
+            <v>D</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="AD131" t="str">
+            <v>鳳王</v>
+          </cell>
+          <cell r="AE131" t="str">
+            <v>一般</v>
+          </cell>
+          <cell r="AF131" t="str">
+            <v>N</v>
+          </cell>
+          <cell r="AG131">
+            <v>201</v>
+          </cell>
+          <cell r="AH131" t="str">
+            <v>D</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="AD132" t="str">
+            <v>鳳王</v>
+          </cell>
+          <cell r="AE132" t="str">
+            <v>鋼</v>
+          </cell>
+          <cell r="AF132" t="str">
+            <v>N</v>
+          </cell>
+          <cell r="AG132">
+            <v>201</v>
+          </cell>
+          <cell r="AH132" t="str">
+            <v>D</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
@@ -2707,7 +2775,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AB150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
       <selection activeCell="J84" sqref="J84"/>
     </sheetView>
   </sheetViews>
@@ -6649,89 +6717,89 @@
     <row r="125" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B125" s="14" t="str">
         <f>IF([1]攻守數據!AD129 = "", "", [1]攻守數據!AD129)</f>
-        <v/>
+        <v>鳳王</v>
       </c>
       <c r="C125" s="14" t="str">
         <f>IF([1]攻守數據!AE129 = "", "", [1]攻守數據!AE129)</f>
-        <v/>
+        <v>火</v>
       </c>
       <c r="D125" s="14" t="str">
         <f>IF([1]攻守數據!AF129 = "", "", [1]攻守數據!AF129)</f>
-        <v/>
-      </c>
-      <c r="E125" s="14" t="str">
+        <v>N</v>
+      </c>
+      <c r="E125" s="14">
         <f>IF([1]攻守數據!AG129 = "", "", [1]攻守數據!AG129)</f>
-        <v/>
+        <v>201</v>
       </c>
       <c r="F125" s="14" t="str">
         <f>IF([1]攻守數據!AH129 = "", "", [1]攻守數據!AH129)</f>
-        <v/>
+        <v>D</v>
       </c>
     </row>
     <row r="126" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B126" s="14" t="str">
         <f>IF([1]攻守數據!AD130 = "", "", [1]攻守數據!AD130)</f>
-        <v/>
+        <v>鳳王</v>
       </c>
       <c r="C126" s="14" t="str">
         <f>IF([1]攻守數據!AE130 = "", "", [1]攻守數據!AE130)</f>
-        <v/>
+        <v>超能力</v>
       </c>
       <c r="D126" s="14" t="str">
         <f>IF([1]攻守數據!AF130 = "", "", [1]攻守數據!AF130)</f>
-        <v/>
-      </c>
-      <c r="E126" s="14" t="str">
+        <v>N</v>
+      </c>
+      <c r="E126" s="14">
         <f>IF([1]攻守數據!AG130 = "", "", [1]攻守數據!AG130)</f>
-        <v/>
+        <v>201</v>
       </c>
       <c r="F126" s="14" t="str">
         <f>IF([1]攻守數據!AH130 = "", "", [1]攻守數據!AH130)</f>
-        <v/>
+        <v>D</v>
       </c>
     </row>
     <row r="127" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B127" s="14" t="str">
         <f>IF([1]攻守數據!AD131 = "", "", [1]攻守數據!AD131)</f>
-        <v/>
+        <v>鳳王</v>
       </c>
       <c r="C127" s="14" t="str">
         <f>IF([1]攻守數據!AE131 = "", "", [1]攻守數據!AE131)</f>
-        <v/>
+        <v>一般</v>
       </c>
       <c r="D127" s="14" t="str">
         <f>IF([1]攻守數據!AF131 = "", "", [1]攻守數據!AF131)</f>
-        <v/>
-      </c>
-      <c r="E127" s="14" t="str">
+        <v>N</v>
+      </c>
+      <c r="E127" s="14">
         <f>IF([1]攻守數據!AG131 = "", "", [1]攻守數據!AG131)</f>
-        <v/>
+        <v>201</v>
       </c>
       <c r="F127" s="14" t="str">
         <f>IF([1]攻守數據!AH131 = "", "", [1]攻守數據!AH131)</f>
-        <v/>
+        <v>D</v>
       </c>
     </row>
     <row r="128" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B128" s="14" t="str">
         <f>IF([1]攻守數據!AD132 = "", "", [1]攻守數據!AD132)</f>
-        <v/>
+        <v>鳳王</v>
       </c>
       <c r="C128" s="14" t="str">
         <f>IF([1]攻守數據!AE132 = "", "", [1]攻守數據!AE132)</f>
-        <v/>
+        <v>鋼</v>
       </c>
       <c r="D128" s="14" t="str">
         <f>IF([1]攻守數據!AF132 = "", "", [1]攻守數據!AF132)</f>
-        <v/>
-      </c>
-      <c r="E128" s="14" t="str">
+        <v>N</v>
+      </c>
+      <c r="E128" s="14">
         <f>IF([1]攻守數據!AG132 = "", "", [1]攻守數據!AG132)</f>
-        <v/>
+        <v>201</v>
       </c>
       <c r="F128" s="14" t="str">
         <f>IF([1]攻守數據!AH132 = "", "", [1]攻守數據!AH132)</f>
-        <v/>
+        <v>D</v>
       </c>
     </row>
     <row r="129" spans="2:6" x14ac:dyDescent="0.3">
